--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marie\Desktop\Git\Storytelling_SR\SOP\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D5922C-14DF-477D-AFCD-5AEDD7E5FC56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A8B733-C905-4971-9B71-AD12A7F2FD60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24015" xr2:uid="{E4B8DB12-B672-4611-9817-EB9A51AE5FB6}"/>
   </bookViews>
@@ -282,28 +282,28 @@
     <t>EN:AGAINST</t>
   </si>
   <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Pessoalmente; esta é a minha decisão favorita.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Pessoalmente; prefiro a outra decisão.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Definitely; this will help people.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Wonderful. With this decision; you will save the people.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Personally; this is myfavourite decision.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Definitely; I disagree with you.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Wrong. With this decision; people will suffer.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Personally; I prefer other decision.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Definitely this will help people.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Wonderful. With this decision you will save the people.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Personally this is myfavourite decision.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Definitely I disagree with you.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Wrong. With this decision people will suffer.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Personally I prefer other decision.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Pessoalmente esta é a minha decisão favorita.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  Pessoalmente prefiro a outra decisão.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC699C3-7B7D-494D-9389-830F8CDC6B9F}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D55" sqref="D2:D65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\SERA\Skene\Utterances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marie\Desktop\Git\Storytelling_SR\SOP\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE393D8C-9970-4137-A4D3-D933C6619946}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DA41F-FCA4-4CA5-933D-0C4BB480171A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11408" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" activeTab="2" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Utterances" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -92,9 +92,6 @@
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(sadness1)&gt;My name is Gleen I am the other counselor.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;ANIMATE(sadness1)&gt;Meu nome é Gleen e sou o outro conselheiro.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
     <t>DP1</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Um discurso no final pode estragar o efeito feliz do baile.</t>
   </si>
   <si>
-    <t>Posso dizer que estás trabalhando forte nisto.</t>
-  </si>
-  <si>
     <t>I can say that you are working hard on this.</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>Acredito que deverias falar primeiro que todos para saberem a sua opinião.</t>
   </si>
   <si>
-    <t>Mantenhas essas decisões.</t>
-  </si>
-  <si>
     <t>Keep these decisions.</t>
   </si>
   <si>
@@ -296,9 +287,6 @@
     <t>Acredito que deves tentar ganhar a confiança do adversário convidando-o.</t>
   </si>
   <si>
-    <t>Explendido. Com esta decisão vais salvar a população.</t>
-  </si>
-  <si>
     <t>I completely agree with you.</t>
   </si>
   <si>
@@ -311,9 +299,6 @@
     <t>As paredes são mais importantes.</t>
   </si>
   <si>
-    <t>Brilhante. Não espero outra decisão.</t>
-  </si>
-  <si>
     <t>Brilliant. I did not expect another decision.</t>
   </si>
   <si>
@@ -347,9 +332,6 @@
     <t>Aconselho não ser rude neste momento.</t>
   </si>
   <si>
-    <t>Eu recomendo fortemente a confirmar esta decisão.</t>
-  </si>
-  <si>
     <t>I strongly advise confirming this decision.</t>
   </si>
   <si>
@@ -515,14 +497,206 @@
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Hello my name is Emys, I am your counselor. With my suggestions you will be victorious!&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Olá meu nome é Emis, serei o teu conselheiro. Com as minhas sugestões sairás victorioso!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Olá o meu nome é Émys, serei o teu conselheiro. Com as minhas sugestões saírás victorioso!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;ANIMATE(sadness1)&gt;O meu nome é Glêen, e também sou teu conselheiro.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>Acredito que irás ficar muito espouhsto.</t>
+  </si>
+  <si>
+    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha.</t>
+  </si>
+  <si>
+    <t>Acredito que ao falares primeiro, podes influenciar os teus conselheiros.</t>
+  </si>
+  <si>
+    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias conversar apenas com os nossos aliados mais antigos.</t>
+  </si>
+  <si>
+    <t>Não te aconselho a deixar que alguém desconhecido entre.</t>
+  </si>
+  <si>
+    <t>Acredito que não é o momento de intérahgir com o adversário.</t>
+  </si>
+  <si>
+    <t>Aconselho que solicites explicações imediatamente.</t>
+  </si>
+  <si>
+    <t>Aconselho que o deixes falar enquanto tentamos perceber melhor qual a tática dele.</t>
+  </si>
+  <si>
+    <t>Recomendo a agir rapidamente, pois precisamos de militares com urgência.</t>
+  </si>
+  <si>
+    <t>Acredito que o mensageiro transmitiu a informação correta.</t>
+  </si>
+  <si>
+    <t>Aconselho a enviar um batalhão de soldados para o ataque.</t>
+  </si>
+  <si>
+    <t>Aconselho a enviar um batalhão de soldados rapidamente para garantir a vitória.</t>
+  </si>
+  <si>
+    <t>Com apenas metade dos soldados não acho que seremos vitoriósos.</t>
+  </si>
+  <si>
+    <t>Aconselho a não sair da protéção da cidade por enquanto.</t>
+  </si>
+  <si>
+    <t>Acho que não deves te expor a este estranho.</t>
+  </si>
+  <si>
+    <t>Recomendo que mantenhas a tua liderança e  jámais te rendas.</t>
+  </si>
+  <si>
+    <t>Na minha opinião não deves mudar de opinião, pois isso demostra fraquesa.</t>
+  </si>
+  <si>
+    <t>Não deves interagir com todos os conselheiros apenas um deve falar.</t>
+  </si>
+  <si>
+    <t>Não deverias assustar o teu povo.</t>
+  </si>
+  <si>
+    <t>Não recomendo que discurses no início do baile, pois podes estragar o mesmo.</t>
+  </si>
+  <si>
+    <t>O portão é o mais importante.</t>
+  </si>
+  <si>
+    <t>Aconselho a não sejas rude.</t>
+  </si>
+  <si>
+    <t>Recomendo que não aceites, pois pode ser de um inimigo.</t>
+  </si>
+  <si>
+    <t>Aconselho a que não faças amizade com o inimigo.</t>
+  </si>
+  <si>
+    <t>Recomendo a que não toques no inimigo, pois ele pode tentar algo.</t>
+  </si>
+  <si>
+    <t>Aconselho a quenão aceites, pois pode ser de um inimigo.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa.</t>
+  </si>
+  <si>
+    <t>Aconselho a que organizes um baile para o teu povo ficar mais unido.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias expressar primeiro a tua opinião.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação.</t>
+  </si>
+  <si>
+    <t>Aconselho que coñeças o mensageiro.</t>
+  </si>
+  <si>
+    <t>Deverias ser mais gentil, e esperar que o adversário termine de falar.</t>
+  </si>
+  <si>
+    <t>Acredito que deves fazer o adversário parar de falar imediatamente.</t>
+  </si>
+  <si>
+    <t>Deves pensar melhor nesta intenção, pois a população pode ser afectada com a tua decisão.</t>
+  </si>
+  <si>
+    <t>A minha intuição diz-me que não há tempo para defender a rua principal.</t>
+  </si>
+  <si>
+    <t>Aconselho a enviar imediatamente soldados para defender a rua.</t>
+  </si>
+  <si>
+    <t>Sinto que o inimigo não perdeu tanta força como informou o mensageiro.</t>
+  </si>
+  <si>
+    <t>Acredito que deves pensar no nosso exército e deixá-lo descansar.</t>
+  </si>
+  <si>
+    <t>Cuidado, pois podemos ficar sem soldados suficientes para nos proteger.</t>
+  </si>
+  <si>
+    <t>Assim ficaremos fracos e desprutegidos.</t>
+  </si>
+  <si>
+    <t>Aconselho a ires pessoalmente e congratulá-lo pela vitória.</t>
+  </si>
+  <si>
+    <t>Acredito que deves ir pessoalmente falar com o estranho.</t>
+  </si>
+  <si>
+    <t>Acredito que não deves mostrar diplomacia para com o inimigo.</t>
+  </si>
+  <si>
+    <t>Devias negociar, pois o teu povo depende de ti.</t>
+  </si>
+  <si>
+    <t>Acredito que há várias maneiras para bloquear as ruas, devias pensar melhor.</t>
+  </si>
+  <si>
+    <t>Acredito que agora não há mais nada a fazer para defender a rua.</t>
+  </si>
+  <si>
+    <t>Agora não precisamos de símbolos, mas sim de ações.</t>
+  </si>
+  <si>
+    <t>Deverias saber a opinião de cada um dos membros do  conselho.</t>
+  </si>
+  <si>
+    <t>Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo.</t>
+  </si>
+  <si>
+    <t>As murálhas são o mais importante.</t>
+  </si>
+  <si>
+    <t>Aconselho a não seres rude agora.</t>
+  </si>
+  <si>
+    <t>Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.</t>
+  </si>
+  <si>
+    <t>Aconselho a que não questiones sobre a família.</t>
+  </si>
+  <si>
+    <t>Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.</t>
+  </si>
+  <si>
+    <t>Mantém, essas decisões.</t>
+  </si>
+  <si>
+    <t>Entendo o teu ponto de vista e concordo.</t>
+  </si>
+  <si>
+    <t>Eu concordo, completamente contigo.</t>
+  </si>
+  <si>
+    <t>Explêndido. Com esta decisão vais salvar a população.</t>
+  </si>
+  <si>
+    <t>Posso dizer que estás a trabalhar muito nisto.</t>
+  </si>
+  <si>
+    <t>Posso dizer que estás trabalhando muito nisto.</t>
+  </si>
+  <si>
+    <t>Brilhante. Não esperava outra decisão.</t>
+  </si>
+  <si>
+    <t>Eu recomendo fortemente a confirmação desta decisão.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +718,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -587,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,6 +797,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,19 +1258,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC699C3-7B7D-494D-9389-830F8CDC6B9F}">
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.265625" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="116" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="219" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1104,12 +1286,12 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -1118,12 +1300,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -1132,40 +1314,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -1174,49 +1356,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1229,10 +1411,10 @@
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito exposto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1245,10 +1427,10 @@
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que não é o momento para um baile e sim preparar-se para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1261,10 +1443,10 @@
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falar primeiro podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1277,10 +1459,10 @@
       </c>
       <c r="D13" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias se expor tanto e deverias se retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1293,10 +1475,10 @@
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos antigos aliados.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1309,10 +1491,10 @@
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não aconselho que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1325,10 +1507,10 @@
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de interagir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de intérahgir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1341,10 +1523,10 @@
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho solicitar explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1357,10 +1539,10 @@
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho deixá-lo falar enquanto tentamos melhor perceber a tatica dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que o deixes falar enquanto tentamos perceber melhor qual a tática dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1373,10 +1555,10 @@
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo agir rapidamente precisamos de militares urgente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1389,10 +1571,10 @@
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Minha intuição diz que não há tempo para defender o acesso principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1405,10 +1587,10 @@
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro passou a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1421,10 +1603,10 @@
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1437,10 +1619,10 @@
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa rapidamente e assim garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados rapidamente para garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1453,10 +1635,10 @@
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apenas com metade não seremos vitóriosos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1469,10 +1651,10 @@
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ainda não sair das proteções da cidade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1485,10 +1667,10 @@
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves se expor a esse estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves te expor a este estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1504,7 +1686,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1517,10 +1699,10 @@
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que deves ser líder e jamais se render.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e  jámais te rendas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1533,10 +1715,10 @@
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mudar de opinião pois isso mostra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Na minha opinião não deves mudar de opinião, pois isso demostra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1549,10 +1731,10 @@
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias ideias para bloquear os acessos pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear as ruas, devias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1568,7 +1750,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1581,10 +1763,10 @@
       </c>
       <c r="D32" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos do conselho apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1597,10 +1779,10 @@
       </c>
       <c r="D33" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar ao público eles precisam saber.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1613,10 +1795,10 @@
       </c>
       <c r="D34" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a organizar o baile para o povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1629,10 +1811,10 @@
       </c>
       <c r="D35" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar primeiro que todos para saberem a sua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1645,10 +1827,10 @@
       </c>
       <c r="D36" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar tranquilidade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1664,7 +1846,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1677,10 +1859,10 @@
       </c>
       <c r="D38" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que conheças essa pessoa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1696,7 +1878,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves tentar ganhar a confiança do adversário convidando-o.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1709,10 +1891,10 @@
       </c>
       <c r="D40" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil e aguardar o adversário terminar de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1725,10 +1907,10 @@
       </c>
       <c r="D41" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves imediatamente fazer ele parar de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves fazer o adversário parar de falar imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1741,10 +1923,10 @@
       </c>
       <c r="D42" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afetada.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afectada com a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1757,10 +1939,10 @@
       </c>
       <c r="D43" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1773,10 +1955,10 @@
       </c>
       <c r="D44" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informa o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1789,10 +1971,10 @@
       </c>
       <c r="D45" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixa-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1805,10 +1987,10 @@
       </c>
       <c r="D46" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado pois podemos ficar sem exército suficiente para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, pois podemos ficar sem soldados suficientes para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1821,10 +2003,10 @@
       </c>
       <c r="D47" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Ficaremos fracos e desprotegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1837,10 +2019,10 @@
       </c>
       <c r="D48" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ir pessoalmente e parabenizar pela vitoria.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1853,10 +2035,10 @@
       </c>
       <c r="D49" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com esse estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com o estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1869,10 +2051,10 @@
       </c>
       <c r="D50" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1885,10 +2067,10 @@
       </c>
       <c r="D51" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar pois teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1904,7 +2086,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1917,10 +2099,10 @@
       </c>
       <c r="D53" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais como defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender a rua.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1933,10 +2115,10 @@
       </c>
       <c r="D54" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não precisamos de símbolos, mas de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1949,10 +2131,10 @@
       </c>
       <c r="D55" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um do conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do  conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1968,7 +2150,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1984,7 +2166,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1997,10 +2179,10 @@
       </c>
       <c r="D58" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantenhas essas decisões.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém, essas decisões.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2016,7 +2198,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2029,10 +2211,10 @@
       </c>
       <c r="D60" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo seu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2045,10 +2227,10 @@
       </c>
       <c r="D61" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu completamente concordo contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu concordo, completamente contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2061,10 +2243,10 @@
       </c>
       <c r="D62" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explendido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explêndido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2080,7 +2262,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Pessoalmente, esta é a minha decisão favorita.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2096,7 +2278,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta decisão está completamente correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2112,7 +2294,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Isto definitivamente irá ajudar a população&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2128,7 +2310,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Isto definitivamente irá ajudar a população&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2144,7 +2326,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2157,10 +2339,10 @@
       </c>
       <c r="D68" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Posso dizer que estás trabalhando forte nisto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Posso dizer que estás a trabalhar muito nisto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2176,7 +2358,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2189,10 +2371,10 @@
       </c>
       <c r="D70" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo seu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2208,7 +2390,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu completamente concordo contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2221,10 +2403,10 @@
       </c>
       <c r="D72" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explendido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explêndido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2237,10 +2419,10 @@
       </c>
       <c r="D73" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilhante. Não espero outra decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilhante. Não esperava outra decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2256,7 +2438,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2272,7 +2454,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo seu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2285,10 +2467,10 @@
       </c>
       <c r="D76" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu completamente concordo contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu concordo, completamente contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2304,7 +2486,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estás a fazer um ótimo trabalho como líder.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2317,10 +2499,10 @@
       </c>
       <c r="D78" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explendido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explêndido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2336,7 +2518,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito exposto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2352,7 +2534,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que não é o momento para um baile e sim preparar-se para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2368,7 +2550,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falar primeiro podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2384,7 +2566,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias se expor tanto e deverias se retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2400,7 +2582,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos antigos aliados.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2416,7 +2598,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não aconselho que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2432,7 +2614,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de interagir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2448,7 +2630,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho solicitar explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2464,7 +2646,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho deixá-lo falar enquanto tentamos melhor perceber a tatica dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2480,7 +2662,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo agir rapidamente precisamos de militares urgente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2496,7 +2678,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Minha intuição diz que não há tempo para defender o acesso principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2512,7 +2694,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro passou a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2528,7 +2710,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2544,7 +2726,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa rapidamente e assim garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2560,7 +2742,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apenas com metade não seremos vitóriosos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2576,7 +2758,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ainda não sair das proteções da cidade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2592,7 +2774,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves se expor a esse estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2608,7 +2790,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2624,7 +2806,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que deves ser líder e jamais se render.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2640,7 +2822,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mudar de opinião pois isso mostra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2656,7 +2838,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias ideias para bloquear os acessos pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2672,7 +2854,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2688,7 +2870,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos do conselho apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2704,7 +2886,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar ao público eles precisam saber.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2720,7 +2902,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a organizar o baile para o povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2736,7 +2918,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar primeiro que todos para saberem a sua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2752,7 +2934,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar tranquilidade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2768,7 +2950,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2784,7 +2966,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que conheças essa pessoa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2800,7 +2982,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves tentar ganhar a confiança do adversário convidando-o.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2816,7 +2998,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil e aguardar o adversário terminar de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2832,7 +3014,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves imediatamente fazer ele parar de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2848,7 +3030,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afetada.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2864,7 +3046,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2880,7 +3062,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informa o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2896,7 +3078,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixa-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2912,7 +3094,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado pois podemos ficar sem exército suficiente para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2928,7 +3110,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Ficaremos fracos e desprotegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2944,7 +3126,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ir pessoalmente e parabenizar pela vitoria.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2960,7 +3142,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com esse estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2976,7 +3158,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2992,7 +3174,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar pois teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3008,7 +3190,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3024,7 +3206,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais como defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3040,7 +3222,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não precisamos de símbolos, mas de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3056,7 +3238,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um do conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3072,7 +3254,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3088,7 +3270,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3104,7 +3286,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep these decisions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3120,7 +3302,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3136,7 +3318,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3152,7 +3334,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Definitely, this will help people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3168,7 +3350,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I completely agree with you.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3184,7 +3366,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Personally, this is my favourite decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3200,7 +3382,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This decision is correct.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3216,7 +3398,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3232,7 +3414,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3248,7 +3430,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3264,7 +3446,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I can say that you are working hard on this.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3280,7 +3462,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3296,7 +3478,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3312,7 +3494,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Definitely, this will help people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3328,7 +3510,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3344,7 +3526,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilliant. I did not expect another decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3360,7 +3542,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3376,7 +3558,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3392,7 +3574,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Definitely, this will help people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3408,7 +3590,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You are doing a great job as leader.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3424,7 +3606,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3437,10 +3619,10 @@
       </c>
       <c r="D148" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3453,10 +3635,10 @@
       </c>
       <c r="D149" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não aconselho o discurso no início pois pode estragar o baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3469,10 +3651,10 @@
       </c>
       <c r="D150" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3485,10 +3667,10 @@
       </c>
       <c r="D151" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho não ser rude neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sejas rude.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3501,10 +3683,10 @@
       </c>
       <c r="D152" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não aceitar, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3517,10 +3699,10 @@
       </c>
       <c r="D153" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3533,10 +3715,10 @@
       </c>
       <c r="D154" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não tentar amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não faças amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3549,10 +3731,10 @@
       </c>
       <c r="D155" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não tocar no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a que não toques no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3565,10 +3747,10 @@
       </c>
       <c r="D156" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não aceitar, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a quenão aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3581,10 +3763,10 @@
       </c>
       <c r="D157" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3597,10 +3779,10 @@
       </c>
       <c r="D158" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final pode estragar o efeito feliz do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3613,10 +3795,10 @@
       </c>
       <c r="D159" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As paredes são mais importantes.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3629,10 +3811,10 @@
       </c>
       <c r="D160" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho não ser rude neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3645,10 +3827,10 @@
       </c>
       <c r="D161" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, ele faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3661,10 +3843,10 @@
       </c>
       <c r="D162" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3677,10 +3859,10 @@
       </c>
       <c r="D163" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não saber sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3693,10 +3875,10 @@
       </c>
       <c r="D164" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ter mais diplomacia e apertar a mão do inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3709,10 +3891,10 @@
       </c>
       <c r="D165" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, ele faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -3728,7 +3910,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estás a fazer um ótimo trabalho como líder.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3741,10 +3923,10 @@
       </c>
       <c r="D167" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Posso dizer que estás trabalhando forte nisto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Posso dizer que estás trabalhando muito nisto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -3757,10 +3939,10 @@
       </c>
       <c r="D168" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilhante. Não espero outra decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilhante. Não esperava outra decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -3773,10 +3955,10 @@
       </c>
       <c r="D169" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu recomendo fortemente a confirmar esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu recomendo fortemente a confirmação desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -3789,10 +3971,10 @@
       </c>
       <c r="D170" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantenhas essas decisões.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém, essas decisões.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -3808,7 +3990,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Pessoalmente, esta é a minha decisão favorita.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -3824,7 +4006,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta decisão está completamente correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -3837,10 +4019,10 @@
       </c>
       <c r="D173" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu recomendo fortemente a confirmar esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu recomendo fortemente a confirmação desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -3856,7 +4038,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -3872,7 +4054,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -3888,7 +4070,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não aconselho o discurso no início pois pode estragar o baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -3904,7 +4086,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -3920,7 +4102,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho não ser rude neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -3936,7 +4118,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não aceitar, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -3952,7 +4134,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -3968,7 +4150,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não tentar amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -3984,7 +4166,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não tocar no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4000,7 +4182,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não aceitar, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4016,7 +4198,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4032,7 +4214,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final pode estragar o efeito feliz do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4048,7 +4230,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As paredes são mais importantes.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4064,7 +4246,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho não ser rude neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4080,7 +4262,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, ele faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4096,7 +4278,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4112,7 +4294,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não saber sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4128,7 +4310,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ter mais diplomacia e apertar a mão do inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4144,7 +4326,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, ele faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4160,7 +4342,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You are doing a great job as leader.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4176,7 +4358,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I can say that you are working hard on this.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4192,7 +4374,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilliant. I did not expect another decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4208,7 +4390,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I strongly advise confirming this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4224,7 +4406,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep these decisions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4240,7 +4422,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Personally, this is my favourite decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4256,7 +4438,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This decision is correct.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4272,7 +4454,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I strongly advise confirming this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4288,97 +4470,97 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="12"/>
       <c r="C202" s="6"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="12"/>
       <c r="C203" s="6"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="12"/>
       <c r="C204" s="6"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="12"/>
       <c r="C205" s="6"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="12"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="12"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="12"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="12"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="12"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="12"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="12"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="12"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="12"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="12"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="12"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="12"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="12"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="12"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="12"/>
       <c r="C220" s="6"/>
@@ -4412,26 +4594,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -4439,1175 +4621,1175 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="13" t="str">
         <f>_xlfn.CONCAT($K1,":",E1)</f>
         <v>DP1:phraseFavourPref_EN</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="13" t="str">
         <f>_xlfn.CONCAT($K1,":",G1)</f>
         <v>DP1:phraseAgainstPref2_EN</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="13" t="str">
         <f>_xlfn.CONCAT($K1,":",I1)</f>
         <v>DP1:phraseAgainstPref1_EN</v>
       </c>
       <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
       </c>
       <c r="M1" s="13" t="str">
         <f>_xlfn.CONCAT($K1,":",L1)</f>
         <v>DP1:phraseAgainstPref1_PT</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1" s="13" t="str">
         <f>_xlfn.CONCAT($K1,":",N1)</f>
         <v>DP1:phraseAgainstPref2_PT</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="13" t="str">
         <f>_xlfn.CONCAT($K1,":",P1)</f>
         <v>DP1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="13" t="str">
         <f t="shared" ref="F2:F7" si="0">_xlfn.CONCAT($K2,":",E2)</f>
         <v>DP2:phraseFavourPref_EN</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="13" t="str">
         <f t="shared" ref="H2:H7" si="1">_xlfn.CONCAT($K2,":",G2)</f>
         <v>DP2:phraseAgainstPref2_EN</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="13" t="str">
         <f t="shared" ref="J2:J7" si="2">_xlfn.CONCAT($K2,":",I2)</f>
         <v>DP2:phraseAgainstPref1_EN</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="13" t="str">
         <f t="shared" ref="M2:M7" si="3">_xlfn.CONCAT($K2,":",L2)</f>
         <v>DP2:phraseAgainstPref1_PT</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O2" s="13" t="str">
         <f t="shared" ref="O2:O7" si="4">_xlfn.CONCAT($K2,":",N2)</f>
         <v>DP2:phraseAgainstPref2_PT</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="13" t="str">
         <f t="shared" ref="Q2:Q7" si="5">_xlfn.CONCAT($K2,":",P2)</f>
         <v>DP2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="13" t="str">
         <f t="shared" si="0"/>
         <v>DP3:phraseFavourPref_EN</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="13" t="str">
         <f t="shared" si="1"/>
         <v>DP3:phraseAgainstPref2_EN</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="13" t="str">
         <f t="shared" si="2"/>
         <v>DP3:phraseAgainstPref1_EN</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="13" t="str">
         <f t="shared" si="3"/>
         <v>DP3:phraseAgainstPref1_PT</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" s="13" t="str">
         <f t="shared" si="4"/>
         <v>DP3:phraseAgainstPref2_PT</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="13" t="str">
         <f t="shared" si="5"/>
         <v>DP3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>DP4:phraseFavourPref_EN</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="13" t="str">
         <f t="shared" si="1"/>
         <v>DP4:phraseAgainstPref2_EN</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" si="2"/>
         <v>DP4:phraseAgainstPref1_EN</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="13" t="str">
         <f t="shared" si="3"/>
         <v>DP4:phraseAgainstPref1_PT</v>
       </c>
       <c r="N4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O4" s="13" t="str">
         <f t="shared" si="4"/>
         <v>DP4:phraseAgainstPref2_PT</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="13" t="str">
         <f t="shared" si="5"/>
         <v>DP4:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>DP5:phraseFavourPref_EN</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="13" t="str">
         <f t="shared" si="1"/>
         <v>DP5:phraseAgainstPref2_EN</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" si="2"/>
         <v>DP5:phraseAgainstPref1_EN</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="13" t="str">
         <f t="shared" si="3"/>
         <v>DP5:phraseAgainstPref1_PT</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>DP5:phraseAgainstPref2_PT</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>DP5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>DP6:phraseFavourPref_EN</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="13" t="str">
         <f t="shared" si="1"/>
         <v>DP6:phraseAgainstPref2_EN</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" si="2"/>
         <v>DP6:phraseAgainstPref1_EN</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="13" t="str">
         <f t="shared" si="3"/>
         <v>DP6:phraseAgainstPref1_PT</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O6" s="13" t="str">
         <f t="shared" si="4"/>
         <v>DP6:phraseAgainstPref2_PT</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="13" t="str">
         <f t="shared" si="5"/>
         <v>DP6:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>DP7:phraseFavourPref_EN</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>DP7:phraseAgainstPref2_EN</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="2"/>
         <v>DP7:phraseAgainstPref1_EN</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="13" t="str">
         <f t="shared" si="3"/>
         <v>DP7:phraseAgainstPref1_PT</v>
       </c>
       <c r="N7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O7" s="13" t="str">
         <f t="shared" si="4"/>
         <v>DP7:phraseAgainstPref2_PT</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="13" t="str">
         <f t="shared" si="5"/>
         <v>DP7:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="13" t="str">
         <f t="shared" ref="F8:F23" si="6">_xlfn.CONCAT($K8,":",E8)</f>
         <v>DP10:phraseFavourPref_EN</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="13" t="str">
         <f t="shared" ref="H8:H23" si="7">_xlfn.CONCAT($K8,":",G8)</f>
         <v>DP10:phraseAgainstPref2_EN</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" ref="J8:J23" si="8">_xlfn.CONCAT($K8,":",I8)</f>
         <v>DP10:phraseAgainstPref1_EN</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="13" t="str">
         <f t="shared" ref="M8:M23" si="9">_xlfn.CONCAT($K8,":",L8)</f>
         <v>DP10:phraseAgainstPref1_PT</v>
       </c>
       <c r="N8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O8" s="13" t="str">
         <f t="shared" ref="O8:O23" si="10">_xlfn.CONCAT($K8,":",N8)</f>
         <v>DP10:phraseAgainstPref2_PT</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="13" t="str">
         <f t="shared" ref="Q8:Q23" si="11">_xlfn.CONCAT($K8,":",P8)</f>
         <v>DP10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP11:phraseFavourPref_EN</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP11:phraseAgainstPref2_EN</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP11:phraseAgainstPref1_EN</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP11:phraseAgainstPref1_PT</v>
       </c>
       <c r="N9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O9" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP11:phraseAgainstPref2_PT</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str">
         <f>M1</f>
         <v>DP1:phraseAgainstPref1_PT</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP12:phraseFavourPref_EN</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP12:phraseAgainstPref2_EN</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP12:phraseAgainstPref1_EN</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP12:phraseAgainstPref1_PT</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O10" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP12:phraseAgainstPref2_PT</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP12:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="str">
         <f t="shared" ref="B11:B32" si="12">M2</f>
         <v>DP2:phraseAgainstPref1_PT</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP18:phraseFavourPref_EN</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP18:phraseAgainstPref2_EN</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP18:phraseAgainstPref1_EN</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP18:phraseAgainstPref1_PT</v>
       </c>
       <c r="N11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O11" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP18:phraseAgainstPref2_PT</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP18:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP3:phraseAgainstPref1_PT</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP25:phraseFavourPref_EN</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP25:phraseAgainstPref2_EN</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP25:phraseAgainstPref1_EN</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP25:phraseAgainstPref1_PT</v>
       </c>
       <c r="N12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O12" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP25:phraseAgainstPref2_PT</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP25:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP4:phraseAgainstPref1_PT</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP26:phraseFavourPref_EN</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP26:phraseAgainstPref2_EN</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP26:phraseAgainstPref1_EN</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP26:phraseAgainstPref1_PT</v>
       </c>
       <c r="N13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O13" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP26:phraseAgainstPref2_PT</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP26:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP5:phraseAgainstPref1_PT</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP27:phraseFavourPref_EN</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP27:phraseAgainstPref2_EN</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP27:phraseAgainstPref1_EN</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP27:phraseAgainstPref1_PT</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O14" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP27:phraseAgainstPref2_PT</v>
       </c>
       <c r="P14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP27:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP6:phraseAgainstPref1_PT</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP28:phraseFavourPref_EN</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP28:phraseAgainstPref2_EN</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP28:phraseAgainstPref1_EN</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP28:phraseAgainstPref1_PT</v>
       </c>
       <c r="N15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O15" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP28:phraseAgainstPref2_PT</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP28:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP7:phraseAgainstPref1_PT</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP29:phraseFavourPref_EN</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP29:phraseAgainstPref2_EN</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP29:phraseAgainstPref1_EN</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP29:phraseAgainstPref1_PT</v>
       </c>
       <c r="N16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O16" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP29:phraseAgainstPref2_PT</v>
       </c>
       <c r="P16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP29:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP10:phraseAgainstPref1_PT</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP30:phraseFavourPref_EN</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP30:phraseAgainstPref2_EN</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP30:phraseAgainstPref1_EN</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP30:phraseAgainstPref1_PT</v>
       </c>
       <c r="N17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O17" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP30:phraseAgainstPref2_PT</v>
       </c>
       <c r="P17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP30:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP11:phraseAgainstPref1_PT</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP31:phraseFavourPref_EN</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP31:phraseAgainstPref2_EN</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP31:phraseAgainstPref1_EN</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP31:phraseAgainstPref1_PT</v>
       </c>
       <c r="N18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O18" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP31:phraseAgainstPref2_PT</v>
       </c>
       <c r="P18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP31:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP12:phraseAgainstPref1_PT</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP32:phraseFavourPref_EN</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP32:phraseAgainstPref2_EN</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP32:phraseAgainstPref1_EN</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP32:phraseAgainstPref1_PT</v>
       </c>
       <c r="N19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O19" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP32:phraseAgainstPref2_PT</v>
       </c>
       <c r="P19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP32:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP18:phraseAgainstPref1_PT</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP33:phraseFavourPref_EN</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP33:phraseAgainstPref2_EN</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP33:phraseAgainstPref1_EN</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP33:phraseAgainstPref1_PT</v>
       </c>
       <c r="N20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O20" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP33:phraseAgainstPref2_PT</v>
       </c>
       <c r="P20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP33:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP25:phraseAgainstPref1_PT</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP34:phraseFavourPref_EN</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP34:phraseAgainstPref2_EN</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP34:phraseAgainstPref1_EN</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M21" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP34:phraseAgainstPref1_PT</v>
       </c>
       <c r="N21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O21" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP34:phraseAgainstPref2_PT</v>
       </c>
       <c r="P21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP34:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP26:phraseAgainstPref1_PT</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP35:phraseFavourPref_EN</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP35:phraseAgainstPref2_EN</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP35:phraseAgainstPref1_EN</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP35:phraseAgainstPref1_PT</v>
       </c>
       <c r="N22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O22" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP35:phraseAgainstPref2_PT</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP35:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP27:phraseAgainstPref1_PT</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="13" t="str">
         <f t="shared" si="6"/>
         <v>DP36:phraseFavourPref_EN</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" si="7"/>
         <v>DP36:phraseAgainstPref2_EN</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="13" t="str">
         <f t="shared" si="8"/>
         <v>DP36:phraseAgainstPref1_EN</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23" s="13" t="str">
         <f t="shared" si="9"/>
         <v>DP36:phraseAgainstPref1_PT</v>
       </c>
       <c r="N23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O23" s="13" t="str">
         <f t="shared" si="10"/>
         <v>DP36:phraseAgainstPref2_PT</v>
       </c>
       <c r="P23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="13" t="str">
         <f t="shared" si="11"/>
         <v>DP36:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP28:phraseAgainstPref1_PT</v>
@@ -5616,484 +5798,484 @@
       <c r="H24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP29:phraseAgainstPref1_PT</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="13" t="str">
         <f t="shared" ref="F25:F33" si="13">_xlfn.CONCAT($K25,":",E25)</f>
         <v>DG1:phraseFavourPref_EN</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" ref="H25:H33" si="14">_xlfn.CONCAT($K25,":",G25)</f>
         <v>DG1:phraseAgainstPref2_EN</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" s="13" t="str">
         <f t="shared" ref="J25:J33" si="15">_xlfn.CONCAT($K25,":",I25)</f>
         <v>DG1:phraseAgainstPref1_EN</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M25" s="13" t="str">
         <f t="shared" ref="M25:M33" si="16">_xlfn.CONCAT($K25,":",L25)</f>
         <v>DG1:phraseAgainstPref1_PT</v>
       </c>
       <c r="N25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O25" s="13" t="str">
         <f t="shared" ref="O25:O33" si="17">_xlfn.CONCAT($K25,":",N25)</f>
         <v>DG1:phraseAgainstPref2_PT</v>
       </c>
       <c r="P25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="13" t="str">
         <f t="shared" ref="Q25:Q33" si="18">_xlfn.CONCAT($K25,":",P25)</f>
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP30:phraseAgainstPref1_PT</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="13" t="str">
         <f t="shared" si="13"/>
         <v>DG2:phraseFavourPref_EN</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="13" t="str">
         <f t="shared" si="14"/>
         <v>DG2:phraseAgainstPref2_EN</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26" s="13" t="str">
         <f t="shared" si="15"/>
         <v>DG2:phraseAgainstPref1_EN</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M26" s="13" t="str">
         <f t="shared" si="16"/>
         <v>DG2:phraseAgainstPref1_PT</v>
       </c>
       <c r="N26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O26" s="13" t="str">
         <f t="shared" si="17"/>
         <v>DG2:phraseAgainstPref2_PT</v>
       </c>
       <c r="P26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="13" t="str">
         <f t="shared" si="18"/>
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP31:phraseAgainstPref1_PT</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="13" t="str">
         <f t="shared" si="13"/>
         <v>DG3:phraseFavourPref_EN</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" si="14"/>
         <v>DG3:phraseAgainstPref2_EN</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J27" s="13" t="str">
         <f t="shared" si="15"/>
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M27" s="13" t="str">
         <f t="shared" si="16"/>
         <v>DG3:phraseAgainstPref1_PT</v>
       </c>
       <c r="N27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O27" s="13" t="str">
         <f t="shared" si="17"/>
         <v>DG3:phraseAgainstPref2_PT</v>
       </c>
       <c r="P27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="13" t="str">
         <f t="shared" si="18"/>
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP32:phraseAgainstPref1_PT</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="13" t="str">
         <f t="shared" si="13"/>
         <v>DG5:phraseFavourPref_EN</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28" s="13" t="str">
         <f t="shared" si="14"/>
         <v>DG5:phraseAgainstPref2_EN</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J28" s="13" t="str">
         <f t="shared" si="15"/>
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M28" s="13" t="str">
         <f t="shared" si="16"/>
         <v>DG5:phraseAgainstPref1_PT</v>
       </c>
       <c r="N28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O28" s="13" t="str">
         <f t="shared" si="17"/>
         <v>DG5:phraseAgainstPref2_PT</v>
       </c>
       <c r="P28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="13" t="str">
         <f t="shared" si="18"/>
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP33:phraseAgainstPref1_PT</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="13" t="str">
         <f t="shared" si="13"/>
         <v>DG9:phraseFavourPref_EN</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="13" t="str">
         <f t="shared" si="14"/>
         <v>DG9:phraseAgainstPref2_EN</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J29" s="13" t="str">
         <f t="shared" si="15"/>
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M29" s="13" t="str">
         <f t="shared" si="16"/>
         <v>DG9:phraseAgainstPref1_PT</v>
       </c>
       <c r="N29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O29" s="13" t="str">
         <f t="shared" si="17"/>
         <v>DG9:phraseAgainstPref2_PT</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="13" t="str">
         <f t="shared" si="18"/>
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP34:phraseAgainstPref1_PT</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="13" t="str">
         <f t="shared" si="13"/>
         <v>DG10:phraseFavourPref_EN</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" s="13" t="str">
         <f t="shared" si="14"/>
         <v>DG10:phraseAgainstPref2_EN</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30" s="13" t="str">
         <f t="shared" si="15"/>
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
       <c r="K30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M30" s="13" t="str">
         <f t="shared" si="16"/>
         <v>DG10:phraseAgainstPref1_PT</v>
       </c>
       <c r="N30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O30" s="13" t="str">
         <f t="shared" si="17"/>
         <v>DG10:phraseAgainstPref2_PT</v>
       </c>
       <c r="P30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="13" t="str">
         <f t="shared" si="18"/>
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP35:phraseAgainstPref1_PT</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="13" t="str">
         <f t="shared" si="13"/>
         <v>DG11:phraseFavourPref_EN</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="13" t="str">
         <f t="shared" si="14"/>
         <v>DG11:phraseAgainstPref2_EN</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="13" t="str">
         <f t="shared" si="15"/>
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M31" s="13" t="str">
         <f t="shared" si="16"/>
         <v>DG11:phraseAgainstPref1_PT</v>
       </c>
       <c r="N31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O31" s="13" t="str">
         <f t="shared" si="17"/>
         <v>DG11:phraseAgainstPref2_PT</v>
       </c>
       <c r="P31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="13" t="str">
         <f t="shared" si="18"/>
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP36:phraseAgainstPref1_PT</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="13" t="str">
         <f t="shared" si="13"/>
         <v>DG14:phraseFavourPref_EN</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32" s="13" t="str">
         <f t="shared" si="14"/>
         <v>DG14:phraseAgainstPref2_EN</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32" s="13" t="str">
         <f t="shared" si="15"/>
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
       <c r="K32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M32" s="13" t="str">
         <f t="shared" si="16"/>
         <v>DG14:phraseAgainstPref1_PT</v>
       </c>
       <c r="N32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O32" s="13" t="str">
         <f t="shared" si="17"/>
         <v>DG14:phraseAgainstPref2_PT</v>
       </c>
       <c r="P32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q32" s="13" t="str">
         <f t="shared" si="18"/>
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="str">
         <f>O1</f>
         <v>DP1:phraseAgainstPref2_PT</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="13" t="str">
         <f t="shared" si="13"/>
         <v>DG19:phraseFavourPref_EN</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" s="13" t="str">
         <f t="shared" si="14"/>
         <v>DG19:phraseAgainstPref2_EN</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J33" s="13" t="str">
         <f t="shared" si="15"/>
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
       <c r="K33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M33" s="13" t="str">
         <f t="shared" si="16"/>
         <v>DG19:phraseAgainstPref1_PT</v>
       </c>
       <c r="N33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O33" s="13" t="str">
         <f t="shared" si="17"/>
         <v>DG19:phraseAgainstPref2_PT</v>
       </c>
       <c r="P33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="13" t="str">
         <f t="shared" si="18"/>
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="str">
         <f t="shared" ref="B34:B55" si="19">O2</f>
         <v>DP2:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP4:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP5:phraseAgainstPref2_PT</v>
@@ -6104,7 +6286,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP6:phraseAgainstPref2_PT</v>
@@ -6115,7 +6297,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP7:phraseAgainstPref2_PT</v>
@@ -6126,7 +6308,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP10:phraseAgainstPref2_PT</v>
@@ -6137,7 +6319,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP11:phraseAgainstPref2_PT</v>
@@ -6148,7 +6330,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP12:phraseAgainstPref2_PT</v>
@@ -6159,7 +6341,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP18:phraseAgainstPref2_PT</v>
@@ -6170,7 +6352,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP25:phraseAgainstPref2_PT</v>
@@ -6181,7 +6363,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP26:phraseAgainstPref2_PT</v>
@@ -6192,7 +6374,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP27:phraseAgainstPref2_PT</v>
@@ -6203,7 +6385,7 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP28:phraseAgainstPref2_PT</v>
@@ -6214,7 +6396,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP29:phraseAgainstPref2_PT</v>
@@ -6225,7 +6407,7 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP30:phraseAgainstPref2_PT</v>
@@ -6236,7 +6418,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP31:phraseAgainstPref2_PT</v>
@@ -6247,7 +6429,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP32:phraseAgainstPref2_PT</v>
@@ -6258,7 +6440,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP33:phraseAgainstPref2_PT</v>
@@ -6269,7 +6451,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP34:phraseAgainstPref2_PT</v>
@@ -6280,7 +6462,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP35:phraseAgainstPref2_PT</v>
@@ -6291,7 +6473,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP36:phraseAgainstPref2_PT</v>
@@ -6302,7 +6484,7 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="str">
         <f>Q1</f>
         <v>DP1:phraseFavourPref_PT</v>
@@ -6313,7 +6495,7 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="str">
         <f t="shared" ref="B57:B78" si="20">Q2</f>
         <v>DP2:phraseFavourPref_PT</v>
@@ -6324,7 +6506,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP3:phraseFavourPref_PT</v>
@@ -6335,7 +6517,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP4:phraseFavourPref_PT</v>
@@ -6346,7 +6528,7 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP5:phraseFavourPref_PT</v>
@@ -6357,7 +6539,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP6:phraseFavourPref_PT</v>
@@ -6368,7 +6550,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP7:phraseFavourPref_PT</v>
@@ -6379,7 +6561,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP10:phraseFavourPref_PT</v>
@@ -6390,7 +6572,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP11:phraseFavourPref_PT</v>
@@ -6401,7 +6583,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP12:phraseFavourPref_PT</v>
@@ -6412,7 +6594,7 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP18:phraseFavourPref_PT</v>
@@ -6423,7 +6605,7 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP25:phraseFavourPref_PT</v>
@@ -6434,7 +6616,7 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP26:phraseFavourPref_PT</v>
@@ -6445,7 +6627,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP27:phraseFavourPref_PT</v>
@@ -6456,7 +6638,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP28:phraseFavourPref_PT</v>
@@ -6467,7 +6649,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP29:phraseFavourPref_PT</v>
@@ -6478,7 +6660,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP30:phraseFavourPref_PT</v>
@@ -6489,7 +6671,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP31:phraseFavourPref_PT</v>
@@ -6500,7 +6682,7 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP32:phraseFavourPref_PT</v>
@@ -6511,7 +6693,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP33:phraseFavourPref_PT</v>
@@ -6522,7 +6704,7 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP34:phraseFavourPref_PT</v>
@@ -6533,7 +6715,7 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP35:phraseFavourPref_PT</v>
@@ -6544,7 +6726,7 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP36:phraseFavourPref_PT</v>
@@ -6555,7 +6737,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="str">
         <f>J1</f>
         <v>DP1:phraseAgainstPref1_EN</v>
@@ -6566,7 +6748,7 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="str">
         <f t="shared" ref="B80:B101" si="21">J2</f>
         <v>DP2:phraseAgainstPref1_EN</v>
@@ -6577,7 +6759,7 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP3:phraseAgainstPref1_EN</v>
@@ -6588,7 +6770,7 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP4:phraseAgainstPref1_EN</v>
@@ -6599,7 +6781,7 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP5:phraseAgainstPref1_EN</v>
@@ -6610,7 +6792,7 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP6:phraseAgainstPref1_EN</v>
@@ -6621,7 +6803,7 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP7:phraseAgainstPref1_EN</v>
@@ -6632,7 +6814,7 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP10:phraseAgainstPref1_EN</v>
@@ -6643,7 +6825,7 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP11:phraseAgainstPref1_EN</v>
@@ -6654,7 +6836,7 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP12:phraseAgainstPref1_EN</v>
@@ -6665,7 +6847,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP18:phraseAgainstPref1_EN</v>
@@ -6676,7 +6858,7 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP25:phraseAgainstPref1_EN</v>
@@ -6687,7 +6869,7 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP26:phraseAgainstPref1_EN</v>
@@ -6698,7 +6880,7 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP27:phraseAgainstPref1_EN</v>
@@ -6709,7 +6891,7 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP28:phraseAgainstPref1_EN</v>
@@ -6720,7 +6902,7 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP29:phraseAgainstPref1_EN</v>
@@ -6731,7 +6913,7 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP30:phraseAgainstPref1_EN</v>
@@ -6742,7 +6924,7 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP31:phraseAgainstPref1_EN</v>
@@ -6753,7 +6935,7 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP32:phraseAgainstPref1_EN</v>
@@ -6764,7 +6946,7 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP33:phraseAgainstPref1_EN</v>
@@ -6775,7 +6957,7 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP34:phraseAgainstPref1_EN</v>
@@ -6786,7 +6968,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP35:phraseAgainstPref1_EN</v>
@@ -6797,7 +6979,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP36:phraseAgainstPref1_EN</v>
@@ -6808,7 +6990,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="str">
         <f>H1</f>
         <v>DP1:phraseAgainstPref2_EN</v>
@@ -6819,7 +7001,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="str">
         <f t="shared" ref="B103:B124" si="22">H2</f>
         <v>DP2:phraseAgainstPref2_EN</v>
@@ -6830,7 +7012,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP3:phraseAgainstPref2_EN</v>
@@ -6841,7 +7023,7 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP4:phraseAgainstPref2_EN</v>
@@ -6852,7 +7034,7 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP5:phraseAgainstPref2_EN</v>
@@ -6863,7 +7045,7 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP6:phraseAgainstPref2_EN</v>
@@ -6874,7 +7056,7 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP7:phraseAgainstPref2_EN</v>
@@ -6885,7 +7067,7 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP10:phraseAgainstPref2_EN</v>
@@ -6896,7 +7078,7 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP11:phraseAgainstPref2_EN</v>
@@ -6907,7 +7089,7 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP12:phraseAgainstPref2_EN</v>
@@ -6918,7 +7100,7 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP18:phraseAgainstPref2_EN</v>
@@ -6929,7 +7111,7 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP25:phraseAgainstPref2_EN</v>
@@ -6940,7 +7122,7 @@
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP26:phraseAgainstPref2_EN</v>
@@ -6951,7 +7133,7 @@
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP27:phraseAgainstPref2_EN</v>
@@ -6962,7 +7144,7 @@
       <c r="P115" s="14"/>
       <c r="Q115" s="14"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP28:phraseAgainstPref2_EN</v>
@@ -6973,7 +7155,7 @@
       <c r="P116" s="14"/>
       <c r="Q116" s="14"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP29:phraseAgainstPref2_EN</v>
@@ -6984,7 +7166,7 @@
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP30:phraseAgainstPref2_EN</v>
@@ -6995,7 +7177,7 @@
       <c r="P118" s="14"/>
       <c r="Q118" s="14"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP31:phraseAgainstPref2_EN</v>
@@ -7006,7 +7188,7 @@
       <c r="P119" s="14"/>
       <c r="Q119" s="14"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP32:phraseAgainstPref2_EN</v>
@@ -7017,7 +7199,7 @@
       <c r="P120" s="14"/>
       <c r="Q120" s="14"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP33:phraseAgainstPref2_EN</v>
@@ -7028,7 +7210,7 @@
       <c r="P121" s="14"/>
       <c r="Q121" s="14"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP34:phraseAgainstPref2_EN</v>
@@ -7039,7 +7221,7 @@
       <c r="P122" s="14"/>
       <c r="Q122" s="14"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP35:phraseAgainstPref2_EN</v>
@@ -7050,7 +7232,7 @@
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP36:phraseAgainstPref2_EN</v>
@@ -7061,7 +7243,7 @@
       <c r="P124" s="14"/>
       <c r="Q124" s="14"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="str">
         <f>F1</f>
         <v>DP1:phraseFavourPref_EN</v>
@@ -7072,7 +7254,7 @@
       <c r="P125" s="14"/>
       <c r="Q125" s="14"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="str">
         <f t="shared" ref="B126:B146" si="23">F2</f>
         <v>DP2:phraseFavourPref_EN</v>
@@ -7083,7 +7265,7 @@
       <c r="P126" s="14"/>
       <c r="Q126" s="14"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP3:phraseFavourPref_EN</v>
@@ -7094,7 +7276,7 @@
       <c r="P127" s="14"/>
       <c r="Q127" s="14"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP4:phraseFavourPref_EN</v>
@@ -7105,7 +7287,7 @@
       <c r="P128" s="14"/>
       <c r="Q128" s="14"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP5:phraseFavourPref_EN</v>
@@ -7116,7 +7298,7 @@
       <c r="P129" s="14"/>
       <c r="Q129" s="14"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP6:phraseFavourPref_EN</v>
@@ -7127,7 +7309,7 @@
       <c r="P130" s="14"/>
       <c r="Q130" s="14"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP7:phraseFavourPref_EN</v>
@@ -7138,7 +7320,7 @@
       <c r="P131" s="14"/>
       <c r="Q131" s="14"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP10:phraseFavourPref_EN</v>
@@ -7149,7 +7331,7 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="14"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP11:phraseFavourPref_EN</v>
@@ -7160,7 +7342,7 @@
       <c r="P133" s="14"/>
       <c r="Q133" s="14"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP12:phraseFavourPref_EN</v>
@@ -7171,7 +7353,7 @@
       <c r="P134" s="14"/>
       <c r="Q134" s="14"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP18:phraseFavourPref_EN</v>
@@ -7182,7 +7364,7 @@
       <c r="P135" s="14"/>
       <c r="Q135" s="14"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP25:phraseFavourPref_EN</v>
@@ -7193,7 +7375,7 @@
       <c r="P136" s="14"/>
       <c r="Q136" s="14"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP26:phraseFavourPref_EN</v>
@@ -7204,7 +7386,7 @@
       <c r="P137" s="14"/>
       <c r="Q137" s="14"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP27:phraseFavourPref_EN</v>
@@ -7215,7 +7397,7 @@
       <c r="P138" s="14"/>
       <c r="Q138" s="14"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP28:phraseFavourPref_EN</v>
@@ -7226,7 +7408,7 @@
       <c r="P139" s="14"/>
       <c r="Q139" s="14"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP29:phraseFavourPref_EN</v>
@@ -7237,7 +7419,7 @@
       <c r="P140" s="14"/>
       <c r="Q140" s="14"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP30:phraseFavourPref_EN</v>
@@ -7248,7 +7430,7 @@
       <c r="P141" s="14"/>
       <c r="Q141" s="14"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP31:phraseFavourPref_EN</v>
@@ -7259,7 +7441,7 @@
       <c r="P142" s="14"/>
       <c r="Q142" s="14"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP32:phraseFavourPref_EN</v>
@@ -7270,7 +7452,7 @@
       <c r="P143" s="14"/>
       <c r="Q143" s="14"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP33:phraseFavourPref_EN</v>
@@ -7281,7 +7463,7 @@
       <c r="P144" s="14"/>
       <c r="Q144" s="14"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP34:phraseFavourPref_EN</v>
@@ -7292,7 +7474,7 @@
       <c r="P145" s="14"/>
       <c r="Q145" s="14"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP35:phraseFavourPref_EN</v>
@@ -7303,7 +7485,7 @@
       <c r="P146" s="14"/>
       <c r="Q146" s="14"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="str">
         <f>F23</f>
         <v>DP36:phraseFavourPref_EN</v>
@@ -7314,7 +7496,7 @@
       <c r="P147" s="14"/>
       <c r="Q147" s="14"/>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="str">
         <f>M25</f>
         <v>DG1:phraseAgainstPref1_PT</v>
@@ -7325,7 +7507,7 @@
       <c r="P148" s="14"/>
       <c r="Q148" s="14"/>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="str">
         <f t="shared" ref="B149:B156" si="24">M26</f>
         <v>DG2:phraseAgainstPref1_PT</v>
@@ -7336,7 +7518,7 @@
       <c r="P149" s="14"/>
       <c r="Q149" s="14"/>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG3:phraseAgainstPref1_PT</v>
@@ -7347,7 +7529,7 @@
       <c r="P150" s="14"/>
       <c r="Q150" s="14"/>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG5:phraseAgainstPref1_PT</v>
@@ -7358,7 +7540,7 @@
       <c r="P151" s="14"/>
       <c r="Q151" s="14"/>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG9:phraseAgainstPref1_PT</v>
@@ -7369,7 +7551,7 @@
       <c r="P152" s="14"/>
       <c r="Q152" s="14"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG10:phraseAgainstPref1_PT</v>
@@ -7380,7 +7562,7 @@
       <c r="P153" s="14"/>
       <c r="Q153" s="14"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG11:phraseAgainstPref1_PT</v>
@@ -7391,7 +7573,7 @@
       <c r="P154" s="14"/>
       <c r="Q154" s="14"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG14:phraseAgainstPref1_PT</v>
@@ -7402,7 +7584,7 @@
       <c r="P155" s="14"/>
       <c r="Q155" s="14"/>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG19:phraseAgainstPref1_PT</v>
@@ -7413,7 +7595,7 @@
       <c r="P156" s="14"/>
       <c r="Q156" s="14"/>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="str">
         <f>O25</f>
         <v>DG1:phraseAgainstPref2_PT</v>
@@ -7424,7 +7606,7 @@
       <c r="P157" s="14"/>
       <c r="Q157" s="14"/>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="str">
         <f t="shared" ref="B158:B165" si="25">O26</f>
         <v>DG2:phraseAgainstPref2_PT</v>
@@ -7435,259 +7617,259 @@
       <c r="P158" s="14"/>
       <c r="Q158" s="14"/>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG5:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG9:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG10:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG11:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG14:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG19:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="str">
         <f>Q25</f>
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="str">
         <f t="shared" ref="B167:B174" si="26">Q26</f>
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="str">
         <f>J25</f>
         <v>DG1:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="str">
         <f t="shared" ref="B176:B183" si="27">J26</f>
         <v>DG2:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="str">
         <f>H25</f>
         <v>DG1:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="str">
         <f t="shared" ref="B185:B192" si="28">H26</f>
         <v>DG2:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG3:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG5:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG9:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG10:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG11:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG14:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG19:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="str">
         <f>F25</f>
         <v>DG1:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="str">
         <f t="shared" ref="B194:B200" si="29">F26</f>
         <v>DG2:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG3:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG5:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG9:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG10:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG11:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B200" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG14:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="str">
         <f>F33</f>
         <v>DG19:phraseFavourPref_EN</v>
@@ -7702,883 +7884,885 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405BC36-7328-40C6-8088-275F0F9C1320}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.06640625" customWidth="1"/>
-    <col min="2" max="2" width="7.06640625" customWidth="1"/>
-    <col min="3" max="3" width="37.86328125" customWidth="1"/>
-    <col min="4" max="4" width="20.796875" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" customWidth="1"/>
-    <col min="6" max="7" width="21.06640625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G6" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>69</v>
       </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="C17" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F17" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
         <v>50</v>
       </c>
-      <c r="F23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s">
         <v>50</v>
       </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
-      </c>
-      <c r="F33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8591,18 +8775,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marie\Desktop\Git\Storytelling_SR\SOP\Utterances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\Git\SOP\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DA41F-FCA4-4CA5-933D-0C4BB480171A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98860A68-453D-42AC-B3A8-04E0C3BB9F52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" activeTab="2" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Utterances" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="210">
   <si>
     <t>Id</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Aconselho que conheças essa pessoa.</t>
   </si>
   <si>
-    <t>Eu completamente concordo contigo.</t>
-  </si>
-  <si>
     <t>Definitely, this will help people.</t>
   </si>
   <si>
@@ -488,18 +485,9 @@
     <t>INTRO_MEEK:PT</t>
   </si>
   <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;break time='3s'/&gt;&lt;ANIMATE(joy1)&gt; Let's begin!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;break time='3s'/&gt;&lt;ANIMATE(joy1)&gt; Vamos começar!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Hello my name is Emys, I am your counselor. With my suggestions you will be victorious!&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Olá o meu nome é Émys, serei o teu conselheiro. Com as minhas sugestões saírás victorioso!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;ANIMATE(sadness1)&gt;O meu nome é Glêen, e também sou teu conselheiro.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
@@ -690,6 +678,15 @@
   </si>
   <si>
     <t>Eu recomendo fortemente a confirmação desta decisão.</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Olá o meu nome é êmis, serei o teu conselheiro. Com as minhas sugestões saírás victorioso!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;break time='2s'/&gt;&lt;ANIMATE(joy1)&gt; Let's begin!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;break time='2s'/&gt;&lt;ANIMATE(joy1)&gt; Vamos começar!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
 </sst>
 </file>
@@ -915,12 +912,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Utterances"/>
       <sheetName val="Dropdowns Content"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1258,19 +1253,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC699C3-7B7D-494D-9389-830F8CDC6B9F}">
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.265625" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
     <col min="4" max="4" width="219" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1286,12 +1281,12 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -1300,12 +1295,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -1314,40 +1309,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -1356,49 +1351,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1414,7 +1409,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1430,7 +1425,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1446,7 +1441,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1462,7 +1457,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1478,7 +1473,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1494,7 +1489,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1510,7 +1505,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de intérahgir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1526,7 +1521,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1542,7 +1537,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que o deixes falar enquanto tentamos perceber melhor qual a tática dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1558,7 +1553,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1574,7 +1569,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1590,7 +1585,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1606,7 +1601,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1622,7 +1617,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados rapidamente para garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1638,7 +1633,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1670,7 +1665,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves te expor a este estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1686,7 +1681,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1702,7 +1697,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e  jámais te rendas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1718,7 +1713,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Na minha opinião não deves mudar de opinião, pois isso demostra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1734,7 +1729,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear as ruas, devias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1750,7 +1745,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1766,7 +1761,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1782,7 +1777,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1798,7 +1793,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1814,7 +1809,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1830,7 +1825,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1862,7 +1857,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1878,7 +1873,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves tentar ganhar a confiança do adversário convidando-o.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1894,7 +1889,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1910,7 +1905,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves fazer o adversário parar de falar imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1926,7 +1921,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afectada com a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1942,7 +1937,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1958,7 +1953,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1974,7 +1969,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1990,7 +1985,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, pois podemos ficar sem soldados suficientes para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2006,7 +2001,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2022,7 +2017,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2038,7 +2033,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com o estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2054,7 +2049,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2070,7 +2065,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2086,7 +2081,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2102,7 +2097,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender a rua.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2118,7 +2113,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2134,7 +2129,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do  conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2150,7 +2145,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2166,7 +2161,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2182,7 +2177,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém, essas decisões.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2198,7 +2193,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2214,7 +2209,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2230,7 +2225,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu concordo, completamente contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2246,7 +2241,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explêndido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2262,7 +2257,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Pessoalmente, esta é a minha decisão favorita.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2278,7 +2273,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta decisão está completamente correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2294,7 +2289,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Isto definitivamente irá ajudar a população&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2310,7 +2305,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Isto definitivamente irá ajudar a população&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2326,7 +2321,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2342,7 +2337,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Posso dizer que estás a trabalhar muito nisto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2358,7 +2353,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2374,7 +2369,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2387,10 +2382,10 @@
       </c>
       <c r="D71" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu completamente concordo contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu concordo, completamente contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2406,7 +2401,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explêndido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2422,7 +2417,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilhante. Não esperava outra decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2438,7 +2433,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2454,7 +2449,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo seu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2470,7 +2465,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu concordo, completamente contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2486,7 +2481,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estás a fazer um ótimo trabalho como líder.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2502,7 +2497,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explêndido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2518,7 +2513,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito exposto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2534,7 +2529,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que não é o momento para um baile e sim preparar-se para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2550,7 +2545,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falar primeiro podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2566,7 +2561,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias se expor tanto e deverias se retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2582,7 +2577,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos antigos aliados.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2598,7 +2593,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não aconselho que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2614,7 +2609,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de interagir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2630,7 +2625,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho solicitar explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2646,7 +2641,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho deixá-lo falar enquanto tentamos melhor perceber a tatica dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2662,7 +2657,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo agir rapidamente precisamos de militares urgente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2678,7 +2673,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Minha intuição diz que não há tempo para defender o acesso principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2694,7 +2689,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro passou a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2710,7 +2705,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2726,7 +2721,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa rapidamente e assim garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2742,7 +2737,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apenas com metade não seremos vitóriosos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2758,7 +2753,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ainda não sair das proteções da cidade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2774,7 +2769,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves se expor a esse estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2790,7 +2785,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2806,7 +2801,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que deves ser líder e jamais se render.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2822,7 +2817,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mudar de opinião pois isso mostra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2838,7 +2833,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias ideias para bloquear os acessos pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2854,7 +2849,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2870,7 +2865,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos do conselho apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2886,7 +2881,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar ao público eles precisam saber.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2902,7 +2897,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a organizar o baile para o povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2918,7 +2913,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar primeiro que todos para saberem a sua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2934,7 +2929,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar tranquilidade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2950,7 +2945,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2966,7 +2961,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que conheças essa pessoa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2982,7 +2977,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves tentar ganhar a confiança do adversário convidando-o.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2998,7 +2993,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil e aguardar o adversário terminar de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3014,7 +3009,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves imediatamente fazer ele parar de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3030,7 +3025,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afetada.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3046,7 +3041,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3062,7 +3057,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informa o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3078,7 +3073,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixa-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3094,7 +3089,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado pois podemos ficar sem exército suficiente para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3110,7 +3105,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Ficaremos fracos e desprotegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3126,7 +3121,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ir pessoalmente e parabenizar pela vitoria.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3142,7 +3137,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com esse estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3158,7 +3153,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3174,7 +3169,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar pois teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3190,7 +3185,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3206,7 +3201,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais como defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3222,7 +3217,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não precisamos de símbolos, mas de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3238,7 +3233,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um do conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3254,7 +3249,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3270,7 +3265,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3286,7 +3281,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep these decisions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3302,7 +3297,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3318,7 +3313,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3334,7 +3329,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Definitely, this will help people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3350,7 +3345,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I completely agree with you.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3366,7 +3361,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Personally, this is my favourite decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3382,7 +3377,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This decision is correct.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3398,7 +3393,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3414,7 +3409,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3430,7 +3425,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3446,7 +3441,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I can say that you are working hard on this.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3462,7 +3457,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3478,7 +3473,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3494,7 +3489,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Definitely, this will help people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3510,7 +3505,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3526,7 +3521,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilliant. I did not expect another decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3542,7 +3537,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3558,7 +3553,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3574,7 +3569,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Definitely, this will help people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3590,7 +3585,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You are doing a great job as leader.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3606,7 +3601,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3622,7 +3617,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3638,7 +3633,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3654,7 +3649,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3670,7 +3665,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sejas rude.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3686,7 +3681,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3702,7 +3697,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3718,7 +3713,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não faças amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3734,7 +3729,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a que não toques no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3750,7 +3745,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a quenão aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3766,7 +3761,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3782,7 +3777,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3798,7 +3793,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3814,7 +3809,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3830,7 +3825,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3846,7 +3841,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3862,7 +3857,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3878,7 +3873,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3894,7 +3889,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -3910,7 +3905,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estás a fazer um ótimo trabalho como líder.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3926,7 +3921,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Posso dizer que estás trabalhando muito nisto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -3942,7 +3937,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilhante. Não esperava outra decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -3958,7 +3953,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu recomendo fortemente a confirmação desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -3974,7 +3969,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém, essas decisões.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -3990,7 +3985,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Pessoalmente, esta é a minha decisão favorita.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4006,7 +4001,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta decisão está completamente correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4022,7 +4017,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu recomendo fortemente a confirmação desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4038,7 +4033,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4054,7 +4049,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4070,7 +4065,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não aconselho o discurso no início pois pode estragar o baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4086,7 +4081,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4102,7 +4097,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho não ser rude neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4118,7 +4113,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não aceitar, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4134,7 +4129,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4150,7 +4145,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não tentar amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4166,7 +4161,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não tocar no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4182,7 +4177,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não aceitar, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4198,7 +4193,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4214,7 +4209,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final pode estragar o efeito feliz do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4230,7 +4225,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As paredes são mais importantes.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4246,7 +4241,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho não ser rude neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4262,7 +4257,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, ele faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4278,7 +4273,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4294,7 +4289,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não saber sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4310,7 +4305,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ter mais diplomacia e apertar a mão do inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4326,7 +4321,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, ele faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4342,7 +4337,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You are doing a great job as leader.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4358,7 +4353,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I can say that you are working hard on this.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4374,7 +4369,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilliant. I did not expect another decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4390,7 +4385,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I strongly advise confirming this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4406,7 +4401,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep these decisions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4422,7 +4417,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Personally, this is my favourite decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4438,7 +4433,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This decision is correct.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4454,7 +4449,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I strongly advise confirming this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4470,97 +4465,97 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1"/>
       <c r="B202" s="12"/>
       <c r="C202" s="6"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1"/>
       <c r="B203" s="12"/>
       <c r="C203" s="6"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1"/>
       <c r="B204" s="12"/>
       <c r="C204" s="6"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1"/>
       <c r="B205" s="12"/>
       <c r="C205" s="6"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1"/>
       <c r="B206" s="12"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1"/>
       <c r="B207" s="12"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1"/>
       <c r="B208" s="12"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="1"/>
       <c r="B209" s="12"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="1"/>
       <c r="B210" s="12"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="1"/>
       <c r="B211" s="12"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="1"/>
       <c r="B212" s="12"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="1"/>
       <c r="B213" s="12"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="1"/>
       <c r="B214" s="12"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="1"/>
       <c r="B215" s="12"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="1"/>
       <c r="B216" s="12"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="12"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="12"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="1"/>
       <c r="B219" s="12"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="1"/>
       <c r="B220" s="12"/>
       <c r="C220" s="6"/>
@@ -4594,26 +4589,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.265625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -4666,12 +4661,12 @@
         <v>DP1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4719,12 +4714,12 @@
         <v>DP2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -4772,12 +4767,12 @@
         <v>DP3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -4825,9 +4820,9 @@
         <v>DP4:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -4875,9 +4870,9 @@
         <v>DP5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -4925,9 +4920,9 @@
         <v>DP6:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -4975,9 +4970,9 @@
         <v>DP7:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -5025,9 +5020,9 @@
         <v>DP10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -5075,7 +5070,7 @@
         <v>DP11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="str">
         <f>M1</f>
         <v>DP1:phraseAgainstPref1_PT</v>
@@ -5126,7 +5121,7 @@
         <v>DP12:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="str">
         <f t="shared" ref="B11:B32" si="12">M2</f>
         <v>DP2:phraseAgainstPref1_PT</v>
@@ -5177,7 +5172,7 @@
         <v>DP18:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP3:phraseAgainstPref1_PT</v>
@@ -5228,7 +5223,7 @@
         <v>DP25:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP4:phraseAgainstPref1_PT</v>
@@ -5279,7 +5274,7 @@
         <v>DP26:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP5:phraseAgainstPref1_PT</v>
@@ -5330,7 +5325,7 @@
         <v>DP27:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP6:phraseAgainstPref1_PT</v>
@@ -5381,7 +5376,7 @@
         <v>DP28:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP7:phraseAgainstPref1_PT</v>
@@ -5432,7 +5427,7 @@
         <v>DP29:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP10:phraseAgainstPref1_PT</v>
@@ -5483,7 +5478,7 @@
         <v>DP30:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP11:phraseAgainstPref1_PT</v>
@@ -5534,7 +5529,7 @@
         <v>DP31:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP12:phraseAgainstPref1_PT</v>
@@ -5585,7 +5580,7 @@
         <v>DP32:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP18:phraseAgainstPref1_PT</v>
@@ -5636,7 +5631,7 @@
         <v>DP33:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP25:phraseAgainstPref1_PT</v>
@@ -5687,7 +5682,7 @@
         <v>DP34:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP26:phraseAgainstPref1_PT</v>
@@ -5738,7 +5733,7 @@
         <v>DP35:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP27:phraseAgainstPref1_PT</v>
@@ -5789,7 +5784,7 @@
         <v>DP36:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP28:phraseAgainstPref1_PT</v>
@@ -5798,7 +5793,7 @@
       <c r="H24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP29:phraseAgainstPref1_PT</v>
@@ -5849,7 +5844,7 @@
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP30:phraseAgainstPref1_PT</v>
@@ -5900,7 +5895,7 @@
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP31:phraseAgainstPref1_PT</v>
@@ -5927,7 +5922,7 @@
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -5951,7 +5946,7 @@
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP32:phraseAgainstPref1_PT</v>
@@ -5978,7 +5973,7 @@
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -6002,7 +5997,7 @@
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP33:phraseAgainstPref1_PT</v>
@@ -6029,7 +6024,7 @@
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -6053,7 +6048,7 @@
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP34:phraseAgainstPref1_PT</v>
@@ -6080,7 +6075,7 @@
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -6104,7 +6099,7 @@
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP35:phraseAgainstPref1_PT</v>
@@ -6131,7 +6126,7 @@
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
       <c r="K31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -6155,7 +6150,7 @@
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP36:phraseAgainstPref1_PT</v>
@@ -6182,7 +6177,7 @@
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
       <c r="K32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -6206,7 +6201,7 @@
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="str">
         <f>O1</f>
         <v>DP1:phraseAgainstPref2_PT</v>
@@ -6233,7 +6228,7 @@
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
       <c r="K33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -6257,25 +6252,25 @@
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34" s="8" t="str">
         <f t="shared" ref="B34:B55" si="19">O2</f>
         <v>DP2:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP4:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP5:phraseAgainstPref2_PT</v>
@@ -6286,7 +6281,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP6:phraseAgainstPref2_PT</v>
@@ -6297,7 +6292,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP7:phraseAgainstPref2_PT</v>
@@ -6308,7 +6303,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP10:phraseAgainstPref2_PT</v>
@@ -6319,7 +6314,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP11:phraseAgainstPref2_PT</v>
@@ -6330,7 +6325,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP12:phraseAgainstPref2_PT</v>
@@ -6341,7 +6336,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP18:phraseAgainstPref2_PT</v>
@@ -6352,7 +6347,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP25:phraseAgainstPref2_PT</v>
@@ -6363,7 +6358,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP26:phraseAgainstPref2_PT</v>
@@ -6374,7 +6369,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP27:phraseAgainstPref2_PT</v>
@@ -6385,7 +6380,7 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP28:phraseAgainstPref2_PT</v>
@@ -6396,7 +6391,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP29:phraseAgainstPref2_PT</v>
@@ -6407,7 +6402,7 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP30:phraseAgainstPref2_PT</v>
@@ -6418,7 +6413,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP31:phraseAgainstPref2_PT</v>
@@ -6429,7 +6424,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP32:phraseAgainstPref2_PT</v>
@@ -6440,7 +6435,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP33:phraseAgainstPref2_PT</v>
@@ -6451,7 +6446,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP34:phraseAgainstPref2_PT</v>
@@ -6462,7 +6457,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP35:phraseAgainstPref2_PT</v>
@@ -6473,7 +6468,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP36:phraseAgainstPref2_PT</v>
@@ -6484,7 +6479,7 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56" s="8" t="str">
         <f>Q1</f>
         <v>DP1:phraseFavourPref_PT</v>
@@ -6495,7 +6490,7 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57" s="8" t="str">
         <f t="shared" ref="B57:B78" si="20">Q2</f>
         <v>DP2:phraseFavourPref_PT</v>
@@ -6506,7 +6501,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP3:phraseFavourPref_PT</v>
@@ -6517,7 +6512,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP4:phraseFavourPref_PT</v>
@@ -6528,7 +6523,7 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP5:phraseFavourPref_PT</v>
@@ -6539,7 +6534,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP6:phraseFavourPref_PT</v>
@@ -6550,7 +6545,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP7:phraseFavourPref_PT</v>
@@ -6561,7 +6556,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP10:phraseFavourPref_PT</v>
@@ -6572,7 +6567,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP11:phraseFavourPref_PT</v>
@@ -6583,7 +6578,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP12:phraseFavourPref_PT</v>
@@ -6594,7 +6589,7 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP18:phraseFavourPref_PT</v>
@@ -6605,7 +6600,7 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP25:phraseFavourPref_PT</v>
@@ -6616,7 +6611,7 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP26:phraseFavourPref_PT</v>
@@ -6627,7 +6622,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP27:phraseFavourPref_PT</v>
@@ -6638,7 +6633,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP28:phraseFavourPref_PT</v>
@@ -6649,7 +6644,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP29:phraseFavourPref_PT</v>
@@ -6660,7 +6655,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP30:phraseFavourPref_PT</v>
@@ -6671,7 +6666,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP31:phraseFavourPref_PT</v>
@@ -6682,7 +6677,7 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP32:phraseFavourPref_PT</v>
@@ -6693,7 +6688,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP33:phraseFavourPref_PT</v>
@@ -6704,7 +6699,7 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP34:phraseFavourPref_PT</v>
@@ -6715,7 +6710,7 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP35:phraseFavourPref_PT</v>
@@ -6726,7 +6721,7 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP36:phraseFavourPref_PT</v>
@@ -6737,7 +6732,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79" s="8" t="str">
         <f>J1</f>
         <v>DP1:phraseAgainstPref1_EN</v>
@@ -6748,7 +6743,7 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80" s="8" t="str">
         <f t="shared" ref="B80:B101" si="21">J2</f>
         <v>DP2:phraseAgainstPref1_EN</v>
@@ -6759,7 +6754,7 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
     </row>
-    <row r="81" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP3:phraseAgainstPref1_EN</v>
@@ -6770,7 +6765,7 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP4:phraseAgainstPref1_EN</v>
@@ -6781,7 +6776,7 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP5:phraseAgainstPref1_EN</v>
@@ -6792,7 +6787,7 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP6:phraseAgainstPref1_EN</v>
@@ -6803,7 +6798,7 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP7:phraseAgainstPref1_EN</v>
@@ -6814,7 +6809,7 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP10:phraseAgainstPref1_EN</v>
@@ -6825,7 +6820,7 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP11:phraseAgainstPref1_EN</v>
@@ -6836,7 +6831,7 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP12:phraseAgainstPref1_EN</v>
@@ -6847,7 +6842,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP18:phraseAgainstPref1_EN</v>
@@ -6858,7 +6853,7 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP25:phraseAgainstPref1_EN</v>
@@ -6869,7 +6864,7 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP26:phraseAgainstPref1_EN</v>
@@ -6880,7 +6875,7 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP27:phraseAgainstPref1_EN</v>
@@ -6891,7 +6886,7 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP28:phraseAgainstPref1_EN</v>
@@ -6902,7 +6897,7 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP29:phraseAgainstPref1_EN</v>
@@ -6913,7 +6908,7 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP30:phraseAgainstPref1_EN</v>
@@ -6924,7 +6919,7 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP31:phraseAgainstPref1_EN</v>
@@ -6935,7 +6930,7 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B97" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP32:phraseAgainstPref1_EN</v>
@@ -6946,7 +6941,7 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B98" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP33:phraseAgainstPref1_EN</v>
@@ -6957,7 +6952,7 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B99" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP34:phraseAgainstPref1_EN</v>
@@ -6968,7 +6963,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B100" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP35:phraseAgainstPref1_EN</v>
@@ -6979,7 +6974,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B101" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP36:phraseAgainstPref1_EN</v>
@@ -6990,7 +6985,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B102" s="8" t="str">
         <f>H1</f>
         <v>DP1:phraseAgainstPref2_EN</v>
@@ -7001,7 +6996,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B103" s="8" t="str">
         <f t="shared" ref="B103:B124" si="22">H2</f>
         <v>DP2:phraseAgainstPref2_EN</v>
@@ -7012,7 +7007,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
     </row>
-    <row r="104" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B104" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP3:phraseAgainstPref2_EN</v>
@@ -7023,7 +7018,7 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
     </row>
-    <row r="105" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B105" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP4:phraseAgainstPref2_EN</v>
@@ -7034,7 +7029,7 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
     </row>
-    <row r="106" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B106" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP5:phraseAgainstPref2_EN</v>
@@ -7045,7 +7040,7 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B107" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP6:phraseAgainstPref2_EN</v>
@@ -7056,7 +7051,7 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B108" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP7:phraseAgainstPref2_EN</v>
@@ -7067,7 +7062,7 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B109" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP10:phraseAgainstPref2_EN</v>
@@ -7078,7 +7073,7 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B110" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP11:phraseAgainstPref2_EN</v>
@@ -7089,7 +7084,7 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
     </row>
-    <row r="111" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B111" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP12:phraseAgainstPref2_EN</v>
@@ -7100,7 +7095,7 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
     </row>
-    <row r="112" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B112" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP18:phraseAgainstPref2_EN</v>
@@ -7111,7 +7106,7 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
     </row>
-    <row r="113" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B113" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP25:phraseAgainstPref2_EN</v>
@@ -7122,7 +7117,7 @@
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
     </row>
-    <row r="114" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B114" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP26:phraseAgainstPref2_EN</v>
@@ -7133,7 +7128,7 @@
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
     </row>
-    <row r="115" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B115" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP27:phraseAgainstPref2_EN</v>
@@ -7144,7 +7139,7 @@
       <c r="P115" s="14"/>
       <c r="Q115" s="14"/>
     </row>
-    <row r="116" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B116" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP28:phraseAgainstPref2_EN</v>
@@ -7155,7 +7150,7 @@
       <c r="P116" s="14"/>
       <c r="Q116" s="14"/>
     </row>
-    <row r="117" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B117" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP29:phraseAgainstPref2_EN</v>
@@ -7166,7 +7161,7 @@
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
     </row>
-    <row r="118" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B118" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP30:phraseAgainstPref2_EN</v>
@@ -7177,7 +7172,7 @@
       <c r="P118" s="14"/>
       <c r="Q118" s="14"/>
     </row>
-    <row r="119" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B119" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP31:phraseAgainstPref2_EN</v>
@@ -7188,7 +7183,7 @@
       <c r="P119" s="14"/>
       <c r="Q119" s="14"/>
     </row>
-    <row r="120" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B120" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP32:phraseAgainstPref2_EN</v>
@@ -7199,7 +7194,7 @@
       <c r="P120" s="14"/>
       <c r="Q120" s="14"/>
     </row>
-    <row r="121" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B121" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP33:phraseAgainstPref2_EN</v>
@@ -7210,7 +7205,7 @@
       <c r="P121" s="14"/>
       <c r="Q121" s="14"/>
     </row>
-    <row r="122" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B122" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP34:phraseAgainstPref2_EN</v>
@@ -7221,7 +7216,7 @@
       <c r="P122" s="14"/>
       <c r="Q122" s="14"/>
     </row>
-    <row r="123" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B123" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP35:phraseAgainstPref2_EN</v>
@@ -7232,7 +7227,7 @@
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
     </row>
-    <row r="124" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B124" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP36:phraseAgainstPref2_EN</v>
@@ -7243,7 +7238,7 @@
       <c r="P124" s="14"/>
       <c r="Q124" s="14"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B125" s="8" t="str">
         <f>F1</f>
         <v>DP1:phraseFavourPref_EN</v>
@@ -7254,7 +7249,7 @@
       <c r="P125" s="14"/>
       <c r="Q125" s="14"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B126" s="8" t="str">
         <f t="shared" ref="B126:B146" si="23">F2</f>
         <v>DP2:phraseFavourPref_EN</v>
@@ -7265,7 +7260,7 @@
       <c r="P126" s="14"/>
       <c r="Q126" s="14"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B127" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP3:phraseFavourPref_EN</v>
@@ -7276,7 +7271,7 @@
       <c r="P127" s="14"/>
       <c r="Q127" s="14"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B128" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP4:phraseFavourPref_EN</v>
@@ -7287,7 +7282,7 @@
       <c r="P128" s="14"/>
       <c r="Q128" s="14"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B129" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP5:phraseFavourPref_EN</v>
@@ -7298,7 +7293,7 @@
       <c r="P129" s="14"/>
       <c r="Q129" s="14"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B130" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP6:phraseFavourPref_EN</v>
@@ -7309,7 +7304,7 @@
       <c r="P130" s="14"/>
       <c r="Q130" s="14"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B131" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP7:phraseFavourPref_EN</v>
@@ -7320,7 +7315,7 @@
       <c r="P131" s="14"/>
       <c r="Q131" s="14"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B132" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP10:phraseFavourPref_EN</v>
@@ -7331,7 +7326,7 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="14"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B133" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP11:phraseFavourPref_EN</v>
@@ -7342,7 +7337,7 @@
       <c r="P133" s="14"/>
       <c r="Q133" s="14"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B134" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP12:phraseFavourPref_EN</v>
@@ -7353,7 +7348,7 @@
       <c r="P134" s="14"/>
       <c r="Q134" s="14"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B135" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP18:phraseFavourPref_EN</v>
@@ -7364,7 +7359,7 @@
       <c r="P135" s="14"/>
       <c r="Q135" s="14"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B136" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP25:phraseFavourPref_EN</v>
@@ -7375,7 +7370,7 @@
       <c r="P136" s="14"/>
       <c r="Q136" s="14"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B137" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP26:phraseFavourPref_EN</v>
@@ -7386,7 +7381,7 @@
       <c r="P137" s="14"/>
       <c r="Q137" s="14"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B138" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP27:phraseFavourPref_EN</v>
@@ -7397,7 +7392,7 @@
       <c r="P138" s="14"/>
       <c r="Q138" s="14"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B139" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP28:phraseFavourPref_EN</v>
@@ -7408,7 +7403,7 @@
       <c r="P139" s="14"/>
       <c r="Q139" s="14"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B140" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP29:phraseFavourPref_EN</v>
@@ -7419,7 +7414,7 @@
       <c r="P140" s="14"/>
       <c r="Q140" s="14"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B141" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP30:phraseFavourPref_EN</v>
@@ -7430,7 +7425,7 @@
       <c r="P141" s="14"/>
       <c r="Q141" s="14"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B142" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP31:phraseFavourPref_EN</v>
@@ -7441,7 +7436,7 @@
       <c r="P142" s="14"/>
       <c r="Q142" s="14"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B143" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP32:phraseFavourPref_EN</v>
@@ -7452,7 +7447,7 @@
       <c r="P143" s="14"/>
       <c r="Q143" s="14"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B144" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP33:phraseFavourPref_EN</v>
@@ -7463,7 +7458,7 @@
       <c r="P144" s="14"/>
       <c r="Q144" s="14"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B145" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP34:phraseFavourPref_EN</v>
@@ -7474,7 +7469,7 @@
       <c r="P145" s="14"/>
       <c r="Q145" s="14"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B146" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP35:phraseFavourPref_EN</v>
@@ -7485,7 +7480,7 @@
       <c r="P146" s="14"/>
       <c r="Q146" s="14"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B147" s="8" t="str">
         <f>F23</f>
         <v>DP36:phraseFavourPref_EN</v>
@@ -7496,7 +7491,7 @@
       <c r="P147" s="14"/>
       <c r="Q147" s="14"/>
     </row>
-    <row r="148" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B148" s="8" t="str">
         <f>M25</f>
         <v>DG1:phraseAgainstPref1_PT</v>
@@ -7507,7 +7502,7 @@
       <c r="P148" s="14"/>
       <c r="Q148" s="14"/>
     </row>
-    <row r="149" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B149" s="8" t="str">
         <f t="shared" ref="B149:B156" si="24">M26</f>
         <v>DG2:phraseAgainstPref1_PT</v>
@@ -7518,7 +7513,7 @@
       <c r="P149" s="14"/>
       <c r="Q149" s="14"/>
     </row>
-    <row r="150" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B150" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG3:phraseAgainstPref1_PT</v>
@@ -7529,7 +7524,7 @@
       <c r="P150" s="14"/>
       <c r="Q150" s="14"/>
     </row>
-    <row r="151" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B151" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG5:phraseAgainstPref1_PT</v>
@@ -7540,7 +7535,7 @@
       <c r="P151" s="14"/>
       <c r="Q151" s="14"/>
     </row>
-    <row r="152" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B152" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG9:phraseAgainstPref1_PT</v>
@@ -7551,7 +7546,7 @@
       <c r="P152" s="14"/>
       <c r="Q152" s="14"/>
     </row>
-    <row r="153" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B153" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG10:phraseAgainstPref1_PT</v>
@@ -7562,7 +7557,7 @@
       <c r="P153" s="14"/>
       <c r="Q153" s="14"/>
     </row>
-    <row r="154" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B154" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG11:phraseAgainstPref1_PT</v>
@@ -7573,7 +7568,7 @@
       <c r="P154" s="14"/>
       <c r="Q154" s="14"/>
     </row>
-    <row r="155" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B155" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG14:phraseAgainstPref1_PT</v>
@@ -7584,7 +7579,7 @@
       <c r="P155" s="14"/>
       <c r="Q155" s="14"/>
     </row>
-    <row r="156" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B156" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG19:phraseAgainstPref1_PT</v>
@@ -7595,7 +7590,7 @@
       <c r="P156" s="14"/>
       <c r="Q156" s="14"/>
     </row>
-    <row r="157" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B157" s="8" t="str">
         <f>O25</f>
         <v>DG1:phraseAgainstPref2_PT</v>
@@ -7606,7 +7601,7 @@
       <c r="P157" s="14"/>
       <c r="Q157" s="14"/>
     </row>
-    <row r="158" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B158" s="8" t="str">
         <f t="shared" ref="B158:B165" si="25">O26</f>
         <v>DG2:phraseAgainstPref2_PT</v>
@@ -7617,259 +7612,259 @@
       <c r="P158" s="14"/>
       <c r="Q158" s="14"/>
     </row>
-    <row r="159" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B159" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="160" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B160" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG5:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG9:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG10:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG11:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG14:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG19:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" s="8" t="str">
         <f>Q25</f>
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" s="8" t="str">
         <f t="shared" ref="B167:B174" si="26">Q26</f>
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" s="8" t="str">
         <f>J25</f>
         <v>DG1:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" s="8" t="str">
         <f t="shared" ref="B176:B183" si="27">J26</f>
         <v>DG2:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B181" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B182" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B183" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B184" s="8" t="str">
         <f>H25</f>
         <v>DG1:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B185" s="8" t="str">
         <f t="shared" ref="B185:B192" si="28">H26</f>
         <v>DG2:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B186" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG3:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B187" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG5:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B188" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG9:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B189" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG10:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B190" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG11:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B191" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG14:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B192" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG19:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B193" s="8" t="str">
         <f>F25</f>
         <v>DG1:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" s="8" t="str">
         <f t="shared" ref="B194:B200" si="29">F26</f>
         <v>DG2:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG3:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B196" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG5:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B197" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG9:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B198" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG10:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B199" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG11:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B200" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG14:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B201" s="8" t="str">
         <f>F33</f>
         <v>DG19:phraseFavourPref_EN</v>
@@ -7884,23 +7879,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405BC36-7328-40C6-8088-275F0F9C1320}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="80.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -7926,7 +7921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7934,10 +7929,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -7952,7 +7947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7960,10 +7955,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
@@ -7978,7 +7973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7986,13 +7981,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -8004,7 +7999,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8012,10 +8007,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
         <v>64</v>
@@ -8030,7 +8025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8038,13 +8033,13 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>66</v>
@@ -8056,7 +8051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8064,13 +8059,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -8079,10 +8074,10 @@
         <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8090,25 +8085,25 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8116,25 +8111,25 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8142,25 +8137,25 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
         <v>87</v>
       </c>
-      <c r="F10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8168,25 +8163,25 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
         <v>94</v>
       </c>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8194,25 +8189,25 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
         <v>94</v>
       </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8220,25 +8215,25 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
       </c>
       <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
         <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
       </c>
       <c r="H13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8246,25 +8241,25 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
         <v>102</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8272,25 +8267,25 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
         <v>64</v>
       </c>
       <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
         <v>107</v>
-      </c>
-      <c r="G15" t="s">
-        <v>108</v>
       </c>
       <c r="H15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8298,25 +8293,25 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
       </c>
       <c r="H16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -8324,25 +8319,25 @@
         <v>28</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8350,25 +8345,25 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
         <v>113</v>
       </c>
-      <c r="G18" t="s">
-        <v>114</v>
-      </c>
       <c r="H18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8376,25 +8371,25 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" t="s">
         <v>115</v>
       </c>
-      <c r="D19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" t="s">
-        <v>116</v>
-      </c>
       <c r="H19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8402,25 +8397,25 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
         <v>64</v>
       </c>
       <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
         <v>125</v>
-      </c>
-      <c r="G20" t="s">
-        <v>126</v>
       </c>
       <c r="H20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8428,25 +8423,25 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>68</v>
       </c>
       <c r="F21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s">
         <v>127</v>
-      </c>
-      <c r="G21" t="s">
-        <v>128</v>
       </c>
       <c r="H21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8454,25 +8449,25 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
         <v>129</v>
       </c>
-      <c r="G22" t="s">
-        <v>130</v>
-      </c>
       <c r="H22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8480,25 +8475,25 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
         <v>98</v>
-      </c>
-      <c r="G23" t="s">
-        <v>99</v>
       </c>
       <c r="H23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8506,25 +8501,25 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
         <v>131</v>
       </c>
-      <c r="G24" t="s">
-        <v>132</v>
-      </c>
       <c r="H24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8532,10 +8527,10 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
@@ -8550,7 +8545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8558,13 +8553,13 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F26" t="s">
         <v>56</v>
@@ -8576,99 +8571,99 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>78</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>79</v>
       </c>
-      <c r="H27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" t="s">
         <v>89</v>
       </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s">
         <v>90</v>
       </c>
-      <c r="G28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" t="s">
         <v>104</v>
       </c>
-      <c r="C29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>105</v>
-      </c>
-      <c r="G29" t="s">
-        <v>106</v>
       </c>
       <c r="H29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
         <v>48</v>
@@ -8677,82 +8672,82 @@
         <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" t="s">
         <v>87</v>
       </c>
-      <c r="F31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" t="s">
         <v>121</v>
       </c>
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>122</v>
       </c>
-      <c r="G32" t="s">
-        <v>123</v>
-      </c>
       <c r="H32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
         <v>45</v>
       </c>
       <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="s">
         <v>105</v>
-      </c>
-      <c r="G33" t="s">
-        <v>106</v>
       </c>
       <c r="H33" t="s">
         <v>46</v>
@@ -8775,18 +8770,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
         <v>133</v>
-      </c>
-      <c r="C1" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\Git\SOP\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98860A68-453D-42AC-B3A8-04E0C3BB9F52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E3ED5-31AE-43CD-AF88-8AF9A328E398}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" activeTab="2" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Utterances" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="239">
   <si>
     <t>Id</t>
   </si>
@@ -188,273 +188,51 @@
     <t>phraseFavour_EN</t>
   </si>
   <si>
-    <t>Acredito que irás ficar muito exposto.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias falar ao público eles precisam saber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta é a melhor decisão a ser tomada. </t>
-  </si>
-  <si>
-    <t>This is the best decision to be taken.</t>
-  </si>
-  <si>
     <t>DG1</t>
   </si>
   <si>
-    <t>Não deverias assustar o povo.</t>
-  </si>
-  <si>
-    <t>Estás a fazer um ótimo trabalho como líder.</t>
-  </si>
-  <si>
-    <t>You are doing a great job as leader.</t>
-  </si>
-  <si>
-    <t>Aconselho que não é o momento para um baile e sim preparar-se para uma batalha.</t>
-  </si>
-  <si>
-    <t>Aconselho a organizar o baile para o povo ficar mais unido.</t>
-  </si>
-  <si>
-    <t>Eu gosto desta decisão.</t>
-  </si>
-  <si>
-    <t>I like this decision.</t>
-  </si>
-  <si>
     <t>DG2</t>
   </si>
   <si>
-    <t>Não aconselho o discurso no início pois pode estragar o baile.</t>
-  </si>
-  <si>
-    <t>Um discurso no final pode estragar o efeito feliz do baile.</t>
-  </si>
-  <si>
-    <t>I can say that you are working hard on this.</t>
-  </si>
-  <si>
-    <t>Acredito que ao falar primeiro podes influenciar os teus conselheiros.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias falar primeiro que todos para saberem a sua opinião.</t>
-  </si>
-  <si>
-    <t>Keep these decisions.</t>
-  </si>
-  <si>
-    <t>Não deverias se expor tanto e deverias se retirar do baile.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias falar com todos no baile para mostrar tranquilidade.</t>
-  </si>
-  <si>
     <t>Estou de acordo com esta decisão.</t>
   </si>
   <si>
     <t>I agree with this decision.</t>
   </si>
   <si>
-    <t>Acredito que deverias conversar apenas com os nossos antigos aliados.</t>
-  </si>
-  <si>
     <t>Acredito que conversar com novos aliados trará novas ideias.</t>
   </si>
   <si>
-    <t>Entendo seu ponto de vista e concordo.</t>
-  </si>
-  <si>
-    <t>I understand your point of view and agree with it.</t>
-  </si>
-  <si>
-    <t>Não aconselho que alguém desconhecido entre.</t>
-  </si>
-  <si>
-    <t>Aconselho que conheças essa pessoa.</t>
-  </si>
-  <si>
-    <t>Definitely, this will help people.</t>
-  </si>
-  <si>
-    <t>Acredito que não é o momento de interagir com o adversário.</t>
-  </si>
-  <si>
     <t>Acredito que deves tentar ganhar a confiança do adversário convidando-o.</t>
   </si>
   <si>
-    <t>I completely agree with you.</t>
-  </si>
-  <si>
     <t>DG3</t>
   </si>
   <si>
-    <t>O portão é mais importante.</t>
-  </si>
-  <si>
-    <t>As paredes são mais importantes.</t>
-  </si>
-  <si>
-    <t>Brilliant. I did not expect another decision.</t>
-  </si>
-  <si>
-    <t>Aconselho solicitar explicações imediatamente.</t>
-  </si>
-  <si>
-    <t>Deverias ser mais gentil e aguardar o adversário terminar de falar.</t>
-  </si>
-  <si>
-    <t>Pessoalmente, esta é a minha decisão favorita.</t>
-  </si>
-  <si>
-    <t>Personally, this is my favourite decision.</t>
-  </si>
-  <si>
-    <t>Aconselho deixá-lo falar enquanto tentamos melhor perceber a tatica dele.</t>
-  </si>
-  <si>
-    <t>Acredito que deves imediatamente fazer ele parar de falar.</t>
-  </si>
-  <si>
-    <t>Esta decisão está completamente correta.</t>
-  </si>
-  <si>
-    <t>This decision is correct.</t>
-  </si>
-  <si>
     <t>DG5</t>
   </si>
   <si>
-    <t>Aconselho não ser rude neste momento.</t>
-  </si>
-  <si>
-    <t>I strongly advise confirming this decision.</t>
-  </si>
-  <si>
-    <t>Recomendo agir rapidamente precisamos de militares urgente.</t>
-  </si>
-  <si>
-    <t>Deves pensar melhor nesta intenção, pois a população pode ser afetada.</t>
-  </si>
-  <si>
-    <t>Isto definitivamente irá ajudar a população</t>
-  </si>
-  <si>
-    <t>Wonderful. With this decision, you will save the people.</t>
-  </si>
-  <si>
-    <t>Minha intuição diz que não há tempo para defender o acesso principal.</t>
-  </si>
-  <si>
-    <t>Aconselho a enviar imediatamente soldados para defender o acesso.</t>
-  </si>
-  <si>
     <t>O sentimento de patriotismo é importante para incentivar o povo.</t>
   </si>
   <si>
-    <t>Não precisamos de símbolos, mas de ações.</t>
-  </si>
-  <si>
-    <t>Acredito que o mensageiro passou a informação correta.</t>
-  </si>
-  <si>
-    <t>Sinto que o inimigo não perdeu tanta força como informa o mensageiro.</t>
-  </si>
-  <si>
-    <t>Aconselho a enviar uma tropa para o ataque.</t>
-  </si>
-  <si>
-    <t>Acredito que deves pensar no nosso exército e deixa-lo descansar.</t>
-  </si>
-  <si>
     <t>DG9</t>
   </si>
   <si>
-    <t>Aconselho a não aceitar, pois pode ser de um inimigo.</t>
-  </si>
-  <si>
-    <t>Não há a necessidade de recusar a bebida, ele faz parte do nosso povo.</t>
-  </si>
-  <si>
-    <t>Aconselho a enviar uma tropa rapidamente e assim garantir a vitória.</t>
-  </si>
-  <si>
-    <t>Cuidado pois podemos ficar sem exército suficiente para nos proteger.</t>
-  </si>
-  <si>
-    <t>Apenas com metade não seremos vitóriosos.</t>
-  </si>
-  <si>
-    <t>Ficaremos fracos e desprotegidos.</t>
-  </si>
-  <si>
-    <t>Aconselho a ainda não sair das proteções da cidade.</t>
-  </si>
-  <si>
-    <t>Aconselho a ir pessoalmente e parabenizar pela vitoria.</t>
-  </si>
-  <si>
-    <t>Acho que não deves se expor a esse estranho.</t>
-  </si>
-  <si>
-    <t>Acredito que deves ir pessoalmente falar com esse estranho.</t>
-  </si>
-  <si>
     <t>Acredito que deverias ser mais diplomático.</t>
   </si>
   <si>
-    <t>Acredito que não deves mostrar diplomacia com o inimigo.</t>
-  </si>
-  <si>
     <t>DG10</t>
   </si>
   <si>
     <t>DG11</t>
   </si>
   <si>
-    <t>Aconselho a não tentar amizade com o inimigo.</t>
-  </si>
-  <si>
-    <t>Aconselho a não saber sobre a família.</t>
-  </si>
-  <si>
     <t>DG14</t>
   </si>
   <si>
-    <t>Aconselho a não tocar no inimigo, pois ele pode tentar algo.</t>
-  </si>
-  <si>
-    <t>Aconselho a ter mais diplomacia e apertar a mão do inimigo.</t>
-  </si>
-  <si>
     <t>DG19</t>
   </si>
   <si>
-    <t>Recomendo que deves ser líder e jamais se render.</t>
-  </si>
-  <si>
-    <t>Devias negociar pois teu povo depende de ti.</t>
-  </si>
-  <si>
-    <t>Acredito que não deves mudar de opinião pois isso mostra fraquesa.</t>
-  </si>
-  <si>
-    <t>Acredito que deves mudar de decisão.</t>
-  </si>
-  <si>
-    <t>Acredito que há várias ideias para bloquear os acessos pense melhor.</t>
-  </si>
-  <si>
-    <t>Acredito que agora não há mais como defender o acesso.</t>
-  </si>
-  <si>
-    <t>Não deves interagir com todos do conselho apenas um deve falar.</t>
-  </si>
-  <si>
-    <t>Deverias saber a opinião de cada um do conselho.</t>
-  </si>
-  <si>
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;</t>
   </si>
   <si>
@@ -536,15 +314,6 @@
     <t>Aconselho a não sair da protéção da cidade por enquanto.</t>
   </si>
   <si>
-    <t>Acho que não deves te expor a este estranho.</t>
-  </si>
-  <si>
-    <t>Recomendo que mantenhas a tua liderança e  jámais te rendas.</t>
-  </si>
-  <si>
-    <t>Na minha opinião não deves mudar de opinião, pois isso demostra fraquesa.</t>
-  </si>
-  <si>
     <t>Não deves interagir com todos os conselheiros apenas um deve falar.</t>
   </si>
   <si>
@@ -557,9 +326,6 @@
     <t>O portão é o mais importante.</t>
   </si>
   <si>
-    <t>Aconselho a não sejas rude.</t>
-  </si>
-  <si>
     <t>Recomendo que não aceites, pois pode ser de um inimigo.</t>
   </si>
   <si>
@@ -569,9 +335,6 @@
     <t>Recomendo a que não toques no inimigo, pois ele pode tentar algo.</t>
   </si>
   <si>
-    <t>Aconselho a quenão aceites, pois pode ser de um inimigo.</t>
-  </si>
-  <si>
     <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa.</t>
   </si>
   <si>
@@ -617,21 +380,12 @@
     <t>Aconselho a ires pessoalmente e congratulá-lo pela vitória.</t>
   </si>
   <si>
-    <t>Acredito que deves ir pessoalmente falar com o estranho.</t>
-  </si>
-  <si>
     <t>Acredito que não deves mostrar diplomacia para com o inimigo.</t>
   </si>
   <si>
     <t>Devias negociar, pois o teu povo depende de ti.</t>
   </si>
   <si>
-    <t>Acredito que há várias maneiras para bloquear as ruas, devias pensar melhor.</t>
-  </si>
-  <si>
-    <t>Acredito que agora não há mais nada a fazer para defender a rua.</t>
-  </si>
-  <si>
     <t>Agora não precisamos de símbolos, mas sim de ações.</t>
   </si>
   <si>
@@ -656,30 +410,6 @@
     <t>Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.</t>
   </si>
   <si>
-    <t>Mantém, essas decisões.</t>
-  </si>
-  <si>
-    <t>Entendo o teu ponto de vista e concordo.</t>
-  </si>
-  <si>
-    <t>Eu concordo, completamente contigo.</t>
-  </si>
-  <si>
-    <t>Explêndido. Com esta decisão vais salvar a população.</t>
-  </si>
-  <si>
-    <t>Posso dizer que estás a trabalhar muito nisto.</t>
-  </si>
-  <si>
-    <t>Posso dizer que estás trabalhando muito nisto.</t>
-  </si>
-  <si>
-    <t>Brilhante. Não esperava outra decisão.</t>
-  </si>
-  <si>
-    <t>Eu recomendo fortemente a confirmação desta decisão.</t>
-  </si>
-  <si>
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Olá o meu nome é êmis, serei o teu conselheiro. Com as minhas sugestões saírás victorioso!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
@@ -687,6 +417,363 @@
   </si>
   <si>
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;break time='2s'/&gt;&lt;ANIMATE(joy1)&gt; Vamos começar!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro.</t>
+  </si>
+  <si>
+    <t>This is the best decision to be taken, because they need to know first.</t>
+  </si>
+  <si>
+    <t>I like this decision, because it is the best way to be ready for a battle.</t>
+  </si>
+  <si>
+    <t>Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha.</t>
+  </si>
+  <si>
+    <t>Mantém essa decisão. Todos terão a sua vez de falar.</t>
+  </si>
+  <si>
+    <t>Keep that decision. Everyone will have their turn to speak.</t>
+  </si>
+  <si>
+    <t>Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.</t>
+  </si>
+  <si>
+    <t>I understand your point of view and agree with it. Allies are welcome at this time.</t>
+  </si>
+  <si>
+    <t>I believe that you have made the best decision for this moment.</t>
+  </si>
+  <si>
+    <t>Acredito que tomastes a melhor decisão para este momento.</t>
+  </si>
+  <si>
+    <t>Acredito que esta decisão é a mais segura para o nosso povo.</t>
+  </si>
+  <si>
+    <t>I believe that this decision is the safest for our people.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão.</t>
+  </si>
+  <si>
+    <t>Aprovo esta decisão, acredito que assim será melhor para nós.</t>
+  </si>
+  <si>
+    <t>I approve this decision, I believe it will be better for us.</t>
+  </si>
+  <si>
+    <t>Acredito que esta decisão é a mais sensata para o momento.</t>
+  </si>
+  <si>
+    <t>I believe that this decision is the most sensible for the moment.</t>
+  </si>
+  <si>
+    <t>Acredito que com esta decisão teremos mais vantagem.</t>
+  </si>
+  <si>
+    <t>I believe that with this decision we will have more advantage.</t>
+  </si>
+  <si>
+    <t>Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.</t>
+  </si>
+  <si>
+    <t>I like this decision. Either way the enemy is weaker.</t>
+  </si>
+  <si>
+    <t>Acredito que esta é a melhor estratégia para alcançar a vitória.</t>
+  </si>
+  <si>
+    <t>I believe this is the best strategy to achieve the victory.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão, é a mais sensata.</t>
+  </si>
+  <si>
+    <t>I agree with this decision, it is the most sensible.</t>
+  </si>
+  <si>
+    <t>Acredito que com esta decisão os aliados serão vitóriosos.</t>
+  </si>
+  <si>
+    <t>I believe with this decision the allies will be victorious.</t>
+  </si>
+  <si>
+    <t>Concordo contigo. Precisamos agradecer aos aliados.</t>
+  </si>
+  <si>
+    <t>I agree with you. We need to thank the allies.</t>
+  </si>
+  <si>
+    <t>Acho que não deves te expor ao inimigo desta forma.</t>
+  </si>
+  <si>
+    <t>Acredito que deves ir pessoalmente falar com o inimigo.</t>
+  </si>
+  <si>
+    <t>Concordo com a tua decisão, devemos diminuir o estrago da derrota.</t>
+  </si>
+  <si>
+    <t>I agree with your decision, we must reduce the damage of defeat.</t>
+  </si>
+  <si>
+    <t>Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar.</t>
+  </si>
+  <si>
+    <t>I approve this decision, we should invite the enemy leader to visit us.</t>
+  </si>
+  <si>
+    <t>Recomendo que mantenhas a tua liderança e jámais te rendas.</t>
+  </si>
+  <si>
+    <t>Apoiado. Acredito que todos irão entender esta decisão.</t>
+  </si>
+  <si>
+    <t>Supported. I believe everyone will understand this decision.</t>
+  </si>
+  <si>
+    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa.</t>
+  </si>
+  <si>
+    <t>Acredito que deves mudar de decisão, pois agora tens certeza da decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que há várias maneiras para bloquear o acesso, devias pensar melhor.</t>
+  </si>
+  <si>
+    <t>Acredito que agora não há mais nada a fazer para defender o acesso.</t>
+  </si>
+  <si>
+    <t>Muito bem, apóio esta decisão.</t>
+  </si>
+  <si>
+    <t>Very well. I support this decision.</t>
+  </si>
+  <si>
+    <t>Concordo que esta decisão é a mais correta para o momento.</t>
+  </si>
+  <si>
+    <t>I agree that this decision is the right one for the moment.</t>
+  </si>
+  <si>
+    <t>Acredito que esta é a melhor forma de saber a opinião geral.</t>
+  </si>
+  <si>
+    <t>I believe this is the best way to know the general opinion.</t>
+  </si>
+  <si>
+    <t>Concordo que esta é a decisão mais correta para lidar com o povo neste momento.</t>
+  </si>
+  <si>
+    <t>I agree that this is the most correct decision to deal with the people at this time.</t>
+  </si>
+  <si>
+    <t>O baile, é um grande momento e o discurso é realmente necessário.</t>
+  </si>
+  <si>
+    <t>The ball is a great moment and the speech is really necessary.</t>
+  </si>
+  <si>
+    <t>Concordo que esta região precisa ter prioridade.</t>
+  </si>
+  <si>
+    <t>I agree that this region needs to have priority.</t>
+  </si>
+  <si>
+    <t>Concordo que esta é melhor decisão para ignorar o inimigo.</t>
+  </si>
+  <si>
+    <t>I agree that this is the best decision to ignore the enemy.</t>
+  </si>
+  <si>
+    <t>Concordo que esta decisão irá fazer com que o mensageiro fale.</t>
+  </si>
+  <si>
+    <t>I agree that this decision will cause the messenger to speak.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.</t>
+  </si>
+  <si>
+    <t>I agree with this decision, after all the enemy has already spoken what he had to talk about.</t>
+  </si>
+  <si>
+    <t>I think you will be very exposed.</t>
+  </si>
+  <si>
+    <t>I believe that you should to speech to the public, they need to know.</t>
+  </si>
+  <si>
+    <t>I advise that this is not the time for a ball, but to prepare for a battle.</t>
+  </si>
+  <si>
+    <t>I advise you to organize the ball for the people to be more united.</t>
+  </si>
+  <si>
+    <t>I believe that by speaking first you can influence your counselors.</t>
+  </si>
+  <si>
+    <t>I believe that you should speak first of all to know your opinion.</t>
+  </si>
+  <si>
+    <t>You should not expose yourself so much and you should withdraw from the ball.</t>
+  </si>
+  <si>
+    <t>I think you should just talk to our old allies.</t>
+  </si>
+  <si>
+    <t>I do not advise anyone unknown to come in.</t>
+  </si>
+  <si>
+    <t>I advise you to request explanations immediately.</t>
+  </si>
+  <si>
+    <t>I advise you to let him talk as we try to better understand his tactics.</t>
+  </si>
+  <si>
+    <t>Recommend to act quickly we need military urgently.</t>
+  </si>
+  <si>
+    <t>My intuition says there is no time to defend the main access.</t>
+  </si>
+  <si>
+    <t>I believe the messenger has passed on the correct information.</t>
+  </si>
+  <si>
+    <t>I advise you to send a troop to the attack.</t>
+  </si>
+  <si>
+    <t>I advise you not to leave the protections of the city yet.</t>
+  </si>
+  <si>
+    <t>I do not think you should expose yourself to this stranger.</t>
+  </si>
+  <si>
+    <t>I think you should be more diplomatic.</t>
+  </si>
+  <si>
+    <t>I recommend that you should be a leader and never surrender.</t>
+  </si>
+  <si>
+    <t>I do not think you should change your mind, because it shows weakness.</t>
+  </si>
+  <si>
+    <t>The feeling of patriotism is important to encourage the people.</t>
+  </si>
+  <si>
+    <t>You should not scare the people.</t>
+  </si>
+  <si>
+    <t>The gate is more important.</t>
+  </si>
+  <si>
+    <t>I advise not to be rude at this time.</t>
+  </si>
+  <si>
+    <t>I advise you not to accept, because it can be an enemy.</t>
+  </si>
+  <si>
+    <t>I advise you not to try to befriend the enemy.</t>
+  </si>
+  <si>
+    <t>I think you should talk to everyone at the ball to show peace.</t>
+  </si>
+  <si>
+    <t>I believe that talking to new allies will bring new ideas.</t>
+  </si>
+  <si>
+    <t>I advise you to meet this person.</t>
+  </si>
+  <si>
+    <t>I think you should immediately make him stop talking.</t>
+  </si>
+  <si>
+    <t>You should think better about this intention because the population can be affected.</t>
+  </si>
+  <si>
+    <t>I advise you to immediately send soldiers to defend access.</t>
+  </si>
+  <si>
+    <t>I feel that the enemy has not lost as much force as the messenger informs.</t>
+  </si>
+  <si>
+    <t>Be careful because we can run out of enough army to protect us.</t>
+  </si>
+  <si>
+    <t>We will become weak and unprotected.</t>
+  </si>
+  <si>
+    <t>I think you should go and talk to this stranger in person.</t>
+  </si>
+  <si>
+    <t>I do not think you should show diplomacy to the enemy.</t>
+  </si>
+  <si>
+    <t>You should trade because your people depend on you.</t>
+  </si>
+  <si>
+    <t>We do not need symbols, but actions.</t>
+  </si>
+  <si>
+    <t>The walls are more important.</t>
+  </si>
+  <si>
+    <t>There is no need to refuse drink, it is part of our people.</t>
+  </si>
+  <si>
+    <t>I advise not to know about the family.</t>
+  </si>
+  <si>
+    <t>I advise you to have more diplomacy and shake the enemy's hand.</t>
+  </si>
+  <si>
+    <t>I believe it is not the time to interact with the enemy.</t>
+  </si>
+  <si>
+    <t>I advise you to send a troop quickly and thus guarantee the victory.</t>
+  </si>
+  <si>
+    <t>We will not be victorious with only half of our soldiers.</t>
+  </si>
+  <si>
+    <t>I believe that there are several ideas to block the accesses, think better.</t>
+  </si>
+  <si>
+    <t>You should not interact with everyone on the council just one should talk.</t>
+  </si>
+  <si>
+    <t>I do not advise the speech at the beginning because it can ruin the ball.</t>
+  </si>
+  <si>
+    <t>I advise not to touch the enemy, he can try something.</t>
+  </si>
+  <si>
+    <t>I advise you not to accept, because it can be from an enemy.</t>
+  </si>
+  <si>
+    <t>I believe you should try to gain the confidence of the enemy by inviting him.</t>
+  </si>
+  <si>
+    <t>You should be kinder and wait for the enemy to finish talking.</t>
+  </si>
+  <si>
+    <t>I think you should think about our army and let them rest.</t>
+  </si>
+  <si>
+    <t>I advise you to go personally and congratulate them for the victory.</t>
+  </si>
+  <si>
+    <t>I believe that you must change your decision, because now you are certain of the decision.</t>
+  </si>
+  <si>
+    <t>I believe that there is no longer any way to defend the access.</t>
+  </si>
+  <si>
+    <t>You should know the opinion of each one of the council.</t>
+  </si>
+  <si>
+    <t>A speech at the end can ruin the happy effect of the ball.</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC699C3-7B7D-494D-9389-830F8CDC6B9F}">
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1286,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -1300,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -1314,13 +1401,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1328,13 +1415,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1342,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -1356,13 +1443,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1370,13 +1457,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1384,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1662,7 +1749,7 @@
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves te expor a este estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves te expor ao inimigo desta forma.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -1694,7 +1781,7 @@
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e  jámais te rendas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -1710,7 +1797,7 @@
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Na minha opinião não deves mudar de opinião, pois isso demostra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -1726,7 +1813,7 @@
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear as ruas, devias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -2030,7 +2117,7 @@
       </c>
       <c r="D49" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com o estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -2078,7 +2165,7 @@
       </c>
       <c r="D52" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora tens certeza da decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -2094,7 +2181,7 @@
       </c>
       <c r="D53" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender a rua.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -2142,7 +2229,7 @@
       </c>
       <c r="D56" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -2158,7 +2245,7 @@
       </c>
       <c r="D57" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -2174,7 +2261,7 @@
       </c>
       <c r="D58" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém, essas decisões.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém essa decisão. Todos terão a sua vez de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -2206,7 +2293,7 @@
       </c>
       <c r="D60" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -2222,7 +2309,7 @@
       </c>
       <c r="D61" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu concordo, completamente contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -2238,7 +2325,7 @@
       </c>
       <c r="D62" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explêndido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -2254,7 +2341,7 @@
       </c>
       <c r="D63" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Pessoalmente, esta é a minha decisão favorita.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -2270,7 +2357,7 @@
       </c>
       <c r="D64" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta decisão está completamente correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para nós.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -2286,7 +2373,7 @@
       </c>
       <c r="D65" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Isto definitivamente irá ajudar a população&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -2302,7 +2389,7 @@
       </c>
       <c r="D66" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Isto definitivamente irá ajudar a população&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -2318,7 +2405,7 @@
       </c>
       <c r="D67" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -2334,7 +2421,7 @@
       </c>
       <c r="D68" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Posso dizer que estás a trabalhar muito nisto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -2350,7 +2437,7 @@
       </c>
       <c r="D69" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -2366,7 +2453,7 @@
       </c>
       <c r="D70" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados serão vitóriosos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
@@ -2382,7 +2469,7 @@
       </c>
       <c r="D71" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu concordo, completamente contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -2398,7 +2485,7 @@
       </c>
       <c r="D72" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explêndido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -2414,7 +2501,7 @@
       </c>
       <c r="D73" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilhante. Não esperava outra decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
@@ -2430,7 +2517,7 @@
       </c>
       <c r="D74" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apoiado. Acredito que todos irão entender esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -2446,7 +2533,7 @@
       </c>
       <c r="D75" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo seu ponto de vista e concordo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -2462,7 +2549,7 @@
       </c>
       <c r="D76" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu concordo, completamente contigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
@@ -2478,7 +2565,7 @@
       </c>
       <c r="D77" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estás a fazer um ótimo trabalho como líder.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão é a mais correta para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -2494,7 +2581,7 @@
       </c>
       <c r="D78" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Explêndido. Com esta decisão vais salvar a população.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião geral.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -2510,7 +2597,7 @@
       </c>
       <c r="D79" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito exposto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
@@ -2526,7 +2613,7 @@
       </c>
       <c r="D80" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que não é o momento para um baile e sim preparar-se para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -2542,7 +2629,7 @@
       </c>
       <c r="D81" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falar primeiro podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that by speaking first you can influence your counselors.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -2558,7 +2645,7 @@
       </c>
       <c r="D82" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias se expor tanto e deverias se retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
@@ -2574,7 +2661,7 @@
       </c>
       <c r="D83" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos antigos aliados.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -2590,7 +2677,7 @@
       </c>
       <c r="D84" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não aconselho que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -2606,7 +2693,7 @@
       </c>
       <c r="D85" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de interagir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe it is not the time to interact with the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -2622,7 +2709,7 @@
       </c>
       <c r="D86" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho solicitar explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -2638,7 +2725,7 @@
       </c>
       <c r="D87" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho deixá-lo falar enquanto tentamos melhor perceber a tatica dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to let him talk as we try to better understand his tactics.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -2654,7 +2741,7 @@
       </c>
       <c r="D88" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo agir rapidamente precisamos de militares urgente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
@@ -2670,7 +2757,7 @@
       </c>
       <c r="D89" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Minha intuição diz que não há tempo para defender o acesso principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -2686,7 +2773,7 @@
       </c>
       <c r="D90" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro passou a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
@@ -2702,7 +2789,7 @@
       </c>
       <c r="D91" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -2718,7 +2805,7 @@
       </c>
       <c r="D92" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa rapidamente e assim garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop quickly and thus guarantee the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -2734,7 +2821,7 @@
       </c>
       <c r="D93" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apenas com metade não seremos vitóriosos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will not be victorious with only half of our soldiers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -2750,7 +2837,7 @@
       </c>
       <c r="D94" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ainda não sair das proteções da cidade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -2766,7 +2853,7 @@
       </c>
       <c r="D95" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves se expor a esse estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should expose yourself to this stranger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -2782,7 +2869,7 @@
       </c>
       <c r="D96" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -2798,7 +2885,7 @@
       </c>
       <c r="D97" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que deves ser líder e jamais se render.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -2814,7 +2901,7 @@
       </c>
       <c r="D98" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mudar de opinião pois isso mostra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
@@ -2830,7 +2917,7 @@
       </c>
       <c r="D99" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias ideias para bloquear os acessos pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
@@ -2846,7 +2933,7 @@
       </c>
       <c r="D100" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
@@ -2862,7 +2949,7 @@
       </c>
       <c r="D101" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos do conselho apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
@@ -2878,7 +2965,7 @@
       </c>
       <c r="D102" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar ao público eles precisam saber.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
@@ -2894,7 +2981,7 @@
       </c>
       <c r="D103" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a organizar o baile para o povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -2910,7 +2997,7 @@
       </c>
       <c r="D104" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar primeiro que todos para saberem a sua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should speak first of all to know your opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
@@ -2926,7 +3013,7 @@
       </c>
       <c r="D105" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar tranquilidade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -2942,7 +3029,7 @@
       </c>
       <c r="D106" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that talking to new allies will bring new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
@@ -2958,7 +3045,7 @@
       </c>
       <c r="D107" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que conheças essa pessoa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
@@ -2974,7 +3061,7 @@
       </c>
       <c r="D108" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves tentar ganhar a confiança do adversário convidando-o.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe you should try to gain the confidence of the enemy by inviting him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
@@ -2990,7 +3077,7 @@
       </c>
       <c r="D109" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil e aguardar o adversário terminar de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
@@ -3006,7 +3093,7 @@
       </c>
       <c r="D110" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves imediatamente fazer ele parar de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should immediately make him stop talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
@@ -3022,7 +3109,7 @@
       </c>
       <c r="D111" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afetada.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be affected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
@@ -3038,7 +3125,7 @@
       </c>
       <c r="D112" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
@@ -3054,7 +3141,7 @@
       </c>
       <c r="D113" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informa o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
@@ -3070,7 +3157,7 @@
       </c>
       <c r="D114" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixa-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
@@ -3086,7 +3173,7 @@
       </c>
       <c r="D115" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado pois podemos ficar sem exército suficiente para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful because we can run out of enough army to protect us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
@@ -3102,7 +3189,7 @@
       </c>
       <c r="D116" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Ficaremos fracos e desprotegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will become weak and unprotected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
@@ -3118,7 +3205,7 @@
       </c>
       <c r="D117" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ir pessoalmente e parabenizar pela vitoria.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
@@ -3134,7 +3221,7 @@
       </c>
       <c r="D118" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com esse estranho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should go and talk to this stranger in person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
@@ -3150,7 +3237,7 @@
       </c>
       <c r="D119" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
@@ -3166,7 +3253,7 @@
       </c>
       <c r="D120" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar pois teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade because your people depend on you.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
@@ -3182,7 +3269,7 @@
       </c>
       <c r="D121" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
@@ -3198,7 +3285,7 @@
       </c>
       <c r="D122" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais como defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
@@ -3214,7 +3301,7 @@
       </c>
       <c r="D123" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não precisamos de símbolos, mas de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
@@ -3230,7 +3317,7 @@
       </c>
       <c r="D124" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um do conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
@@ -3246,7 +3333,7 @@
       </c>
       <c r="D125" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken, because they need to know first.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
@@ -3262,7 +3349,7 @@
       </c>
       <c r="D126" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -3278,7 +3365,7 @@
       </c>
       <c r="D127" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep these decisions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep that decision. Everyone will have their turn to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
@@ -3310,7 +3397,7 @@
       </c>
       <c r="D129" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it. Allies are welcome at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
@@ -3326,7 +3413,7 @@
       </c>
       <c r="D130" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Definitely, this will help people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
@@ -3342,7 +3429,7 @@
       </c>
       <c r="D131" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I completely agree with you.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
@@ -3358,7 +3445,7 @@
       </c>
       <c r="D132" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Personally, this is my favourite decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
@@ -3374,7 +3461,7 @@
       </c>
       <c r="D133" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This decision is correct.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
@@ -3390,7 +3477,7 @@
       </c>
       <c r="D134" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
@@ -3406,7 +3493,7 @@
       </c>
       <c r="D135" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -3422,7 +3509,7 @@
       </c>
       <c r="D136" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision. Either way the enemy is weaker.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
@@ -3438,7 +3525,7 @@
       </c>
       <c r="D137" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I can say that you are working hard on this.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
@@ -3454,7 +3541,7 @@
       </c>
       <c r="D138" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
@@ -3470,7 +3557,7 @@
       </c>
       <c r="D139" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision the allies will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
@@ -3486,7 +3573,7 @@
       </c>
       <c r="D140" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Definitely, this will help people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank the allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
@@ -3502,7 +3589,7 @@
       </c>
       <c r="D141" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
@@ -3518,7 +3605,7 @@
       </c>
       <c r="D142" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilliant. I did not expect another decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
@@ -3534,7 +3621,7 @@
       </c>
       <c r="D143" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Supported. I believe everyone will understand this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
@@ -3550,7 +3637,7 @@
       </c>
       <c r="D144" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
@@ -3566,7 +3653,7 @@
       </c>
       <c r="D145" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Definitely, this will help people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
@@ -3582,7 +3669,7 @@
       </c>
       <c r="D146" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You are doing a great job as leader.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision is the right one for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
@@ -3598,7 +3685,7 @@
       </c>
       <c r="D147" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Wonderful. With this decision, you will save the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the general opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
@@ -3662,7 +3749,7 @@
       </c>
       <c r="D151" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sejas rude.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
@@ -3742,7 +3829,7 @@
       </c>
       <c r="D156" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a quenão aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
@@ -3902,7 +3989,7 @@
       </c>
       <c r="D166" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estás a fazer um ótimo trabalho como líder.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
@@ -3918,7 +4005,7 @@
       </c>
       <c r="D167" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Posso dizer que estás trabalhando muito nisto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
@@ -3934,7 +4021,7 @@
       </c>
       <c r="D168" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilhante. Não esperava outra decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
@@ -3950,7 +4037,7 @@
       </c>
       <c r="D169" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu recomendo fortemente a confirmação desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
@@ -3966,7 +4053,7 @@
       </c>
       <c r="D170" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém, essas decisões.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
@@ -3982,7 +4069,7 @@
       </c>
       <c r="D171" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Pessoalmente, esta é a minha decisão favorita.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
@@ -3998,7 +4085,7 @@
       </c>
       <c r="D172" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta decisão está completamente correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
@@ -4014,7 +4101,7 @@
       </c>
       <c r="D173" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu recomendo fortemente a confirmação desta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
@@ -4030,7 +4117,7 @@
       </c>
       <c r="D174" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
@@ -4046,7 +4133,7 @@
       </c>
       <c r="D175" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
@@ -4062,7 +4149,7 @@
       </c>
       <c r="D176" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não aconselho o discurso no início pois pode estragar o baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
@@ -4078,7 +4165,7 @@
       </c>
       <c r="D177" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
@@ -4094,7 +4181,7 @@
       </c>
       <c r="D178" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho não ser rude neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
@@ -4110,7 +4197,7 @@
       </c>
       <c r="D179" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não aceitar, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
@@ -4126,7 +4213,7 @@
       </c>
       <c r="D180" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
@@ -4142,7 +4229,7 @@
       </c>
       <c r="D181" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não tentar amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to try to befriend the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
@@ -4158,7 +4245,7 @@
       </c>
       <c r="D182" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não tocar no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to touch the enemy, he can try something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
@@ -4174,7 +4261,7 @@
       </c>
       <c r="D183" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não aceitar, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be from an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
@@ -4190,7 +4277,7 @@
       </c>
       <c r="D184" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
@@ -4206,7 +4293,7 @@
       </c>
       <c r="D185" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final pode estragar o efeito feliz do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
@@ -4222,7 +4309,7 @@
       </c>
       <c r="D186" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As paredes são mais importantes.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
@@ -4238,7 +4325,7 @@
       </c>
       <c r="D187" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho não ser rude neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
@@ -4254,7 +4341,7 @@
       </c>
       <c r="D188" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, ele faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse drink, it is part of our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
@@ -4270,7 +4357,7 @@
       </c>
       <c r="D189" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -4286,7 +4373,7 @@
       </c>
       <c r="D190" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não saber sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to know about the family.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
@@ -4302,7 +4389,7 @@
       </c>
       <c r="D191" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ter mais diplomacia e apertar a mão do inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to have more diplomacy and shake the enemy's hand.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
@@ -4318,7 +4405,7 @@
       </c>
       <c r="D192" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, ele faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse drink, it is part of our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
@@ -4334,7 +4421,7 @@
       </c>
       <c r="D193" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You are doing a great job as leader.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
@@ -4350,7 +4437,7 @@
       </c>
       <c r="D194" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I can say that you are working hard on this.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
@@ -4366,7 +4453,7 @@
       </c>
       <c r="D195" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Brilliant. I did not expect another decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
@@ -4382,7 +4469,7 @@
       </c>
       <c r="D196" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I strongly advise confirming this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
@@ -4398,7 +4485,7 @@
       </c>
       <c r="D197" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep these decisions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
@@ -4414,7 +4501,7 @@
       </c>
       <c r="D198" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Personally, this is my favourite decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
@@ -4430,7 +4517,7 @@
       </c>
       <c r="D199" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This decision is correct.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
@@ -4446,7 +4533,7 @@
       </c>
       <c r="D200" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I strongly advise confirming this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, after all the enemy has already spoken what he had to talk about.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
@@ -4462,7 +4549,7 @@
       </c>
       <c r="D201" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
@@ -4666,7 +4753,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4719,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -4772,7 +4859,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -4822,7 +4909,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -4872,7 +4959,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -4922,7 +5009,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -4972,7 +5059,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -5022,7 +5109,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -5820,7 +5907,7 @@
         <v>DG1:phraseAgainstPref1_EN</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
@@ -5871,7 +5958,7 @@
         <v>DG2:phraseAgainstPref1_EN</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -5922,7 +6009,7 @@
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
       <c r="K27" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -5973,7 +6060,7 @@
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
       <c r="K28" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -6024,7 +6111,7 @@
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
       <c r="K29" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -6075,7 +6162,7 @@
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -6126,7 +6213,7 @@
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -6177,7 +6264,7 @@
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -6228,7 +6315,7 @@
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
       <c r="K33" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -7879,20 +7966,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405BC36-7328-40C6-8088-275F0F9C1320}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="80.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.265625" customWidth="1"/>
+    <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -7929,22 +8016,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -7955,22 +8042,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -7981,22 +8068,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -8007,22 +8094,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -8033,22 +8120,22 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -8059,22 +8146,22 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -8085,22 +8172,22 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -8111,22 +8198,22 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -8137,22 +8224,22 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -8163,22 +8250,22 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -8189,22 +8276,22 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -8215,22 +8302,22 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -8241,22 +8328,22 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -8267,22 +8354,22 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -8293,22 +8380,22 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.45">
@@ -8319,22 +8406,22 @@
         <v>28</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -8345,22 +8432,22 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -8371,22 +8458,22 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -8397,22 +8484,22 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -8423,22 +8510,22 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -8449,22 +8536,22 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -8475,22 +8562,22 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -8501,22 +8588,22 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -8524,25 +8611,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -8550,25 +8637,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -8576,25 +8663,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -8602,25 +8689,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -8628,25 +8715,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -8654,25 +8741,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -8680,25 +8767,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -8706,25 +8793,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -8732,22 +8819,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="H33" t="s">
         <v>46</v>
@@ -8778,10 +8865,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\Git\SOP\Utterances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\SERA\Skene\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E3ED5-31AE-43CD-AF88-8AF9A328E398}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3302F779-6DA6-47CC-A01C-830491708D91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" activeTab="2" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Utterances" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="247">
   <si>
     <t>Id</t>
   </si>
@@ -263,9 +263,6 @@
     <t>INTRO_MEEK:PT</t>
   </si>
   <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Hello my name is Emys, I am your counselor. With my suggestions you will be victorious!&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;ANIMATE(sadness1)&gt;O meu nome é Glêen, e também sou teu conselheiro.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
     <t>Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.</t>
   </si>
   <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Olá o meu nome é êmis, serei o teu conselheiro. Com as minhas sugestões saírás victorioso!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;break time='2s'/&gt;&lt;ANIMATE(joy1)&gt; Let's begin!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
@@ -774,6 +768,36 @@
   </si>
   <si>
     <t>A speech at the end can ruin the happy effect of the ball.</t>
+  </si>
+  <si>
+    <t>INTRO_DOM3:PT</t>
+  </si>
+  <si>
+    <t>INTRO_MEEK2:PT</t>
+  </si>
+  <si>
+    <t>INTRO_DOM3:EN</t>
+  </si>
+  <si>
+    <t>INTRO_MEEK2:EN</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Olá, o meu nome é êmis, e serei o teu conselheiro.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt;Hello my name is Emys, I am your counselor. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;ANIMATE(joy1)&gt; No passado, o nosso líder teve a oportunidade ter mais conselheiros robóticos, porém, falavam todos ao mesmo tempo, e muitos acabaram se destruindo. Por isso, agora cada conselheiro robótico só pode falar um de cada vez. Desde já aviso que se seguires as minhas sugestões sairás vitorioso! &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt; In the past, our leader had the opportunity to have more robotic councils, although, they all spoked at the same time and lots of them got destroyed. Now each robotic counsel can only speak one at the time. I should warn you that if you follow my suggestions you will be victorious. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;ANIMATE(sadness1)&gt;Acredito que neste momento deverias  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(sadness1)&gt;At this moment I believe you should  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1033,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6BD1A8C-990F-4699-B406-B044F8F8DCF1}" name="Table1" displayName="Table1" ref="A1:D220" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D220" xr:uid="{11638E6A-CE2D-4FFB-8001-F34F4D0EAD09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6BD1A8C-990F-4699-B406-B044F8F8DCF1}" name="Table1" displayName="Table1" ref="A1:D224" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D224" xr:uid="{11638E6A-CE2D-4FFB-8001-F34F4D0EAD09}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{51ABBAA3-678B-4371-94F8-061775CDF9D1}" name="Id" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{740F8191-BDD7-474A-A392-A27C421C223A}" name="CATEGORY" dataDxfId="1"/>
@@ -1338,9 +1362,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC699C3-7B7D-494D-9389-830F8CDC6B9F}">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1407,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1421,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1429,13 +1453,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1443,13 +1467,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1457,13 +1481,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1471,77 +1495,69 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="str">
-        <f>'Dropdowns Content'!B10</f>
-        <v>DP1:phraseAgainstPref1_PT</v>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      <c r="D10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="str">
-        <f>'Dropdowns Content'!B11</f>
-        <v>DP2:phraseAgainstPref1_PT</v>
+      <c r="B11" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      <c r="D11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="str">
-        <f>'Dropdowns Content'!B12</f>
-        <v>DP3:phraseAgainstPref1_PT</v>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      <c r="D12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="str">
-        <f>'Dropdowns Content'!B13</f>
-        <v>DP4:phraseAgainstPref1_PT</v>
+      <c r="B13" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      <c r="D13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1549,15 +1565,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="str">
-        <f>'Dropdowns Content'!B14</f>
-        <v>DP5:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B10</f>
+        <v>DP1:phraseAgainstPref1_PT</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C2,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1565,15 +1581,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="str">
-        <f>'Dropdowns Content'!B15</f>
-        <v>DP6:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B11</f>
+        <v>DP2:phraseAgainstPref1_PT</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C3,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1581,15 +1597,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="str">
-        <f>'Dropdowns Content'!B16</f>
-        <v>DP7:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B12</f>
+        <v>DP3:phraseAgainstPref1_PT</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de intérahgir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C4,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -1597,15 +1613,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="str">
-        <f>'Dropdowns Content'!B17</f>
-        <v>DP10:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B13</f>
+        <v>DP4:phraseAgainstPref1_PT</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C5,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -1613,15 +1629,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="str">
-        <f>'Dropdowns Content'!B18</f>
-        <v>DP11:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B14</f>
+        <v>DP5:phraseAgainstPref1_PT</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que o deixes falar enquanto tentamos perceber melhor qual a tática dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C6,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -1629,15 +1645,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="str">
-        <f>'Dropdowns Content'!B19</f>
-        <v>DP12:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B15</f>
+        <v>DP6:phraseAgainstPref1_PT</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C7,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -1645,15 +1661,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="str">
-        <f>'Dropdowns Content'!B20</f>
-        <v>DP18:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B16</f>
+        <v>DP7:phraseAgainstPref1_PT</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C8,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de intérahgir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -1661,15 +1677,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="str">
-        <f>'Dropdowns Content'!B21</f>
-        <v>DP25:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B17</f>
+        <v>DP10:phraseAgainstPref1_PT</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C9,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -1677,15 +1693,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="str">
-        <f>'Dropdowns Content'!B22</f>
-        <v>DP26:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B18</f>
+        <v>DP11:phraseAgainstPref1_PT</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C10,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que o deixes falar enquanto tentamos perceber melhor qual a tática dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -1693,15 +1709,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="str">
-        <f>'Dropdowns Content'!B23</f>
-        <v>DP27:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B19</f>
+        <v>DP12:phraseAgainstPref1_PT</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados rapidamente para garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C11,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -1709,15 +1725,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="str">
-        <f>'Dropdowns Content'!B24</f>
-        <v>DP28:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B20</f>
+        <v>DP18:phraseAgainstPref1_PT</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C12,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -1725,15 +1741,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="str">
-        <f>'Dropdowns Content'!B25</f>
-        <v>DP29:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B21</f>
+        <v>DP25:phraseAgainstPref1_PT</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C13,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -1741,15 +1757,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="str">
-        <f>'Dropdowns Content'!B26</f>
-        <v>DP30:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B22</f>
+        <v>DP26:phraseAgainstPref1_PT</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves te expor ao inimigo desta forma.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C14,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -1757,15 +1773,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="str">
-        <f>'Dropdowns Content'!B27</f>
-        <v>DP31:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B23</f>
+        <v>DP27:phraseAgainstPref1_PT</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C15,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados rapidamente para garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -1773,15 +1789,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="str">
-        <f>'Dropdowns Content'!B28</f>
-        <v>DP32:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B24</f>
+        <v>DP28:phraseAgainstPref1_PT</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C16,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -1789,15 +1805,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="str">
-        <f>'Dropdowns Content'!B29</f>
-        <v>DP33:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B25</f>
+        <v>DP29:phraseAgainstPref1_PT</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C17,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -1805,15 +1821,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="str">
-        <f>'Dropdowns Content'!B30</f>
-        <v>DP34:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B26</f>
+        <v>DP30:phraseAgainstPref1_PT</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C18,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves te expor ao inimigo desta forma.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -1821,15 +1837,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="str">
-        <f>'Dropdowns Content'!B31</f>
-        <v>DP35:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B27</f>
+        <v>DP31:phraseAgainstPref1_PT</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C19,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -1837,15 +1853,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="str">
-        <f>'Dropdowns Content'!B32</f>
-        <v>DP36:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B28</f>
+        <v>DP32:phraseAgainstPref1_PT</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C20,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -1853,15 +1869,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="str">
-        <f>'Dropdowns Content'!B33</f>
-        <v>DP1:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B29</f>
+        <v>DP33:phraseAgainstPref1_PT</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C21,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -1869,15 +1885,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="str">
-        <f>'Dropdowns Content'!B34</f>
-        <v>DP2:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B30</f>
+        <v>DP34:phraseAgainstPref1_PT</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C22,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -1885,15 +1901,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="str">
-        <f>'Dropdowns Content'!B35</f>
-        <v>DP3:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B31</f>
+        <v>DP35:phraseAgainstPref1_PT</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C23,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -1901,15 +1917,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="str">
-        <f>'Dropdowns Content'!B36</f>
-        <v>DP4:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B32</f>
+        <v>DP36:phraseAgainstPref1_PT</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C24,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -1917,15 +1933,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="str">
-        <f>'Dropdowns Content'!B37</f>
-        <v>DP5:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B33</f>
+        <v>DP1:phraseAgainstPref2_PT</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D2,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -1933,15 +1949,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="str">
-        <f>'Dropdowns Content'!B38</f>
-        <v>DP6:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B34</f>
+        <v>DP2:phraseAgainstPref2_PT</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D3,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -1949,15 +1965,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="str">
-        <f>'Dropdowns Content'!B39</f>
-        <v>DP7:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B35</f>
+        <v>DP3:phraseAgainstPref2_PT</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves tentar ganhar a confiança do adversário convidando-o.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D4,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -1965,15 +1981,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="str">
-        <f>'Dropdowns Content'!B40</f>
-        <v>DP10:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B36</f>
+        <v>DP4:phraseAgainstPref2_PT</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D5,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -1981,15 +1997,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="str">
-        <f>'Dropdowns Content'!B41</f>
-        <v>DP11:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B37</f>
+        <v>DP5:phraseAgainstPref2_PT</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves fazer o adversário parar de falar imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D6,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -1997,15 +2013,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="str">
-        <f>'Dropdowns Content'!B42</f>
-        <v>DP12:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B38</f>
+        <v>DP6:phraseAgainstPref2_PT</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afectada com a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D7,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -2013,15 +2029,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="str">
-        <f>'Dropdowns Content'!B43</f>
-        <v>DP18:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B39</f>
+        <v>DP7:phraseAgainstPref2_PT</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D8,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves tentar ganhar a confiança do adversário convidando-o.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -2029,15 +2045,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="str">
-        <f>'Dropdowns Content'!B44</f>
-        <v>DP25:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B40</f>
+        <v>DP10:phraseAgainstPref2_PT</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D9,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -2045,15 +2061,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="str">
-        <f>'Dropdowns Content'!B45</f>
-        <v>DP26:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B41</f>
+        <v>DP11:phraseAgainstPref2_PT</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D10,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves fazer o adversário parar de falar imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -2061,15 +2077,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="str">
-        <f>'Dropdowns Content'!B46</f>
-        <v>DP27:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B42</f>
+        <v>DP12:phraseAgainstPref2_PT</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, pois podemos ficar sem soldados suficientes para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D11,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afectada com a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -2077,15 +2093,15 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="str">
-        <f>'Dropdowns Content'!B47</f>
-        <v>DP28:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B43</f>
+        <v>DP18:phraseAgainstPref2_PT</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D12,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -2093,15 +2109,15 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="str">
-        <f>'Dropdowns Content'!B48</f>
-        <v>DP29:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B44</f>
+        <v>DP25:phraseAgainstPref2_PT</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D48" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D13,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -2109,15 +2125,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="str">
-        <f>'Dropdowns Content'!B49</f>
-        <v>DP30:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B45</f>
+        <v>DP26:phraseAgainstPref2_PT</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D49" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D14,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -2125,15 +2141,15 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="str">
-        <f>'Dropdowns Content'!B50</f>
-        <v>DP31:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B46</f>
+        <v>DP27:phraseAgainstPref2_PT</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D50" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D15,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, pois podemos ficar sem soldados suficientes para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -2141,15 +2157,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="str">
-        <f>'Dropdowns Content'!B51</f>
-        <v>DP32:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B47</f>
+        <v>DP28:phraseAgainstPref2_PT</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D51" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D16,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -2157,15 +2173,15 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="str">
-        <f>'Dropdowns Content'!B52</f>
-        <v>DP33:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B48</f>
+        <v>DP29:phraseAgainstPref2_PT</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D52" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora tens certeza da decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D17,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -2173,15 +2189,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="str">
-        <f>'Dropdowns Content'!B53</f>
-        <v>DP34:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B49</f>
+        <v>DP30:phraseAgainstPref2_PT</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D53" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D18,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -2189,15 +2205,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="str">
-        <f>'Dropdowns Content'!B54</f>
-        <v>DP35:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B50</f>
+        <v>DP31:phraseAgainstPref2_PT</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D54" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D19,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -2205,15 +2221,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="str">
-        <f>'Dropdowns Content'!B55</f>
-        <v>DP36:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B51</f>
+        <v>DP32:phraseAgainstPref2_PT</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do  conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D20,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -2221,15 +2237,15 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="str">
-        <f>'Dropdowns Content'!B56</f>
-        <v>DP1:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B52</f>
+        <v>DP33:phraseAgainstPref2_PT</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D56" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D21,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora tens certeza da decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -2237,15 +2253,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="str">
-        <f>'Dropdowns Content'!B57</f>
-        <v>DP2:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B53</f>
+        <v>DP34:phraseAgainstPref2_PT</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D57" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D22,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -2253,15 +2269,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="str">
-        <f>'Dropdowns Content'!B58</f>
-        <v>DP3:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B54</f>
+        <v>DP35:phraseAgainstPref2_PT</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém essa decisão. Todos terão a sua vez de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D23,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -2269,15 +2285,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="str">
-        <f>'Dropdowns Content'!B59</f>
-        <v>DP4:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B55</f>
+        <v>DP36:phraseAgainstPref2_PT</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D59" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D24,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do  conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -2285,15 +2301,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="str">
-        <f>'Dropdowns Content'!B60</f>
-        <v>DP5:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B56</f>
+        <v>DP1:phraseFavourPref_PT</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E2,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -2301,15 +2317,15 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="str">
-        <f>'Dropdowns Content'!B61</f>
-        <v>DP6:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B57</f>
+        <v>DP2:phraseFavourPref_PT</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E3,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -2317,15 +2333,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="str">
-        <f>'Dropdowns Content'!B62</f>
-        <v>DP7:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B58</f>
+        <v>DP3:phraseFavourPref_PT</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E4,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém essa decisão. Todos terão a sua vez de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -2333,15 +2349,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="str">
-        <f>'Dropdowns Content'!B63</f>
-        <v>DP10:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B59</f>
+        <v>DP4:phraseFavourPref_PT</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D63" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E5,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -2349,15 +2365,15 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="str">
-        <f>'Dropdowns Content'!B64</f>
-        <v>DP11:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B60</f>
+        <v>DP5:phraseFavourPref_PT</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D64" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para nós.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E6,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -2365,15 +2381,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="str">
-        <f>'Dropdowns Content'!B65</f>
-        <v>DP12:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B61</f>
+        <v>DP6:phraseFavourPref_PT</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E7,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -2381,15 +2397,15 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="str">
-        <f>'Dropdowns Content'!B66</f>
-        <v>DP18:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B62</f>
+        <v>DP7:phraseFavourPref_PT</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D66" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E8,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -2397,15 +2413,15 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="str">
-        <f>'Dropdowns Content'!B67</f>
-        <v>DP25:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B63</f>
+        <v>DP10:phraseFavourPref_PT</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D67" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E9,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -2413,15 +2429,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="str">
-        <f>'Dropdowns Content'!B68</f>
-        <v>DP26:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B64</f>
+        <v>DP11:phraseFavourPref_PT</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D68" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E10,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para nós.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -2429,15 +2445,15 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="str">
-        <f>'Dropdowns Content'!B69</f>
-        <v>DP27:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B65</f>
+        <v>DP12:phraseFavourPref_PT</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D69" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E11,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -2445,15 +2461,15 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="str">
-        <f>'Dropdowns Content'!B70</f>
-        <v>DP28:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B66</f>
+        <v>DP18:phraseFavourPref_PT</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D70" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados serão vitóriosos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E12,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
@@ -2461,15 +2477,15 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="str">
-        <f>'Dropdowns Content'!B71</f>
-        <v>DP29:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B67</f>
+        <v>DP25:phraseFavourPref_PT</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E13,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -2477,15 +2493,15 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="str">
-        <f>'Dropdowns Content'!B72</f>
-        <v>DP30:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B68</f>
+        <v>DP26:phraseFavourPref_PT</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E14,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -2493,15 +2509,15 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="str">
-        <f>'Dropdowns Content'!B73</f>
-        <v>DP31:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B69</f>
+        <v>DP27:phraseFavourPref_PT</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D73" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E15,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
@@ -2509,15 +2525,15 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="str">
-        <f>'Dropdowns Content'!B74</f>
-        <v>DP32:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B70</f>
+        <v>DP28:phraseFavourPref_PT</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D74" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apoiado. Acredito que todos irão entender esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E16,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados serão vitóriosos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -2525,15 +2541,15 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="str">
-        <f>'Dropdowns Content'!B75</f>
-        <v>DP33:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B71</f>
+        <v>DP29:phraseFavourPref_PT</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D75" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E17,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -2541,15 +2557,15 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="str">
-        <f>'Dropdowns Content'!B76</f>
-        <v>DP34:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B72</f>
+        <v>DP30:phraseFavourPref_PT</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D76" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E18,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
@@ -2557,15 +2573,15 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="str">
-        <f>'Dropdowns Content'!B77</f>
-        <v>DP35:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B73</f>
+        <v>DP31:phraseFavourPref_PT</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D77" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão é a mais correta para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E19,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -2573,15 +2589,15 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="str">
-        <f>'Dropdowns Content'!B78</f>
-        <v>DP36:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B74</f>
+        <v>DP32:phraseFavourPref_PT</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D78" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião geral.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E20,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apoiado. Acredito que todos irão entender esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -2589,15 +2605,15 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="str">
-        <f>'Dropdowns Content'!B79</f>
-        <v>DP1:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B75</f>
+        <v>DP33:phraseFavourPref_PT</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D79" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E21,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
@@ -2605,15 +2621,15 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="str">
-        <f>'Dropdowns Content'!B80</f>
-        <v>DP2:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B76</f>
+        <v>DP34:phraseFavourPref_PT</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D80" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E22,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -2621,15 +2637,15 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="str">
-        <f>'Dropdowns Content'!B81</f>
-        <v>DP3:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B77</f>
+        <v>DP35:phraseFavourPref_PT</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D81" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that by speaking first you can influence your counselors.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E23,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão é a mais correta para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -2637,15 +2653,15 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="str">
-        <f>'Dropdowns Content'!B82</f>
-        <v>DP4:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B78</f>
+        <v>DP36:phraseFavourPref_PT</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D82" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E24,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião geral.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
@@ -2653,15 +2669,15 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="str">
-        <f>'Dropdowns Content'!B83</f>
-        <v>DP5:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B79</f>
+        <v>DP1:phraseAgainstPref1_EN</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D83" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F2,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -2669,15 +2685,15 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="str">
-        <f>'Dropdowns Content'!B84</f>
-        <v>DP6:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B80</f>
+        <v>DP2:phraseAgainstPref1_EN</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D84" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F3,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -2685,15 +2701,15 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="str">
-        <f>'Dropdowns Content'!B85</f>
-        <v>DP7:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B81</f>
+        <v>DP3:phraseAgainstPref1_EN</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D85" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe it is not the time to interact with the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F4,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that by speaking first you can influence your counselors.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -2701,15 +2717,15 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="str">
-        <f>'Dropdowns Content'!B86</f>
-        <v>DP10:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B82</f>
+        <v>DP4:phraseAgainstPref1_EN</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D86" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F5,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -2717,15 +2733,15 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="str">
-        <f>'Dropdowns Content'!B87</f>
-        <v>DP11:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B83</f>
+        <v>DP5:phraseAgainstPref1_EN</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D87" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to let him talk as we try to better understand his tactics.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F6,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -2733,15 +2749,15 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="str">
-        <f>'Dropdowns Content'!B88</f>
-        <v>DP12:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B84</f>
+        <v>DP6:phraseAgainstPref1_EN</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D88" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F7,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
@@ -2749,15 +2765,15 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="str">
-        <f>'Dropdowns Content'!B89</f>
-        <v>DP18:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B85</f>
+        <v>DP7:phraseAgainstPref1_EN</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D89" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F8,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe it is not the time to interact with the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -2765,15 +2781,15 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="str">
-        <f>'Dropdowns Content'!B90</f>
-        <v>DP25:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B86</f>
+        <v>DP10:phraseAgainstPref1_EN</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D90" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F9,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
@@ -2781,15 +2797,15 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="str">
-        <f>'Dropdowns Content'!B91</f>
-        <v>DP26:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B87</f>
+        <v>DP11:phraseAgainstPref1_EN</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D91" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F10,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to let him talk as we try to better understand his tactics.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -2797,15 +2813,15 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="str">
-        <f>'Dropdowns Content'!B92</f>
-        <v>DP27:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B88</f>
+        <v>DP12:phraseAgainstPref1_EN</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D92" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop quickly and thus guarantee the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F11,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -2813,15 +2829,15 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="str">
-        <f>'Dropdowns Content'!B93</f>
-        <v>DP28:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B89</f>
+        <v>DP18:phraseAgainstPref1_EN</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D93" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will not be victorious with only half of our soldiers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F12,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -2829,15 +2845,15 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="str">
-        <f>'Dropdowns Content'!B94</f>
-        <v>DP29:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B90</f>
+        <v>DP25:phraseAgainstPref1_EN</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D94" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F13,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -2845,15 +2861,15 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="str">
-        <f>'Dropdowns Content'!B95</f>
-        <v>DP30:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B91</f>
+        <v>DP26:phraseAgainstPref1_EN</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D95" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should expose yourself to this stranger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F14,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -2861,15 +2877,15 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="str">
-        <f>'Dropdowns Content'!B96</f>
-        <v>DP31:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B92</f>
+        <v>DP27:phraseAgainstPref1_EN</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D96" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F15,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop quickly and thus guarantee the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -2877,15 +2893,15 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="str">
-        <f>'Dropdowns Content'!B97</f>
-        <v>DP32:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B93</f>
+        <v>DP28:phraseAgainstPref1_EN</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D97" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F16,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will not be victorious with only half of our soldiers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -2893,15 +2909,15 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="str">
-        <f>'Dropdowns Content'!B98</f>
-        <v>DP33:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B94</f>
+        <v>DP29:phraseAgainstPref1_EN</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D98" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F17,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
@@ -2909,15 +2925,15 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="str">
-        <f>'Dropdowns Content'!B99</f>
-        <v>DP34:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B95</f>
+        <v>DP30:phraseAgainstPref1_EN</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D99" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F18,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should expose yourself to this stranger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
@@ -2925,15 +2941,15 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="str">
-        <f>'Dropdowns Content'!B100</f>
-        <v>DP35:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B96</f>
+        <v>DP31:phraseAgainstPref1_EN</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D100" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F19,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
@@ -2941,15 +2957,15 @@
         <v>100</v>
       </c>
       <c r="B101" s="12" t="str">
-        <f>'Dropdowns Content'!B101</f>
-        <v>DP36:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B97</f>
+        <v>DP32:phraseAgainstPref1_EN</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D101" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F20,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
@@ -2957,15 +2973,15 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="str">
-        <f>'Dropdowns Content'!B102</f>
-        <v>DP1:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B98</f>
+        <v>DP33:phraseAgainstPref1_EN</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D102" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F21,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
@@ -2973,15 +2989,15 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="str">
-        <f>'Dropdowns Content'!B103</f>
-        <v>DP2:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B99</f>
+        <v>DP34:phraseAgainstPref1_EN</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D103" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F22,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -2989,15 +3005,15 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="str">
-        <f>'Dropdowns Content'!B104</f>
-        <v>DP3:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B100</f>
+        <v>DP35:phraseAgainstPref1_EN</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D104" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should speak first of all to know your opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F23,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
@@ -3005,15 +3021,15 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="str">
-        <f>'Dropdowns Content'!B105</f>
-        <v>DP4:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B101</f>
+        <v>DP36:phraseAgainstPref1_EN</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D105" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F24,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -3021,15 +3037,15 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="str">
-        <f>'Dropdowns Content'!B106</f>
-        <v>DP5:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B102</f>
+        <v>DP1:phraseAgainstPref2_EN</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D106" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that talking to new allies will bring new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G2,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
@@ -3037,15 +3053,15 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="str">
-        <f>'Dropdowns Content'!B107</f>
-        <v>DP6:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B103</f>
+        <v>DP2:phraseAgainstPref2_EN</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D107" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G3,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
@@ -3053,15 +3069,15 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="str">
-        <f>'Dropdowns Content'!B108</f>
-        <v>DP7:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B104</f>
+        <v>DP3:phraseAgainstPref2_EN</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D108" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe you should try to gain the confidence of the enemy by inviting him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G4,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should speak first of all to know your opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
@@ -3069,15 +3085,15 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="str">
-        <f>'Dropdowns Content'!B109</f>
-        <v>DP10:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B105</f>
+        <v>DP4:phraseAgainstPref2_EN</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D109" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G5,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
@@ -3085,15 +3101,15 @@
         <v>109</v>
       </c>
       <c r="B110" s="12" t="str">
-        <f>'Dropdowns Content'!B110</f>
-        <v>DP11:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B106</f>
+        <v>DP5:phraseAgainstPref2_EN</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D110" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should immediately make him stop talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G6,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that talking to new allies will bring new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
@@ -3101,15 +3117,15 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="str">
-        <f>'Dropdowns Content'!B111</f>
-        <v>DP12:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B107</f>
+        <v>DP6:phraseAgainstPref2_EN</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D111" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be affected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G7,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
@@ -3117,15 +3133,15 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="str">
-        <f>'Dropdowns Content'!B112</f>
-        <v>DP18:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B108</f>
+        <v>DP7:phraseAgainstPref2_EN</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D112" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G8,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe you should try to gain the confidence of the enemy by inviting him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
@@ -3133,15 +3149,15 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="str">
-        <f>'Dropdowns Content'!B113</f>
-        <v>DP25:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B109</f>
+        <v>DP10:phraseAgainstPref2_EN</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D113" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G9,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
@@ -3149,15 +3165,15 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="str">
-        <f>'Dropdowns Content'!B114</f>
-        <v>DP26:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B110</f>
+        <v>DP11:phraseAgainstPref2_EN</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D114" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G10,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should immediately make him stop talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
@@ -3165,15 +3181,15 @@
         <v>114</v>
       </c>
       <c r="B115" s="12" t="str">
-        <f>'Dropdowns Content'!B115</f>
-        <v>DP27:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B111</f>
+        <v>DP12:phraseAgainstPref2_EN</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D115" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful because we can run out of enough army to protect us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G11,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be affected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
@@ -3181,15 +3197,15 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="str">
-        <f>'Dropdowns Content'!B116</f>
-        <v>DP28:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B112</f>
+        <v>DP18:phraseAgainstPref2_EN</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D116" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will become weak and unprotected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G12,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
@@ -3197,15 +3213,15 @@
         <v>116</v>
       </c>
       <c r="B117" s="12" t="str">
-        <f>'Dropdowns Content'!B117</f>
-        <v>DP29:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B113</f>
+        <v>DP25:phraseAgainstPref2_EN</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D117" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G13,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
@@ -3213,15 +3229,15 @@
         <v>117</v>
       </c>
       <c r="B118" s="12" t="str">
-        <f>'Dropdowns Content'!B118</f>
-        <v>DP30:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B114</f>
+        <v>DP26:phraseAgainstPref2_EN</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D118" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should go and talk to this stranger in person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G14,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
@@ -3229,15 +3245,15 @@
         <v>118</v>
       </c>
       <c r="B119" s="12" t="str">
-        <f>'Dropdowns Content'!B119</f>
-        <v>DP31:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B115</f>
+        <v>DP27:phraseAgainstPref2_EN</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D119" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G15,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful because we can run out of enough army to protect us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
@@ -3245,15 +3261,15 @@
         <v>119</v>
       </c>
       <c r="B120" s="12" t="str">
-        <f>'Dropdowns Content'!B120</f>
-        <v>DP32:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B116</f>
+        <v>DP28:phraseAgainstPref2_EN</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D120" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade because your people depend on you.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G16,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will become weak and unprotected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
@@ -3261,15 +3277,15 @@
         <v>120</v>
       </c>
       <c r="B121" s="12" t="str">
-        <f>'Dropdowns Content'!B121</f>
-        <v>DP33:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B117</f>
+        <v>DP29:phraseAgainstPref2_EN</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D121" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G17,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
@@ -3277,15 +3293,15 @@
         <v>121</v>
       </c>
       <c r="B122" s="12" t="str">
-        <f>'Dropdowns Content'!B122</f>
-        <v>DP34:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B118</f>
+        <v>DP30:phraseAgainstPref2_EN</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D122" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G18,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should go and talk to this stranger in person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
@@ -3293,15 +3309,15 @@
         <v>122</v>
       </c>
       <c r="B123" s="12" t="str">
-        <f>'Dropdowns Content'!B123</f>
-        <v>DP35:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B119</f>
+        <v>DP31:phraseAgainstPref2_EN</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D123" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G19,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
@@ -3309,15 +3325,15 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="str">
-        <f>'Dropdowns Content'!B124</f>
-        <v>DP36:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B120</f>
+        <v>DP32:phraseAgainstPref2_EN</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D124" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G20,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade because your people depend on you.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
@@ -3325,15 +3341,15 @@
         <v>124</v>
       </c>
       <c r="B125" s="12" t="str">
-        <f>'Dropdowns Content'!B125</f>
-        <v>DP1:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B121</f>
+        <v>DP33:phraseAgainstPref2_EN</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D125" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken, because they need to know first.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G21,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
@@ -3341,15 +3357,15 @@
         <v>125</v>
       </c>
       <c r="B126" s="12" t="str">
-        <f>'Dropdowns Content'!B126</f>
-        <v>DP2:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B122</f>
+        <v>DP34:phraseAgainstPref2_EN</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D126" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G22,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -3357,15 +3373,15 @@
         <v>126</v>
       </c>
       <c r="B127" s="12" t="str">
-        <f>'Dropdowns Content'!B127</f>
-        <v>DP3:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B123</f>
+        <v>DP35:phraseAgainstPref2_EN</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D127" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep that decision. Everyone will have their turn to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G23,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
@@ -3373,15 +3389,15 @@
         <v>127</v>
       </c>
       <c r="B128" s="12" t="str">
-        <f>'Dropdowns Content'!B128</f>
-        <v>DP4:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B124</f>
+        <v>DP36:phraseAgainstPref2_EN</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D128" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G24,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
@@ -3389,15 +3405,15 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="str">
-        <f>'Dropdowns Content'!B129</f>
-        <v>DP5:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B125</f>
+        <v>DP1:phraseFavourPref_EN</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D129" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it. Allies are welcome at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H2,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken, because they need to know first.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
@@ -3405,15 +3421,15 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="str">
-        <f>'Dropdowns Content'!B130</f>
-        <v>DP6:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B126</f>
+        <v>DP2:phraseFavourPref_EN</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D130" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H3,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
@@ -3421,15 +3437,15 @@
         <v>130</v>
       </c>
       <c r="B131" s="12" t="str">
-        <f>'Dropdowns Content'!B131</f>
-        <v>DP7:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B127</f>
+        <v>DP3:phraseFavourPref_EN</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D131" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H4,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep that decision. Everyone will have their turn to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
@@ -3437,14 +3453,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="str">
-        <f>'Dropdowns Content'!B132</f>
-        <v>DP10:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B128</f>
+        <v>DP4:phraseFavourPref_EN</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D132" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H9,Utt!$C$1)</f>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H5,Utt!$C$1)</f>
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
@@ -3453,15 +3469,15 @@
         <v>132</v>
       </c>
       <c r="B133" s="12" t="str">
-        <f>'Dropdowns Content'!B133</f>
-        <v>DP11:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B129</f>
+        <v>DP5:phraseFavourPref_EN</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D133" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H6,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it. Allies are welcome at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
@@ -3469,15 +3485,15 @@
         <v>133</v>
       </c>
       <c r="B134" s="12" t="str">
-        <f>'Dropdowns Content'!B134</f>
-        <v>DP12:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B130</f>
+        <v>DP6:phraseFavourPref_EN</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D134" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H7,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
@@ -3485,15 +3501,15 @@
         <v>134</v>
       </c>
       <c r="B135" s="12" t="str">
-        <f>'Dropdowns Content'!B135</f>
-        <v>DP18:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B131</f>
+        <v>DP7:phraseFavourPref_EN</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D135" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H8,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -3501,15 +3517,15 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="str">
-        <f>'Dropdowns Content'!B136</f>
-        <v>DP25:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B132</f>
+        <v>DP10:phraseFavourPref_EN</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D136" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision. Either way the enemy is weaker.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H9,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
@@ -3517,15 +3533,15 @@
         <v>136</v>
       </c>
       <c r="B137" s="12" t="str">
-        <f>'Dropdowns Content'!B137</f>
-        <v>DP26:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B133</f>
+        <v>DP11:phraseFavourPref_EN</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D137" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H10,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
@@ -3533,15 +3549,15 @@
         <v>137</v>
       </c>
       <c r="B138" s="12" t="str">
-        <f>'Dropdowns Content'!B138</f>
-        <v>DP27:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B134</f>
+        <v>DP12:phraseFavourPref_EN</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D138" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H11,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
@@ -3549,15 +3565,15 @@
         <v>138</v>
       </c>
       <c r="B139" s="12" t="str">
-        <f>'Dropdowns Content'!B139</f>
-        <v>DP28:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B135</f>
+        <v>DP18:phraseFavourPref_EN</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D139" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision the allies will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H12,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
@@ -3565,15 +3581,15 @@
         <v>139</v>
       </c>
       <c r="B140" s="12" t="str">
-        <f>'Dropdowns Content'!B140</f>
-        <v>DP29:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B136</f>
+        <v>DP25:phraseFavourPref_EN</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D140" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank the allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H13,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision. Either way the enemy is weaker.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
@@ -3581,15 +3597,15 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="str">
-        <f>'Dropdowns Content'!B141</f>
-        <v>DP30:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B137</f>
+        <v>DP26:phraseFavourPref_EN</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D141" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H14,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
@@ -3597,15 +3613,15 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="str">
-        <f>'Dropdowns Content'!B142</f>
-        <v>DP31:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B138</f>
+        <v>DP27:phraseFavourPref_EN</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D142" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H15,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
@@ -3613,15 +3629,15 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="str">
-        <f>'Dropdowns Content'!B143</f>
-        <v>DP32:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B139</f>
+        <v>DP28:phraseFavourPref_EN</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D143" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Supported. I believe everyone will understand this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H16,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision the allies will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
@@ -3629,15 +3645,15 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="str">
-        <f>'Dropdowns Content'!B144</f>
-        <v>DP33:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B140</f>
+        <v>DP29:phraseFavourPref_EN</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D144" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H17,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank the allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
@@ -3645,15 +3661,15 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="str">
-        <f>'Dropdowns Content'!B145</f>
-        <v>DP34:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B141</f>
+        <v>DP30:phraseFavourPref_EN</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D145" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H18,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
@@ -3661,15 +3677,15 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="str">
-        <f>'Dropdowns Content'!B146</f>
-        <v>DP35:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B142</f>
+        <v>DP31:phraseFavourPref_EN</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D146" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision is the right one for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H19,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
@@ -3677,15 +3693,15 @@
         <v>146</v>
       </c>
       <c r="B147" s="12" t="str">
-        <f>'Dropdowns Content'!B147</f>
-        <v>DP36:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B143</f>
+        <v>DP32:phraseFavourPref_EN</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D147" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the general opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H20,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Supported. I believe everyone will understand this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
@@ -3693,15 +3709,15 @@
         <v>147</v>
       </c>
       <c r="B148" s="12" t="str">
-        <f>'Dropdowns Content'!B148</f>
-        <v>DG1:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B144</f>
+        <v>DP33:phraseFavourPref_EN</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D148" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H21,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
@@ -3709,15 +3725,15 @@
         <v>148</v>
       </c>
       <c r="B149" s="12" t="str">
-        <f>'Dropdowns Content'!B149</f>
-        <v>DG2:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B145</f>
+        <v>DP34:phraseFavourPref_EN</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D149" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H22,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
@@ -3725,15 +3741,15 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="str">
-        <f>'Dropdowns Content'!B150</f>
-        <v>DG3:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B146</f>
+        <v>DP35:phraseFavourPref_EN</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D150" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H23,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision is the right one for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
@@ -3741,15 +3757,15 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="str">
-        <f>'Dropdowns Content'!B151</f>
-        <v>DG5:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B147</f>
+        <v>DP36:phraseFavourPref_EN</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D151" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H24,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the general opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
@@ -3757,15 +3773,15 @@
         <v>151</v>
       </c>
       <c r="B152" s="12" t="str">
-        <f>'Dropdowns Content'!B152</f>
-        <v>DG9:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B148</f>
+        <v>DG1:phraseAgainstPref1_PT</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D152" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C25,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
@@ -3773,15 +3789,15 @@
         <v>152</v>
       </c>
       <c r="B153" s="12" t="str">
-        <f>'Dropdowns Content'!B153</f>
-        <v>DG10:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B149</f>
+        <v>DG2:phraseAgainstPref1_PT</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D153" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C26,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
@@ -3789,15 +3805,15 @@
         <v>153</v>
       </c>
       <c r="B154" s="12" t="str">
-        <f>'Dropdowns Content'!B154</f>
-        <v>DG11:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B150</f>
+        <v>DG3:phraseAgainstPref1_PT</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D154" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não faças amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C27,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
@@ -3805,15 +3821,15 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="str">
-        <f>'Dropdowns Content'!B155</f>
-        <v>DG14:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B151</f>
+        <v>DG5:phraseAgainstPref1_PT</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D155" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a que não toques no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C28,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
@@ -3821,14 +3837,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="12" t="str">
-        <f>'Dropdowns Content'!B156</f>
-        <v>DG19:phraseAgainstPref1_PT</v>
+        <f>'Dropdowns Content'!B152</f>
+        <v>DG9:phraseAgainstPref1_PT</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D156" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!C33,Utt!$C$1)</f>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C29,Utt!$C$1)</f>
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
@@ -3837,14 +3853,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="12" t="str">
-        <f>'Dropdowns Content'!B157</f>
-        <v>DG1:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B153</f>
+        <v>DG10:phraseAgainstPref1_PT</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D157" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D25,Utt!$C$1)</f>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C30,Utt!$C$1)</f>
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
@@ -3853,15 +3869,15 @@
         <v>157</v>
       </c>
       <c r="B158" s="12" t="str">
-        <f>'Dropdowns Content'!B158</f>
-        <v>DG2:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B154</f>
+        <v>DG11:phraseAgainstPref1_PT</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D158" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C31,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não faças amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
@@ -3869,15 +3885,15 @@
         <v>158</v>
       </c>
       <c r="B159" s="12" t="str">
-        <f>'Dropdowns Content'!B159</f>
-        <v>DG3:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B155</f>
+        <v>DG14:phraseAgainstPref1_PT</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D159" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C32,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a que não toques no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
@@ -3885,15 +3901,15 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="str">
-        <f>'Dropdowns Content'!B160</f>
-        <v>DG5:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B156</f>
+        <v>DG19:phraseAgainstPref1_PT</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D160" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!C33,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
@@ -3901,15 +3917,15 @@
         <v>160</v>
       </c>
       <c r="B161" s="12" t="str">
-        <f>'Dropdowns Content'!B161</f>
-        <v>DG9:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B157</f>
+        <v>DG1:phraseAgainstPref2_PT</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D161" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D25,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
@@ -3917,15 +3933,15 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="str">
-        <f>'Dropdowns Content'!B162</f>
-        <v>DG10:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B158</f>
+        <v>DG2:phraseAgainstPref2_PT</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D162" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D26,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
@@ -3933,15 +3949,15 @@
         <v>162</v>
       </c>
       <c r="B163" s="12" t="str">
-        <f>'Dropdowns Content'!B163</f>
-        <v>DG11:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B159</f>
+        <v>DG3:phraseAgainstPref2_PT</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D163" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D27,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
@@ -3949,15 +3965,15 @@
         <v>163</v>
       </c>
       <c r="B164" s="12" t="str">
-        <f>'Dropdowns Content'!B164</f>
-        <v>DG14:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B160</f>
+        <v>DG5:phraseAgainstPref2_PT</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D164" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D28,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
@@ -3965,14 +3981,14 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="str">
-        <f>'Dropdowns Content'!B165</f>
-        <v>DG19:phraseAgainstPref2_PT</v>
+        <f>'Dropdowns Content'!B161</f>
+        <v>DG9:phraseAgainstPref2_PT</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D165" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!D33,Utt!$C$1)</f>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D29,Utt!$C$1)</f>
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
@@ -3981,15 +3997,15 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="str">
-        <f>'Dropdowns Content'!B166</f>
-        <v>DG1:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B162</f>
+        <v>DG10:phraseAgainstPref2_PT</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D166" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D30,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
@@ -3997,15 +4013,15 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="str">
-        <f>'Dropdowns Content'!B167</f>
-        <v>DG2:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B163</f>
+        <v>DG11:phraseAgainstPref2_PT</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D167" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D31,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
@@ -4013,15 +4029,15 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="str">
-        <f>'Dropdowns Content'!B168</f>
-        <v>DG3:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B164</f>
+        <v>DG14:phraseAgainstPref2_PT</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D168" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D32,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
@@ -4029,15 +4045,15 @@
         <v>168</v>
       </c>
       <c r="B169" s="12" t="str">
-        <f>'Dropdowns Content'!B169</f>
-        <v>DG5:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B165</f>
+        <v>DG19:phraseAgainstPref2_PT</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D169" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!D33,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
@@ -4045,15 +4061,15 @@
         <v>169</v>
       </c>
       <c r="B170" s="12" t="str">
-        <f>'Dropdowns Content'!B170</f>
-        <v>DG9:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B166</f>
+        <v>DG1:phraseFavourPref_PT</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D170" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E25,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
@@ -4061,15 +4077,15 @@
         <v>170</v>
       </c>
       <c r="B171" s="12" t="str">
-        <f>'Dropdowns Content'!B171</f>
-        <v>DG10:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B167</f>
+        <v>DG2:phraseFavourPref_PT</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D171" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E26,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
@@ -4077,15 +4093,15 @@
         <v>171</v>
       </c>
       <c r="B172" s="12" t="str">
-        <f>'Dropdowns Content'!B172</f>
-        <v>DG11:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B168</f>
+        <v>DG3:phraseFavourPref_PT</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D172" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E27,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
@@ -4093,15 +4109,15 @@
         <v>172</v>
       </c>
       <c r="B173" s="12" t="str">
-        <f>'Dropdowns Content'!B173</f>
-        <v>DG14:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B169</f>
+        <v>DG5:phraseFavourPref_PT</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D173" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E28,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
@@ -4109,14 +4125,14 @@
         <v>173</v>
       </c>
       <c r="B174" s="12" t="str">
-        <f>'Dropdowns Content'!B174</f>
-        <v>DG19:phraseFavourPref_PT</v>
+        <f>'Dropdowns Content'!B170</f>
+        <v>DG9:phraseFavourPref_PT</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D174" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!E33,Utt!$C$1)</f>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E29,Utt!$C$1)</f>
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
@@ -4125,15 +4141,15 @@
         <v>174</v>
       </c>
       <c r="B175" s="12" t="str">
-        <f>'Dropdowns Content'!B175</f>
-        <v>DG1:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B171</f>
+        <v>DG10:phraseFavourPref_PT</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D175" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E30,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
@@ -4141,15 +4157,15 @@
         <v>175</v>
       </c>
       <c r="B176" s="12" t="str">
-        <f>'Dropdowns Content'!B176</f>
-        <v>DG2:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B172</f>
+        <v>DG11:phraseFavourPref_PT</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D176" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E31,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
@@ -4157,15 +4173,15 @@
         <v>176</v>
       </c>
       <c r="B177" s="12" t="str">
-        <f>'Dropdowns Content'!B177</f>
-        <v>DG3:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B173</f>
+        <v>DG14:phraseFavourPref_PT</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D177" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E32,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
@@ -4173,15 +4189,15 @@
         <v>177</v>
       </c>
       <c r="B178" s="12" t="str">
-        <f>'Dropdowns Content'!B178</f>
-        <v>DG5:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B174</f>
+        <v>DG19:phraseFavourPref_PT</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D178" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!E33,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
@@ -4189,15 +4205,15 @@
         <v>178</v>
       </c>
       <c r="B179" s="12" t="str">
-        <f>'Dropdowns Content'!B179</f>
-        <v>DG9:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B175</f>
+        <v>DG1:phraseAgainstPref1_EN</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D179" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F25,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
@@ -4205,15 +4221,15 @@
         <v>179</v>
       </c>
       <c r="B180" s="12" t="str">
-        <f>'Dropdowns Content'!B180</f>
-        <v>DG10:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B176</f>
+        <v>DG2:phraseAgainstPref1_EN</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D180" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F26,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
@@ -4221,15 +4237,15 @@
         <v>180</v>
       </c>
       <c r="B181" s="12" t="str">
-        <f>'Dropdowns Content'!B181</f>
-        <v>DG11:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B177</f>
+        <v>DG3:phraseAgainstPref1_EN</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D181" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to try to befriend the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F27,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
@@ -4237,15 +4253,15 @@
         <v>181</v>
       </c>
       <c r="B182" s="12" t="str">
-        <f>'Dropdowns Content'!B182</f>
-        <v>DG14:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B178</f>
+        <v>DG5:phraseAgainstPref1_EN</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D182" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to touch the enemy, he can try something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F28,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
@@ -4253,15 +4269,15 @@
         <v>182</v>
       </c>
       <c r="B183" s="12" t="str">
-        <f>'Dropdowns Content'!B183</f>
-        <v>DG19:phraseAgainstPref1_EN</v>
+        <f>'Dropdowns Content'!B179</f>
+        <v>DG9:phraseAgainstPref1_EN</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D183" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!F33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be from an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F29,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
@@ -4269,14 +4285,14 @@
         <v>183</v>
       </c>
       <c r="B184" s="12" t="str">
-        <f>'Dropdowns Content'!B184</f>
-        <v>DG1:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B180</f>
+        <v>DG10:phraseAgainstPref1_EN</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D184" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G25,Utt!$C$1)</f>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F30,Utt!$C$1)</f>
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
@@ -4285,15 +4301,15 @@
         <v>184</v>
       </c>
       <c r="B185" s="12" t="str">
-        <f>'Dropdowns Content'!B185</f>
-        <v>DG2:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B181</f>
+        <v>DG11:phraseAgainstPref1_EN</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D185" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F31,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to try to befriend the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
@@ -4301,15 +4317,15 @@
         <v>185</v>
       </c>
       <c r="B186" s="12" t="str">
-        <f>'Dropdowns Content'!B186</f>
-        <v>DG3:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B182</f>
+        <v>DG14:phraseAgainstPref1_EN</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D186" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F32,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to touch the enemy, he can try something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
@@ -4317,15 +4333,15 @@
         <v>186</v>
       </c>
       <c r="B187" s="12" t="str">
-        <f>'Dropdowns Content'!B187</f>
-        <v>DG5:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B183</f>
+        <v>DG19:phraseAgainstPref1_EN</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D187" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!F33,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be from an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
@@ -4333,15 +4349,15 @@
         <v>187</v>
       </c>
       <c r="B188" s="12" t="str">
-        <f>'Dropdowns Content'!B188</f>
-        <v>DG9:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B184</f>
+        <v>DG1:phraseAgainstPref2_EN</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D188" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse drink, it is part of our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G25,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
@@ -4349,15 +4365,15 @@
         <v>188</v>
       </c>
       <c r="B189" s="12" t="str">
-        <f>'Dropdowns Content'!B189</f>
-        <v>DG10:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B185</f>
+        <v>DG2:phraseAgainstPref2_EN</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D189" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G26,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -4365,15 +4381,15 @@
         <v>189</v>
       </c>
       <c r="B190" s="12" t="str">
-        <f>'Dropdowns Content'!B190</f>
-        <v>DG11:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B186</f>
+        <v>DG3:phraseAgainstPref2_EN</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D190" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to know about the family.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G27,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
@@ -4381,15 +4397,15 @@
         <v>190</v>
       </c>
       <c r="B191" s="12" t="str">
-        <f>'Dropdowns Content'!B191</f>
-        <v>DG14:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B187</f>
+        <v>DG5:phraseAgainstPref2_EN</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D191" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to have more diplomacy and shake the enemy's hand.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G28,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
@@ -4397,14 +4413,14 @@
         <v>191</v>
       </c>
       <c r="B192" s="12" t="str">
-        <f>'Dropdowns Content'!B192</f>
-        <v>DG19:phraseAgainstPref2_EN</v>
+        <f>'Dropdowns Content'!B188</f>
+        <v>DG9:phraseAgainstPref2_EN</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D192" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!G33,Utt!$C$1)</f>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G29,Utt!$C$1)</f>
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse drink, it is part of our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
@@ -4413,15 +4429,15 @@
         <v>192</v>
       </c>
       <c r="B193" s="12" t="str">
-        <f>'Dropdowns Content'!B193</f>
-        <v>DG1:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B189</f>
+        <v>DG10:phraseAgainstPref2_EN</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D193" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G30,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
@@ -4429,15 +4445,15 @@
         <v>193</v>
       </c>
       <c r="B194" s="12" t="str">
-        <f>'Dropdowns Content'!B194</f>
-        <v>DG2:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B190</f>
+        <v>DG11:phraseAgainstPref2_EN</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D194" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G31,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to know about the family.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
@@ -4445,15 +4461,15 @@
         <v>194</v>
       </c>
       <c r="B195" s="12" t="str">
-        <f>'Dropdowns Content'!B195</f>
-        <v>DG3:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B191</f>
+        <v>DG14:phraseAgainstPref2_EN</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D195" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G32,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to have more diplomacy and shake the enemy's hand.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
@@ -4461,15 +4477,15 @@
         <v>195</v>
       </c>
       <c r="B196" s="12" t="str">
-        <f>'Dropdowns Content'!B196</f>
-        <v>DG5:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B192</f>
+        <v>DG19:phraseAgainstPref2_EN</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D196" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!G33,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse drink, it is part of our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
@@ -4477,15 +4493,15 @@
         <v>196</v>
       </c>
       <c r="B197" s="12" t="str">
-        <f>'Dropdowns Content'!B197</f>
-        <v>DG9:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B193</f>
+        <v>DG1:phraseFavourPref_EN</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D197" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H25,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
@@ -4493,15 +4509,15 @@
         <v>197</v>
       </c>
       <c r="B198" s="12" t="str">
-        <f>'Dropdowns Content'!B198</f>
-        <v>DG10:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B194</f>
+        <v>DG2:phraseFavourPref_EN</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D198" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H26,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
@@ -4509,15 +4525,15 @@
         <v>198</v>
       </c>
       <c r="B199" s="12" t="str">
-        <f>'Dropdowns Content'!B199</f>
-        <v>DG11:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B195</f>
+        <v>DG3:phraseFavourPref_EN</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D199" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H27,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
@@ -4525,15 +4541,15 @@
         <v>199</v>
       </c>
       <c r="B200" s="12" t="str">
-        <f>'Dropdowns Content'!B200</f>
-        <v>DG14:phraseFavourPref_EN</v>
+        <f>'Dropdowns Content'!B196</f>
+        <v>DG5:phraseFavourPref_EN</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D200" t="str">
-        <f>_xlfn.CONCAT(Utt!$A$1,Text!H32,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, after all the enemy has already spoken what he had to talk about.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H28,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
@@ -4541,36 +4557,80 @@
         <v>200</v>
       </c>
       <c r="B201" s="12" t="str">
+        <f>'Dropdowns Content'!B197</f>
+        <v>DG9:phraseFavourPref_EN</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" t="str">
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H29,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="12" t="str">
+        <f>'Dropdowns Content'!B198</f>
+        <v>DG10:phraseFavourPref_EN</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" t="str">
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H30,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="12" t="str">
+        <f>'Dropdowns Content'!B199</f>
+        <v>DG11:phraseFavourPref_EN</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" t="str">
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H31,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="12" t="str">
+        <f>'Dropdowns Content'!B200</f>
+        <v>DG14:phraseFavourPref_EN</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" t="str">
+        <f>_xlfn.CONCAT(Utt!$A$1,Text!H32,Utt!$C$1)</f>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, after all the enemy has already spoken what he had to talk about.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="12" t="str">
         <f>'Dropdowns Content'!B201</f>
         <v>DG19:phraseFavourPref_EN</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D201" t="str">
+      <c r="C205" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H33,Utt!$C$1)</f>
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A202" s="1"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="6"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A203" s="1"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="6"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A204" s="1"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="6"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A205" s="1"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="6"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1"/>
@@ -4646,6 +4706,26 @@
       <c r="A220" s="1"/>
       <c r="B220" s="12"/>
       <c r="C220" s="6"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A221" s="1"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="6"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A222" s="1"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="6"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A223" s="1"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="6"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A224" s="1"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4660,7 +4740,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\Marie\Desktop\SERA\Skene\Utterances\[Sueca2.xlsx]Dropdowns Content'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C220</xm:sqref>
+          <xm:sqref>C2:C224</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7966,7 +8046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405BC36-7328-40C6-8088-275F0F9C1320}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -8016,22 +8096,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -8042,22 +8122,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -8068,22 +8148,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -8094,19 +8174,19 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
@@ -8120,22 +8200,22 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -8146,22 +8226,22 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -8172,22 +8252,22 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -8198,19 +8278,19 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
@@ -8224,22 +8304,22 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -8250,22 +8330,22 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -8276,22 +8356,22 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
         <v>100</v>
       </c>
-      <c r="D12" t="s">
-        <v>101</v>
-      </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -8302,22 +8382,22 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -8328,22 +8408,22 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -8354,22 +8434,22 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -8380,22 +8460,22 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.45">
@@ -8406,22 +8486,22 @@
         <v>28</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -8432,22 +8512,22 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" t="s">
         <v>149</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" t="s">
         <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -8461,19 +8541,19 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -8484,22 +8564,22 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" t="s">
         <v>155</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -8510,19 +8590,19 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -8536,22 +8616,22 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
         <v>160</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" t="s">
         <v>161</v>
-      </c>
-      <c r="E22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" t="s">
-        <v>226</v>
-      </c>
-      <c r="G22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H22" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -8565,19 +8645,19 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -8588,22 +8668,22 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -8614,22 +8694,22 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -8640,22 +8720,22 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -8666,22 +8746,22 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -8692,22 +8772,22 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -8718,19 +8798,19 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H29" t="s">
         <v>46</v>
@@ -8744,22 +8824,22 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -8770,22 +8850,22 @@
         <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -8796,22 +8876,22 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -8822,19 +8902,19 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H33" t="s">
         <v>46</v>

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\SERA\Skene\Utterances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marie\Desktop\SERA\Skene1\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3302F779-6DA6-47CC-A01C-830491708D91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63BCBC0-9E5F-4E94-80A6-BF2DCDCB8D48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
@@ -794,10 +794,10 @@
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(joy1)&gt; In the past, our leader had the opportunity to have more robotic councils, although, they all spoked at the same time and lots of them got destroyed. Now each robotic counsel can only speak one at the time. I should warn you that if you follow my suggestions you will be victorious. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;ANIMATE(sadness1)&gt;Acredito que neste momento deverias  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(sadness1)&gt;At this moment I believe you should  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;ANIMATE(sadness1)&gt;Acredito que neste momento deverias  &lt;ANIMATE(sadness4)&gt;&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(sadness1)&gt;At this moment I believe you should  &lt;ANIMATE(sadness4)&gt;&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
 </sst>
 </file>
@@ -1365,18 +1365,18 @@
   <dimension ref="A1:F224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.265625" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="219" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de intérahgir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que o deixes falar enquanto tentamos perceber melhor qual a tática dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados rapidamente para garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves te expor ao inimigo desta forma.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves tentar ganhar a confiança do adversário convidando-o.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves fazer o adversário parar de falar imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afectada com a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, pois podemos ficar sem soldados suficientes para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora tens certeza da decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do  conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém essa decisão. Todos terão a sua vez de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para nós.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados serão vitóriosos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apoiado. Acredito que todos irão entender esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão é a mais correta para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião geral.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that by speaking first you can influence your counselors.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe it is not the time to interact with the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to let him talk as we try to better understand his tactics.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop quickly and thus guarantee the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will not be victorious with only half of our soldiers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should expose yourself to this stranger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should speak first of all to know your opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that talking to new allies will bring new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe you should try to gain the confidence of the enemy by inviting him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should immediately make him stop talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be affected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful because we can run out of enough army to protect us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will become weak and unprotected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should go and talk to this stranger in person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade because your people depend on you.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken, because they need to know first.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep that decision. Everyone will have their turn to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it. Allies are welcome at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision. Either way the enemy is weaker.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision the allies will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank the allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Supported. I believe everyone will understand this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision is the right one for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the general opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não faças amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a que não toques no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to try to befriend the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to touch the enemy, he can try something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be from an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse drink, it is part of our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to know about the family.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to have more diplomacy and shake the enemy's hand.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse drink, it is part of our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, after all the enemy has already spoken what he had to talk about.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4632,97 +4632,97 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="12"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="12"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="12"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="12"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="12"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="12"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="12"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="12"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="12"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="12"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="12"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="12"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="12"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="12"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="12"/>
       <c r="C220" s="6"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="12"/>
       <c r="C221" s="6"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="12"/>
       <c r="C222" s="6"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="12"/>
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="12"/>
       <c r="C224" s="6"/>
@@ -4756,26 +4756,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>DP1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>DP2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>DP3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>DP4:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>63</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>DP5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>64</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>DP6:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>65</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>DP7:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>66</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>DP10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>DP11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str">
         <f>M1</f>
         <v>DP1:phraseAgainstPref1_PT</v>
@@ -5288,7 +5288,7 @@
         <v>DP12:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="str">
         <f t="shared" ref="B11:B32" si="12">M2</f>
         <v>DP2:phraseAgainstPref1_PT</v>
@@ -5339,7 +5339,7 @@
         <v>DP18:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP3:phraseAgainstPref1_PT</v>
@@ -5390,7 +5390,7 @@
         <v>DP25:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP4:phraseAgainstPref1_PT</v>
@@ -5441,7 +5441,7 @@
         <v>DP26:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP5:phraseAgainstPref1_PT</v>
@@ -5492,7 +5492,7 @@
         <v>DP27:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP6:phraseAgainstPref1_PT</v>
@@ -5543,7 +5543,7 @@
         <v>DP28:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP7:phraseAgainstPref1_PT</v>
@@ -5594,7 +5594,7 @@
         <v>DP29:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP10:phraseAgainstPref1_PT</v>
@@ -5645,7 +5645,7 @@
         <v>DP30:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP11:phraseAgainstPref1_PT</v>
@@ -5696,7 +5696,7 @@
         <v>DP31:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP12:phraseAgainstPref1_PT</v>
@@ -5747,7 +5747,7 @@
         <v>DP32:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP18:phraseAgainstPref1_PT</v>
@@ -5798,7 +5798,7 @@
         <v>DP33:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP25:phraseAgainstPref1_PT</v>
@@ -5849,7 +5849,7 @@
         <v>DP34:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP26:phraseAgainstPref1_PT</v>
@@ -5900,7 +5900,7 @@
         <v>DP35:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP27:phraseAgainstPref1_PT</v>
@@ -5951,7 +5951,7 @@
         <v>DP36:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP28:phraseAgainstPref1_PT</v>
@@ -5960,7 +5960,7 @@
       <c r="H24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP29:phraseAgainstPref1_PT</v>
@@ -6011,7 +6011,7 @@
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP30:phraseAgainstPref1_PT</v>
@@ -6062,7 +6062,7 @@
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP31:phraseAgainstPref1_PT</v>
@@ -6113,7 +6113,7 @@
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP32:phraseAgainstPref1_PT</v>
@@ -6164,7 +6164,7 @@
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP33:phraseAgainstPref1_PT</v>
@@ -6215,7 +6215,7 @@
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP34:phraseAgainstPref1_PT</v>
@@ -6266,7 +6266,7 @@
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP35:phraseAgainstPref1_PT</v>
@@ -6317,7 +6317,7 @@
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP36:phraseAgainstPref1_PT</v>
@@ -6368,7 +6368,7 @@
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="str">
         <f>O1</f>
         <v>DP1:phraseAgainstPref2_PT</v>
@@ -6419,25 +6419,25 @@
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="str">
         <f t="shared" ref="B34:B55" si="19">O2</f>
         <v>DP2:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP4:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP5:phraseAgainstPref2_PT</v>
@@ -6448,7 +6448,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP6:phraseAgainstPref2_PT</v>
@@ -6459,7 +6459,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP7:phraseAgainstPref2_PT</v>
@@ -6470,7 +6470,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP10:phraseAgainstPref2_PT</v>
@@ -6481,7 +6481,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP11:phraseAgainstPref2_PT</v>
@@ -6492,7 +6492,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP12:phraseAgainstPref2_PT</v>
@@ -6503,7 +6503,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP18:phraseAgainstPref2_PT</v>
@@ -6514,7 +6514,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP25:phraseAgainstPref2_PT</v>
@@ -6525,7 +6525,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP26:phraseAgainstPref2_PT</v>
@@ -6536,7 +6536,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP27:phraseAgainstPref2_PT</v>
@@ -6547,7 +6547,7 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP28:phraseAgainstPref2_PT</v>
@@ -6558,7 +6558,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP29:phraseAgainstPref2_PT</v>
@@ -6569,7 +6569,7 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP30:phraseAgainstPref2_PT</v>
@@ -6580,7 +6580,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP31:phraseAgainstPref2_PT</v>
@@ -6591,7 +6591,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP32:phraseAgainstPref2_PT</v>
@@ -6602,7 +6602,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP33:phraseAgainstPref2_PT</v>
@@ -6613,7 +6613,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP34:phraseAgainstPref2_PT</v>
@@ -6624,7 +6624,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP35:phraseAgainstPref2_PT</v>
@@ -6635,7 +6635,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP36:phraseAgainstPref2_PT</v>
@@ -6646,7 +6646,7 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="str">
         <f>Q1</f>
         <v>DP1:phraseFavourPref_PT</v>
@@ -6657,7 +6657,7 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="str">
         <f t="shared" ref="B57:B78" si="20">Q2</f>
         <v>DP2:phraseFavourPref_PT</v>
@@ -6668,7 +6668,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP3:phraseFavourPref_PT</v>
@@ -6679,7 +6679,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP4:phraseFavourPref_PT</v>
@@ -6690,7 +6690,7 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP5:phraseFavourPref_PT</v>
@@ -6701,7 +6701,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP6:phraseFavourPref_PT</v>
@@ -6712,7 +6712,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP7:phraseFavourPref_PT</v>
@@ -6723,7 +6723,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP10:phraseFavourPref_PT</v>
@@ -6734,7 +6734,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP11:phraseFavourPref_PT</v>
@@ -6745,7 +6745,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP12:phraseFavourPref_PT</v>
@@ -6756,7 +6756,7 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP18:phraseFavourPref_PT</v>
@@ -6767,7 +6767,7 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP25:phraseFavourPref_PT</v>
@@ -6778,7 +6778,7 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP26:phraseFavourPref_PT</v>
@@ -6789,7 +6789,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP27:phraseFavourPref_PT</v>
@@ -6800,7 +6800,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP28:phraseFavourPref_PT</v>
@@ -6811,7 +6811,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP29:phraseFavourPref_PT</v>
@@ -6822,7 +6822,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP30:phraseFavourPref_PT</v>
@@ -6833,7 +6833,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP31:phraseFavourPref_PT</v>
@@ -6844,7 +6844,7 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP32:phraseFavourPref_PT</v>
@@ -6855,7 +6855,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP33:phraseFavourPref_PT</v>
@@ -6866,7 +6866,7 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP34:phraseFavourPref_PT</v>
@@ -6877,7 +6877,7 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP35:phraseFavourPref_PT</v>
@@ -6888,7 +6888,7 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP36:phraseFavourPref_PT</v>
@@ -6899,7 +6899,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="str">
         <f>J1</f>
         <v>DP1:phraseAgainstPref1_EN</v>
@@ -6910,7 +6910,7 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="str">
         <f t="shared" ref="B80:B101" si="21">J2</f>
         <v>DP2:phraseAgainstPref1_EN</v>
@@ -6921,7 +6921,7 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP3:phraseAgainstPref1_EN</v>
@@ -6932,7 +6932,7 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP4:phraseAgainstPref1_EN</v>
@@ -6943,7 +6943,7 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP5:phraseAgainstPref1_EN</v>
@@ -6954,7 +6954,7 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP6:phraseAgainstPref1_EN</v>
@@ -6965,7 +6965,7 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP7:phraseAgainstPref1_EN</v>
@@ -6976,7 +6976,7 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP10:phraseAgainstPref1_EN</v>
@@ -6987,7 +6987,7 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP11:phraseAgainstPref1_EN</v>
@@ -6998,7 +6998,7 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP12:phraseAgainstPref1_EN</v>
@@ -7009,7 +7009,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP18:phraseAgainstPref1_EN</v>
@@ -7020,7 +7020,7 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP25:phraseAgainstPref1_EN</v>
@@ -7031,7 +7031,7 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP26:phraseAgainstPref1_EN</v>
@@ -7042,7 +7042,7 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP27:phraseAgainstPref1_EN</v>
@@ -7053,7 +7053,7 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP28:phraseAgainstPref1_EN</v>
@@ -7064,7 +7064,7 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP29:phraseAgainstPref1_EN</v>
@@ -7075,7 +7075,7 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP30:phraseAgainstPref1_EN</v>
@@ -7086,7 +7086,7 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP31:phraseAgainstPref1_EN</v>
@@ -7097,7 +7097,7 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP32:phraseAgainstPref1_EN</v>
@@ -7108,7 +7108,7 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP33:phraseAgainstPref1_EN</v>
@@ -7119,7 +7119,7 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP34:phraseAgainstPref1_EN</v>
@@ -7130,7 +7130,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP35:phraseAgainstPref1_EN</v>
@@ -7141,7 +7141,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP36:phraseAgainstPref1_EN</v>
@@ -7152,7 +7152,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="str">
         <f>H1</f>
         <v>DP1:phraseAgainstPref2_EN</v>
@@ -7163,7 +7163,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="str">
         <f t="shared" ref="B103:B124" si="22">H2</f>
         <v>DP2:phraseAgainstPref2_EN</v>
@@ -7174,7 +7174,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP3:phraseAgainstPref2_EN</v>
@@ -7185,7 +7185,7 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP4:phraseAgainstPref2_EN</v>
@@ -7196,7 +7196,7 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP5:phraseAgainstPref2_EN</v>
@@ -7207,7 +7207,7 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP6:phraseAgainstPref2_EN</v>
@@ -7218,7 +7218,7 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP7:phraseAgainstPref2_EN</v>
@@ -7229,7 +7229,7 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP10:phraseAgainstPref2_EN</v>
@@ -7240,7 +7240,7 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP11:phraseAgainstPref2_EN</v>
@@ -7251,7 +7251,7 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP12:phraseAgainstPref2_EN</v>
@@ -7262,7 +7262,7 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP18:phraseAgainstPref2_EN</v>
@@ -7273,7 +7273,7 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP25:phraseAgainstPref2_EN</v>
@@ -7284,7 +7284,7 @@
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP26:phraseAgainstPref2_EN</v>
@@ -7295,7 +7295,7 @@
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP27:phraseAgainstPref2_EN</v>
@@ -7306,7 +7306,7 @@
       <c r="P115" s="14"/>
       <c r="Q115" s="14"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP28:phraseAgainstPref2_EN</v>
@@ -7317,7 +7317,7 @@
       <c r="P116" s="14"/>
       <c r="Q116" s="14"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP29:phraseAgainstPref2_EN</v>
@@ -7328,7 +7328,7 @@
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP30:phraseAgainstPref2_EN</v>
@@ -7339,7 +7339,7 @@
       <c r="P118" s="14"/>
       <c r="Q118" s="14"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP31:phraseAgainstPref2_EN</v>
@@ -7350,7 +7350,7 @@
       <c r="P119" s="14"/>
       <c r="Q119" s="14"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP32:phraseAgainstPref2_EN</v>
@@ -7361,7 +7361,7 @@
       <c r="P120" s="14"/>
       <c r="Q120" s="14"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP33:phraseAgainstPref2_EN</v>
@@ -7372,7 +7372,7 @@
       <c r="P121" s="14"/>
       <c r="Q121" s="14"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP34:phraseAgainstPref2_EN</v>
@@ -7383,7 +7383,7 @@
       <c r="P122" s="14"/>
       <c r="Q122" s="14"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP35:phraseAgainstPref2_EN</v>
@@ -7394,7 +7394,7 @@
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP36:phraseAgainstPref2_EN</v>
@@ -7405,7 +7405,7 @@
       <c r="P124" s="14"/>
       <c r="Q124" s="14"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="str">
         <f>F1</f>
         <v>DP1:phraseFavourPref_EN</v>
@@ -7416,7 +7416,7 @@
       <c r="P125" s="14"/>
       <c r="Q125" s="14"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="str">
         <f t="shared" ref="B126:B146" si="23">F2</f>
         <v>DP2:phraseFavourPref_EN</v>
@@ -7427,7 +7427,7 @@
       <c r="P126" s="14"/>
       <c r="Q126" s="14"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP3:phraseFavourPref_EN</v>
@@ -7438,7 +7438,7 @@
       <c r="P127" s="14"/>
       <c r="Q127" s="14"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP4:phraseFavourPref_EN</v>
@@ -7449,7 +7449,7 @@
       <c r="P128" s="14"/>
       <c r="Q128" s="14"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP5:phraseFavourPref_EN</v>
@@ -7460,7 +7460,7 @@
       <c r="P129" s="14"/>
       <c r="Q129" s="14"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP6:phraseFavourPref_EN</v>
@@ -7471,7 +7471,7 @@
       <c r="P130" s="14"/>
       <c r="Q130" s="14"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP7:phraseFavourPref_EN</v>
@@ -7482,7 +7482,7 @@
       <c r="P131" s="14"/>
       <c r="Q131" s="14"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP10:phraseFavourPref_EN</v>
@@ -7493,7 +7493,7 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="14"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP11:phraseFavourPref_EN</v>
@@ -7504,7 +7504,7 @@
       <c r="P133" s="14"/>
       <c r="Q133" s="14"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP12:phraseFavourPref_EN</v>
@@ -7515,7 +7515,7 @@
       <c r="P134" s="14"/>
       <c r="Q134" s="14"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP18:phraseFavourPref_EN</v>
@@ -7526,7 +7526,7 @@
       <c r="P135" s="14"/>
       <c r="Q135" s="14"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP25:phraseFavourPref_EN</v>
@@ -7537,7 +7537,7 @@
       <c r="P136" s="14"/>
       <c r="Q136" s="14"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP26:phraseFavourPref_EN</v>
@@ -7548,7 +7548,7 @@
       <c r="P137" s="14"/>
       <c r="Q137" s="14"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP27:phraseFavourPref_EN</v>
@@ -7559,7 +7559,7 @@
       <c r="P138" s="14"/>
       <c r="Q138" s="14"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP28:phraseFavourPref_EN</v>
@@ -7570,7 +7570,7 @@
       <c r="P139" s="14"/>
       <c r="Q139" s="14"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP29:phraseFavourPref_EN</v>
@@ -7581,7 +7581,7 @@
       <c r="P140" s="14"/>
       <c r="Q140" s="14"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP30:phraseFavourPref_EN</v>
@@ -7592,7 +7592,7 @@
       <c r="P141" s="14"/>
       <c r="Q141" s="14"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP31:phraseFavourPref_EN</v>
@@ -7603,7 +7603,7 @@
       <c r="P142" s="14"/>
       <c r="Q142" s="14"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP32:phraseFavourPref_EN</v>
@@ -7614,7 +7614,7 @@
       <c r="P143" s="14"/>
       <c r="Q143" s="14"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP33:phraseFavourPref_EN</v>
@@ -7625,7 +7625,7 @@
       <c r="P144" s="14"/>
       <c r="Q144" s="14"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP34:phraseFavourPref_EN</v>
@@ -7636,7 +7636,7 @@
       <c r="P145" s="14"/>
       <c r="Q145" s="14"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP35:phraseFavourPref_EN</v>
@@ -7647,7 +7647,7 @@
       <c r="P146" s="14"/>
       <c r="Q146" s="14"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="str">
         <f>F23</f>
         <v>DP36:phraseFavourPref_EN</v>
@@ -7658,7 +7658,7 @@
       <c r="P147" s="14"/>
       <c r="Q147" s="14"/>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="str">
         <f>M25</f>
         <v>DG1:phraseAgainstPref1_PT</v>
@@ -7669,7 +7669,7 @@
       <c r="P148" s="14"/>
       <c r="Q148" s="14"/>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="str">
         <f t="shared" ref="B149:B156" si="24">M26</f>
         <v>DG2:phraseAgainstPref1_PT</v>
@@ -7680,7 +7680,7 @@
       <c r="P149" s="14"/>
       <c r="Q149" s="14"/>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG3:phraseAgainstPref1_PT</v>
@@ -7691,7 +7691,7 @@
       <c r="P150" s="14"/>
       <c r="Q150" s="14"/>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG5:phraseAgainstPref1_PT</v>
@@ -7702,7 +7702,7 @@
       <c r="P151" s="14"/>
       <c r="Q151" s="14"/>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG9:phraseAgainstPref1_PT</v>
@@ -7713,7 +7713,7 @@
       <c r="P152" s="14"/>
       <c r="Q152" s="14"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG10:phraseAgainstPref1_PT</v>
@@ -7724,7 +7724,7 @@
       <c r="P153" s="14"/>
       <c r="Q153" s="14"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG11:phraseAgainstPref1_PT</v>
@@ -7735,7 +7735,7 @@
       <c r="P154" s="14"/>
       <c r="Q154" s="14"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG14:phraseAgainstPref1_PT</v>
@@ -7746,7 +7746,7 @@
       <c r="P155" s="14"/>
       <c r="Q155" s="14"/>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG19:phraseAgainstPref1_PT</v>
@@ -7757,7 +7757,7 @@
       <c r="P156" s="14"/>
       <c r="Q156" s="14"/>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="str">
         <f>O25</f>
         <v>DG1:phraseAgainstPref2_PT</v>
@@ -7768,7 +7768,7 @@
       <c r="P157" s="14"/>
       <c r="Q157" s="14"/>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="str">
         <f t="shared" ref="B158:B165" si="25">O26</f>
         <v>DG2:phraseAgainstPref2_PT</v>
@@ -7779,259 +7779,259 @@
       <c r="P158" s="14"/>
       <c r="Q158" s="14"/>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG5:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG9:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG10:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG11:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG14:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG19:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="str">
         <f>Q25</f>
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="str">
         <f t="shared" ref="B167:B174" si="26">Q26</f>
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="str">
         <f>J25</f>
         <v>DG1:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="str">
         <f t="shared" ref="B176:B183" si="27">J26</f>
         <v>DG2:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="str">
         <f>H25</f>
         <v>DG1:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="str">
         <f t="shared" ref="B185:B192" si="28">H26</f>
         <v>DG2:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG3:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG5:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG9:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG10:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG11:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG14:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG19:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="str">
         <f>F25</f>
         <v>DG1:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="str">
         <f t="shared" ref="B194:B200" si="29">F26</f>
         <v>DG2:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG3:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG5:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG9:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG10:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG11:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B200" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG14:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="str">
         <f>F33</f>
         <v>DG19:phraseFavourPref_EN</v>
@@ -8050,19 +8050,19 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="71.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8937,13 +8937,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marie\Desktop\SERA\Skene1\Utterances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\Git\SOP\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63BCBC0-9E5F-4E94-80A6-BF2DCDCB8D48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6877516-3D07-4291-A9F2-099060341F94}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" activeTab="2" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Utterances" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="255">
   <si>
     <t>Id</t>
   </si>
@@ -194,33 +194,18 @@
     <t>DG2</t>
   </si>
   <si>
-    <t>Estou de acordo com esta decisão.</t>
-  </si>
-  <si>
-    <t>I agree with this decision.</t>
-  </si>
-  <si>
     <t>Acredito que conversar com novos aliados trará novas ideias.</t>
   </si>
   <si>
-    <t>Acredito que deves tentar ganhar a confiança do adversário convidando-o.</t>
-  </si>
-  <si>
     <t>DG3</t>
   </si>
   <si>
     <t>DG5</t>
   </si>
   <si>
-    <t>O sentimento de patriotismo é importante para incentivar o povo.</t>
-  </si>
-  <si>
     <t>DG9</t>
   </si>
   <si>
-    <t>Acredito que deverias ser mais diplomático.</t>
-  </si>
-  <si>
     <t>DG10</t>
   </si>
   <si>
@@ -266,144 +251,12 @@
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;ANIMATE(sadness1)&gt;O meu nome é Glêen, e também sou teu conselheiro.  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>Acredito que irás ficar muito espouhsto.</t>
-  </si>
-  <si>
-    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha.</t>
-  </si>
-  <si>
-    <t>Acredito que ao falares primeiro, podes influenciar os teus conselheiros.</t>
-  </si>
-  <si>
-    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias conversar apenas com os nossos aliados mais antigos.</t>
-  </si>
-  <si>
-    <t>Não te aconselho a deixar que alguém desconhecido entre.</t>
-  </si>
-  <si>
-    <t>Acredito que não é o momento de intérahgir com o adversário.</t>
-  </si>
-  <si>
-    <t>Aconselho que solicites explicações imediatamente.</t>
-  </si>
-  <si>
-    <t>Aconselho que o deixes falar enquanto tentamos perceber melhor qual a tática dele.</t>
-  </si>
-  <si>
-    <t>Recomendo a agir rapidamente, pois precisamos de militares com urgência.</t>
-  </si>
-  <si>
-    <t>Acredito que o mensageiro transmitiu a informação correta.</t>
-  </si>
-  <si>
-    <t>Aconselho a enviar um batalhão de soldados para o ataque.</t>
-  </si>
-  <si>
-    <t>Aconselho a enviar um batalhão de soldados rapidamente para garantir a vitória.</t>
-  </si>
-  <si>
-    <t>Com apenas metade dos soldados não acho que seremos vitoriósos.</t>
-  </si>
-  <si>
-    <t>Aconselho a não sair da protéção da cidade por enquanto.</t>
-  </si>
-  <si>
-    <t>Não deves interagir com todos os conselheiros apenas um deve falar.</t>
-  </si>
-  <si>
-    <t>Não deverias assustar o teu povo.</t>
-  </si>
-  <si>
-    <t>Não recomendo que discurses no início do baile, pois podes estragar o mesmo.</t>
-  </si>
-  <si>
-    <t>O portão é o mais importante.</t>
-  </si>
-  <si>
     <t>Recomendo que não aceites, pois pode ser de um inimigo.</t>
   </si>
   <si>
-    <t>Aconselho a que não faças amizade com o inimigo.</t>
-  </si>
-  <si>
     <t>Recomendo a que não toques no inimigo, pois ele pode tentar algo.</t>
   </si>
   <si>
-    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa.</t>
-  </si>
-  <si>
-    <t>Aconselho a que organizes um baile para o teu povo ficar mais unido.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias expressar primeiro a tua opinião.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação.</t>
-  </si>
-  <si>
-    <t>Aconselho que coñeças o mensageiro.</t>
-  </si>
-  <si>
-    <t>Deverias ser mais gentil, e esperar que o adversário termine de falar.</t>
-  </si>
-  <si>
-    <t>Acredito que deves fazer o adversário parar de falar imediatamente.</t>
-  </si>
-  <si>
-    <t>Deves pensar melhor nesta intenção, pois a população pode ser afectada com a tua decisão.</t>
-  </si>
-  <si>
-    <t>A minha intuição diz-me que não há tempo para defender a rua principal.</t>
-  </si>
-  <si>
-    <t>Aconselho a enviar imediatamente soldados para defender a rua.</t>
-  </si>
-  <si>
-    <t>Sinto que o inimigo não perdeu tanta força como informou o mensageiro.</t>
-  </si>
-  <si>
-    <t>Acredito que deves pensar no nosso exército e deixá-lo descansar.</t>
-  </si>
-  <si>
-    <t>Cuidado, pois podemos ficar sem soldados suficientes para nos proteger.</t>
-  </si>
-  <si>
-    <t>Assim ficaremos fracos e desprutegidos.</t>
-  </si>
-  <si>
-    <t>Aconselho a ires pessoalmente e congratulá-lo pela vitória.</t>
-  </si>
-  <si>
-    <t>Acredito que não deves mostrar diplomacia para com o inimigo.</t>
-  </si>
-  <si>
-    <t>Devias negociar, pois o teu povo depende de ti.</t>
-  </si>
-  <si>
-    <t>Agora não precisamos de símbolos, mas sim de ações.</t>
-  </si>
-  <si>
-    <t>Deverias saber a opinião de cada um dos membros do  conselho.</t>
-  </si>
-  <si>
-    <t>Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo.</t>
-  </si>
-  <si>
-    <t>As murálhas são o mais importante.</t>
-  </si>
-  <si>
-    <t>Aconselho a não seres rude agora.</t>
-  </si>
-  <si>
-    <t>Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.</t>
-  </si>
-  <si>
-    <t>Aconselho a que não questiones sobre a família.</t>
-  </si>
-  <si>
     <t>Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.</t>
   </si>
   <si>
@@ -413,18 +266,9 @@
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt; &lt;break time='2s'/&gt;&lt;ANIMATE(joy1)&gt; Vamos começar!  &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro.</t>
-  </si>
-  <si>
     <t>This is the best decision to be taken, because they need to know first.</t>
   </si>
   <si>
-    <t>I like this decision, because it is the best way to be ready for a battle.</t>
-  </si>
-  <si>
-    <t>Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha.</t>
-  </si>
-  <si>
     <t>Mantém essa decisão. Todos terão a sua vez de falar.</t>
   </si>
   <si>
@@ -437,339 +281,54 @@
     <t>I understand your point of view and agree with it. Allies are welcome at this time.</t>
   </si>
   <si>
-    <t>I believe that you have made the best decision for this moment.</t>
-  </si>
-  <si>
-    <t>Acredito que tomastes a melhor decisão para este momento.</t>
-  </si>
-  <si>
-    <t>Acredito que esta decisão é a mais segura para o nosso povo.</t>
-  </si>
-  <si>
-    <t>I believe that this decision is the safest for our people.</t>
-  </si>
-  <si>
-    <t>Concordo com esta decisão.</t>
-  </si>
-  <si>
-    <t>Aprovo esta decisão, acredito que assim será melhor para nós.</t>
-  </si>
-  <si>
-    <t>I approve this decision, I believe it will be better for us.</t>
-  </si>
-  <si>
-    <t>Acredito que esta decisão é a mais sensata para o momento.</t>
-  </si>
-  <si>
-    <t>I believe that this decision is the most sensible for the moment.</t>
-  </si>
-  <si>
-    <t>Acredito que com esta decisão teremos mais vantagem.</t>
-  </si>
-  <si>
-    <t>I believe that with this decision we will have more advantage.</t>
-  </si>
-  <si>
     <t>Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.</t>
   </si>
   <si>
     <t>I like this decision. Either way the enemy is weaker.</t>
   </si>
   <si>
-    <t>Acredito que esta é a melhor estratégia para alcançar a vitória.</t>
-  </si>
-  <si>
-    <t>I believe this is the best strategy to achieve the victory.</t>
-  </si>
-  <si>
-    <t>Concordo com esta decisão, é a mais sensata.</t>
-  </si>
-  <si>
-    <t>I agree with this decision, it is the most sensible.</t>
-  </si>
-  <si>
-    <t>Acredito que com esta decisão os aliados serão vitóriosos.</t>
-  </si>
-  <si>
-    <t>I believe with this decision the allies will be victorious.</t>
-  </si>
-  <si>
-    <t>Concordo contigo. Precisamos agradecer aos aliados.</t>
-  </si>
-  <si>
-    <t>I agree with you. We need to thank the allies.</t>
-  </si>
-  <si>
-    <t>Acho que não deves te expor ao inimigo desta forma.</t>
-  </si>
-  <si>
-    <t>Acredito que deves ir pessoalmente falar com o inimigo.</t>
-  </si>
-  <si>
-    <t>Concordo com a tua decisão, devemos diminuir o estrago da derrota.</t>
-  </si>
-  <si>
-    <t>I agree with your decision, we must reduce the damage of defeat.</t>
-  </si>
-  <si>
-    <t>Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar.</t>
-  </si>
-  <si>
-    <t>I approve this decision, we should invite the enemy leader to visit us.</t>
-  </si>
-  <si>
-    <t>Recomendo que mantenhas a tua liderança e jámais te rendas.</t>
-  </si>
-  <si>
     <t>Apoiado. Acredito que todos irão entender esta decisão.</t>
   </si>
   <si>
     <t>Supported. I believe everyone will understand this decision.</t>
   </si>
   <si>
-    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa.</t>
-  </si>
-  <si>
-    <t>Acredito que deves mudar de decisão, pois agora tens certeza da decisão.</t>
-  </si>
-  <si>
-    <t>Acredito que há várias maneiras para bloquear o acesso, devias pensar melhor.</t>
-  </si>
-  <si>
-    <t>Acredito que agora não há mais nada a fazer para defender o acesso.</t>
-  </si>
-  <si>
-    <t>Muito bem, apóio esta decisão.</t>
-  </si>
-  <si>
-    <t>Very well. I support this decision.</t>
-  </si>
-  <si>
     <t>Concordo que esta decisão é a mais correta para o momento.</t>
   </si>
   <si>
     <t>I agree that this decision is the right one for the moment.</t>
   </si>
   <si>
-    <t>Acredito que esta é a melhor forma de saber a opinião geral.</t>
-  </si>
-  <si>
-    <t>I believe this is the best way to know the general opinion.</t>
-  </si>
-  <si>
     <t>Concordo que esta é a decisão mais correta para lidar com o povo neste momento.</t>
   </si>
   <si>
     <t>I agree that this is the most correct decision to deal with the people at this time.</t>
   </si>
   <si>
-    <t>O baile, é um grande momento e o discurso é realmente necessário.</t>
-  </si>
-  <si>
-    <t>The ball is a great moment and the speech is really necessary.</t>
-  </si>
-  <si>
-    <t>Concordo que esta região precisa ter prioridade.</t>
-  </si>
-  <si>
-    <t>I agree that this region needs to have priority.</t>
-  </si>
-  <si>
-    <t>Concordo que esta é melhor decisão para ignorar o inimigo.</t>
-  </si>
-  <si>
-    <t>I agree that this is the best decision to ignore the enemy.</t>
-  </si>
-  <si>
-    <t>Concordo que esta decisão irá fazer com que o mensageiro fale.</t>
-  </si>
-  <si>
-    <t>I agree that this decision will cause the messenger to speak.</t>
-  </si>
-  <si>
     <t>Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.</t>
   </si>
   <si>
     <t>I agree with this decision, after all the enemy has already spoken what he had to talk about.</t>
   </si>
   <si>
-    <t>I think you will be very exposed.</t>
-  </si>
-  <si>
-    <t>I believe that you should to speech to the public, they need to know.</t>
-  </si>
-  <si>
-    <t>I advise that this is not the time for a ball, but to prepare for a battle.</t>
-  </si>
-  <si>
-    <t>I advise you to organize the ball for the people to be more united.</t>
-  </si>
-  <si>
     <t>I believe that by speaking first you can influence your counselors.</t>
   </si>
   <si>
     <t>I believe that you should speak first of all to know your opinion.</t>
   </si>
   <si>
-    <t>You should not expose yourself so much and you should withdraw from the ball.</t>
-  </si>
-  <si>
-    <t>I think you should just talk to our old allies.</t>
-  </si>
-  <si>
-    <t>I do not advise anyone unknown to come in.</t>
-  </si>
-  <si>
-    <t>I advise you to request explanations immediately.</t>
-  </si>
-  <si>
-    <t>I advise you to let him talk as we try to better understand his tactics.</t>
-  </si>
-  <si>
-    <t>Recommend to act quickly we need military urgently.</t>
-  </si>
-  <si>
-    <t>My intuition says there is no time to defend the main access.</t>
-  </si>
-  <si>
-    <t>I believe the messenger has passed on the correct information.</t>
-  </si>
-  <si>
-    <t>I advise you to send a troop to the attack.</t>
-  </si>
-  <si>
-    <t>I advise you not to leave the protections of the city yet.</t>
-  </si>
-  <si>
-    <t>I do not think you should expose yourself to this stranger.</t>
-  </si>
-  <si>
-    <t>I think you should be more diplomatic.</t>
-  </si>
-  <si>
-    <t>I recommend that you should be a leader and never surrender.</t>
-  </si>
-  <si>
-    <t>I do not think you should change your mind, because it shows weakness.</t>
-  </si>
-  <si>
-    <t>The feeling of patriotism is important to encourage the people.</t>
-  </si>
-  <si>
-    <t>You should not scare the people.</t>
-  </si>
-  <si>
-    <t>The gate is more important.</t>
-  </si>
-  <si>
-    <t>I advise not to be rude at this time.</t>
-  </si>
-  <si>
     <t>I advise you not to accept, because it can be an enemy.</t>
   </si>
   <si>
-    <t>I advise you not to try to befriend the enemy.</t>
-  </si>
-  <si>
-    <t>I think you should talk to everyone at the ball to show peace.</t>
-  </si>
-  <si>
     <t>I believe that talking to new allies will bring new ideas.</t>
   </si>
   <si>
-    <t>I advise you to meet this person.</t>
-  </si>
-  <si>
-    <t>I think you should immediately make him stop talking.</t>
-  </si>
-  <si>
-    <t>You should think better about this intention because the population can be affected.</t>
-  </si>
-  <si>
-    <t>I advise you to immediately send soldiers to defend access.</t>
-  </si>
-  <si>
-    <t>I feel that the enemy has not lost as much force as the messenger informs.</t>
-  </si>
-  <si>
-    <t>Be careful because we can run out of enough army to protect us.</t>
-  </si>
-  <si>
-    <t>We will become weak and unprotected.</t>
-  </si>
-  <si>
-    <t>I think you should go and talk to this stranger in person.</t>
-  </si>
-  <si>
-    <t>I do not think you should show diplomacy to the enemy.</t>
-  </si>
-  <si>
-    <t>You should trade because your people depend on you.</t>
-  </si>
-  <si>
-    <t>We do not need symbols, but actions.</t>
-  </si>
-  <si>
-    <t>The walls are more important.</t>
-  </si>
-  <si>
-    <t>There is no need to refuse drink, it is part of our people.</t>
-  </si>
-  <si>
-    <t>I advise not to know about the family.</t>
-  </si>
-  <si>
     <t>I advise you to have more diplomacy and shake the enemy's hand.</t>
   </si>
   <si>
-    <t>I believe it is not the time to interact with the enemy.</t>
-  </si>
-  <si>
-    <t>I advise you to send a troop quickly and thus guarantee the victory.</t>
-  </si>
-  <si>
-    <t>We will not be victorious with only half of our soldiers.</t>
-  </si>
-  <si>
-    <t>I believe that there are several ideas to block the accesses, think better.</t>
-  </si>
-  <si>
-    <t>You should not interact with everyone on the council just one should talk.</t>
-  </si>
-  <si>
-    <t>I do not advise the speech at the beginning because it can ruin the ball.</t>
-  </si>
-  <si>
     <t>I advise not to touch the enemy, he can try something.</t>
   </si>
   <si>
-    <t>I advise you not to accept, because it can be from an enemy.</t>
-  </si>
-  <si>
-    <t>I believe you should try to gain the confidence of the enemy by inviting him.</t>
-  </si>
-  <si>
-    <t>You should be kinder and wait for the enemy to finish talking.</t>
-  </si>
-  <si>
-    <t>I think you should think about our army and let them rest.</t>
-  </si>
-  <si>
-    <t>I advise you to go personally and congratulate them for the victory.</t>
-  </si>
-  <si>
-    <t>I believe that you must change your decision, because now you are certain of the decision.</t>
-  </si>
-  <si>
-    <t>I believe that there is no longer any way to defend the access.</t>
-  </si>
-  <si>
-    <t>You should know the opinion of each one of the council.</t>
-  </si>
-  <si>
-    <t>A speech at the end can ruin the happy effect of the ball.</t>
-  </si>
-  <si>
     <t>INTRO_DOM3:PT</t>
   </si>
   <si>
@@ -798,6 +357,471 @@
   </si>
   <si>
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(sadness1)&gt;At this moment I believe you should  &lt;ANIMATE(sadness4)&gt;&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
+  </si>
+  <si>
+    <t>Acredito que irás ficar muito espouhsto. Mude de decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.</t>
+  </si>
+  <si>
+    <t>I think you will be very exposed. Change your decision.</t>
+  </si>
+  <si>
+    <t>I believe that you should to speech to the public, they need to know. Change your decision.</t>
+  </si>
+  <si>
+    <t>Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.</t>
+  </si>
+  <si>
+    <t>Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.</t>
+  </si>
+  <si>
+    <t>Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha. Confirme-a.</t>
+  </si>
+  <si>
+    <t>I advise that this is not the time for a ball, but to prepare for a battle. Chose the other option.</t>
+  </si>
+  <si>
+    <t>I advise you to organize the ball for the people to be more united.  Chose the other option.</t>
+  </si>
+  <si>
+    <t>I like this decision, because it is the best way to be ready for a battle. Confirm it.</t>
+  </si>
+  <si>
+    <t>Acredito que ao falares primeiro, podes influenciar os teus conselheiros. Deverias mudar de decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias expressar primeiro a tua opinião. Deverias mudar de decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho que converses apenas com os nossos aliados mais antigos.</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Acredito ser o melhor pra todos.</t>
+  </si>
+  <si>
+    <t>I agree with this decision. I believe that is the best for all.</t>
+  </si>
+  <si>
+    <t>I advice you just talk to our old allies.</t>
+  </si>
+  <si>
+    <t>Não te aconselho a deixar que alguém desconhecido entre. Isso é muito perigoso.</t>
+  </si>
+  <si>
+    <t>Aconselho que coñeças o mensageiro. Tens que ver a face do inimigo para conseguir vence-lo.</t>
+  </si>
+  <si>
+    <t>Acredito que tomastes a melhor decisão para este momento. A outra decisão irá gerar muitos problemas.</t>
+  </si>
+  <si>
+    <t>I do not advise anyone unknown to come in. This is very dangerous.</t>
+  </si>
+  <si>
+    <t>I advise you to meet this person. You have to see the enemy's face to defeat him.</t>
+  </si>
+  <si>
+    <t>I believe that you have made the best decision for this moment. The other decision will generate many problems.</t>
+  </si>
+  <si>
+    <t>Este não é o momento de intérahgir com o adversário. Deverias mudar de decisão.</t>
+  </si>
+  <si>
+    <t>Deves tentar ganhar a confiança do adversário convidando-o. Deverias mudar de decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que esta decisão é a mais segura para o nosso povo. Confirme-a.</t>
+  </si>
+  <si>
+    <t>You should try to gain the confidence of the enemy by inviting him. You should change the decision.</t>
+  </si>
+  <si>
+    <t>This is not the time to interact with the enemy. You should change the decision.</t>
+  </si>
+  <si>
+    <t>I believe that this decision is the safest for our people. Confirm it.</t>
+  </si>
+  <si>
+    <t>Aconselho que solicites explicações imediatamente. Quanto mais cedo melhor para o país se preparar.</t>
+  </si>
+  <si>
+    <t>Deverias ser mais gentil, e esperar que o adversário termine de falar. Ele não gosta de ser interrompido, sinto que isso pode apressar a batalha.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão. Assim, saberemos os motivos no momento ideal.</t>
+  </si>
+  <si>
+    <t>I advise you to request explanations immediately. The sooner the better for the country to prepare.</t>
+  </si>
+  <si>
+    <t>You should be kinder and wait for the enemy to finish talking. He does not like being interrupted, I feel that this can hasten the battle.</t>
+  </si>
+  <si>
+    <t>I agree with this decision. In this way, we will know the motives at the ideal moment.</t>
+  </si>
+  <si>
+    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You should not expose yourself so much and you should withdraw from the ball. Think better, and change your decision. </t>
+  </si>
+  <si>
+    <t>I think you should talk to everyone at the ball to show peace. Do not leave now, change your decision.</t>
+  </si>
+  <si>
+    <t>Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.</t>
+  </si>
+  <si>
+    <t>Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.</t>
+  </si>
+  <si>
+    <t>Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.</t>
+  </si>
+  <si>
+    <t>Let him talk as we try to better understand his tactics. In this way, defenses can be better prepared.</t>
+  </si>
+  <si>
+    <t>You should immediately make him stop talking. I think he wants to find out something.</t>
+  </si>
+  <si>
+    <t>I approve this decision, I believe it will be better for us. Confirm it.</t>
+  </si>
+  <si>
+    <t>Recomendo a agir rapidamente, pois precisamos de mais militares com urgência.</t>
+  </si>
+  <si>
+    <t>Deves pensar melhor nesta intenção, pois a população pode ser muito afectada com esta decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que esta decisão é a mais sensata para o momento. Deves confirma-la.</t>
+  </si>
+  <si>
+    <t>Recommend to act quickly we need more military urgently.</t>
+  </si>
+  <si>
+    <t>You should think better about this intention because the population can be very affected whit this decision.</t>
+  </si>
+  <si>
+    <t>I believe that this decision is the most sensible for the moment. You should confirm it</t>
+  </si>
+  <si>
+    <t>A minha intuição diz-me que não há tempo para defender a rua principal. Com esta decisão, iremos perder muitos militares desnecessariamente.</t>
+  </si>
+  <si>
+    <t>Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.</t>
+  </si>
+  <si>
+    <t>Acredito que com esta decisão teremos mais vantagem. Vamos a isso.</t>
+  </si>
+  <si>
+    <t>My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.</t>
+  </si>
+  <si>
+    <t>I advise you to immediately send soldiers to defend access. With this decision, the castle will be taken more easily by the enemy.</t>
+  </si>
+  <si>
+    <t>I believe that with this decision we will have more advantage. Let's do it.</t>
+  </si>
+  <si>
+    <t>Acredito que o mensageiro transmitiu a informação correta. Tens que demonstrar confiança no teu povo.</t>
+  </si>
+  <si>
+    <t>Sinto que o inimigo não perdeu tanta força como informou o mensageiro. Pouco provável que o mensageiro conseguiria ter a informação correcta em um campo de batalha.</t>
+  </si>
+  <si>
+    <t>I believe the messenger has passed on the correct information. You have to show confidence in your people.</t>
+  </si>
+  <si>
+    <t>I feel that the enemy has not lost as much force as the messenger informs. Unlikely the messenger would get the correct information on a battlefield.</t>
+  </si>
+  <si>
+    <t>Aconselho a aproveitar esse tempo para enviar um batalhão de soldados para o ataque e acabar com o inimigo.</t>
+  </si>
+  <si>
+    <t>Acredito que deves pensar no nosso exército e deixá-lo descansar. Assim, novas estratégias de combate podem ser criadas sem muitas baixas.</t>
+  </si>
+  <si>
+    <t>Acredito que esta é a melhor estratégia para alcançar a vitória. Deves confirma-la.</t>
+  </si>
+  <si>
+    <t>I advise you to send a troop to the attack and finishing the enemy.</t>
+  </si>
+  <si>
+    <t>I think you should think about our army and let them rest. Thus, new combat strategies can be created without many casualties.</t>
+  </si>
+  <si>
+    <t>I believe this is the best strategy to achieve the victory. You should confirm it.</t>
+  </si>
+  <si>
+    <t>Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.</t>
+  </si>
+  <si>
+    <t>I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.</t>
+  </si>
+  <si>
+    <t>Be careful, if you send the troops, we can run out of enough soldiers to protect us. We must be sure that allies, they can be enemies.</t>
+  </si>
+  <si>
+    <t>Cuidado, se enviares as tropas podemos ficar sem soldados suficientes para nos proteger.  Devemos ter certeza que são aliados, pois podem ser inimigos.</t>
+  </si>
+  <si>
+    <t>I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.</t>
+  </si>
+  <si>
+    <t>Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.</t>
+  </si>
+  <si>
+    <t>Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.</t>
+  </si>
+  <si>
+    <t>With only half the soldiers I do not think we will be victorious. I believe that the allies will not have enough strength to defeat the enemy. Think better, and change your mind.</t>
+  </si>
+  <si>
+    <t>That way we'll be weak and out of touch. I believe that the Allies can successfully defeat the enemy with half of our soldiers, and at the same time we will be protected. Think better, and change your mind.</t>
+  </si>
+  <si>
+    <t>Acredito que com esta decisão os aliados seremos todos vitóriosos. Deves confirma-la.</t>
+  </si>
+  <si>
+    <t>I believe with this decision we all will be victorious. Confirm it.</t>
+  </si>
+  <si>
+    <t>Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.</t>
+  </si>
+  <si>
+    <t>Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.</t>
+  </si>
+  <si>
+    <t>I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.</t>
+  </si>
+  <si>
+    <t>I advise you to go personally and congratulate them for the victory. In this way, you will show to everyone that you are not afraid of anything and nobody. You should think better.</t>
+  </si>
+  <si>
+    <t>Aconselho a ires pessoalmente e congratulá-lo pela vitória. Desse modo, mostrarás a todos que não tens medo de nada e de ninguém. Deverias pensar melhor.</t>
+  </si>
+  <si>
+    <t>I agree with you. We need to thank allies in one way or another.</t>
+  </si>
+  <si>
+    <t>Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.</t>
+  </si>
+  <si>
+    <t>Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.</t>
+  </si>
+  <si>
+    <t>Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.</t>
+  </si>
+  <si>
+    <t>You should not expose yourself to the enemy in this way. Also, making the first contact indicates weakness. Think better.</t>
+  </si>
+  <si>
+    <t>You should call the enemy leader. Also, calling him indicates that you're still strong. Think better.</t>
+  </si>
+  <si>
+    <t>I agree with your decision, we must reduce the damage of defeat. You should confirm this decision.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias ser mais diplomático. Além disso, agradecer o convite é um sinal de educação.</t>
+  </si>
+  <si>
+    <t>Acredito que não deves mostrar diplomacia para com o inimigo. Além disso, o inimigo deve entender que ficamos indignados com a ameaça.</t>
+  </si>
+  <si>
+    <t>Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar. Confirme e um mensageiro será enviado.</t>
+  </si>
+  <si>
+    <t>I think you should be more diplomatic. Also, thanking the invitation is a sign of education.</t>
+  </si>
+  <si>
+    <t>I do not think you should show diplomacy to the enemy. In addition, the enemy must understand that we are outraged by the threat.</t>
+  </si>
+  <si>
+    <t>I approve this decision, we should invite the enemy leader to visit us. Confirm it and a messenger will be sent.</t>
+  </si>
+  <si>
+    <t>I recommend that you should be a leader and never surrender. You should change your mind and show your strength.</t>
+  </si>
+  <si>
+    <t>Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.</t>
+  </si>
+  <si>
+    <t>Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.</t>
+  </si>
+  <si>
+    <t>You should trade, because your people depend on you. You should change your mind and show that you care about the people.</t>
+  </si>
+  <si>
+    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.</t>
+  </si>
+  <si>
+    <t>Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão. Confirme ela.</t>
+  </si>
+  <si>
+    <t>I believe that you must change your decision, because now you are certain of the decision. You should think better.</t>
+  </si>
+  <si>
+    <t>I do not think you should change your mind, because it shows weakness. You should think better.</t>
+  </si>
+  <si>
+    <t>I agree with this decision. Confirm it.</t>
+  </si>
+  <si>
+    <t>Acredito que há várias maneiras para bloquear o acesso, devias pensar melhore trocar de decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que agora não há mais nada a fazer para defender o acesso. Estamos perdendo tempo ao pensar em novas ideias.</t>
+  </si>
+  <si>
+    <t>Muito bem, apóio esta decisão. Deverias confirma-la imediatamente.</t>
+  </si>
+  <si>
+    <t>I believe that there are several ideas to block the accesses, you should think better and change your decision.</t>
+  </si>
+  <si>
+    <t>I believe that there is no longer any way to defend the access. We are wasting time thinking about new ideas.</t>
+  </si>
+  <si>
+    <t>Very well. I support this decision. You should confirm it immediately.</t>
+  </si>
+  <si>
+    <t>O sentimento de patriotismo é importante para incentivar o povo. Deverias mudar de decisão.</t>
+  </si>
+  <si>
+    <t>Agora não precisamos de símbolos, mas sim de ações. Deverias mudar de decisão.</t>
+  </si>
+  <si>
+    <t>The feeling of patriotism is important to encourage the people. You should change your decision.</t>
+  </si>
+  <si>
+    <t>We do not need symbols, but actions. You should change your decision.</t>
+  </si>
+  <si>
+    <t>Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.</t>
+  </si>
+  <si>
+    <t>Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.</t>
+  </si>
+  <si>
+    <t>You should not interact with everyone on the council just one should talk. Talking to everyone will be very exposed, it can be dangerous. Think better.</t>
+  </si>
+  <si>
+    <t>You should know the opinion of each one of the council. So everyone will feel important. Think better.</t>
+  </si>
+  <si>
+    <t>Acredito que esta é a melhor forma de saber a opinião deles.</t>
+  </si>
+  <si>
+    <t>I believe this is the best way to know the their opinions.</t>
+  </si>
+  <si>
+    <t>Deverias tentar minimizar a preocupação da população. Pense bem.</t>
+  </si>
+  <si>
+    <t>Não deverias esconder nada do seu povo, eles vão saber. Pense bem.</t>
+  </si>
+  <si>
+    <t>You should try to minimize the population's concern. Think carefully.</t>
+  </si>
+  <si>
+    <t>You should not hide anything from your people, they will know. Think carefully.</t>
+  </si>
+  <si>
+    <t>Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo. O baile pode amenizar a preocupação gerada por um discurso. Recomendo mudar de decisão.</t>
+  </si>
+  <si>
+    <t>Não recomendo que discurses no início do baile, pois podes estragar o mesmo. Caso isso aconteça podes deixar o povo muito preocupado. Recomendo mudar de decisão.</t>
+  </si>
+  <si>
+    <t>I do not advise the speech at the beginning because it can ruin the ball. If this happens you can leave the people very worried. I recommend changing your decision.</t>
+  </si>
+  <si>
+    <t>A speech at the end can ruin the happy effect of the ball. The ball can soften the concern generated by a speech. I recommend changing your decision.</t>
+  </si>
+  <si>
+    <t>O baile, é um grande momento e o discurso é realmente necessário para amenizar a preocupação independente quando aconteça.</t>
+  </si>
+  <si>
+    <t>The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.</t>
+  </si>
+  <si>
+    <t>O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.</t>
+  </si>
+  <si>
+    <t>As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.</t>
+  </si>
+  <si>
+    <t>Concordo que esta região precisa ter prioridade. Confirme rapidamente.</t>
+  </si>
+  <si>
+    <t>The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.</t>
+  </si>
+  <si>
+    <t>The walls are more important. Without the walls the castle will be unprotected against large weapons. Change your decision quickly.</t>
+  </si>
+  <si>
+    <t>I agree that this region needs to have priority. Confirm your decision quickly.</t>
+  </si>
+  <si>
+    <t>Aconselho a não seres rude agora. Acredito que cruzar os braços não é a melhor decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.</t>
+  </si>
+  <si>
+    <t>Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I advise not to be rude at this time. I believe that cross your arms its not the best decision. </t>
+  </si>
+  <si>
+    <t>I advise not to be rude at this time. I believe that pretend its not the best decision.</t>
+  </si>
+  <si>
+    <t>I agree that this is the best decision to ignore the enemy. Confirm it.</t>
+  </si>
+  <si>
+    <t>Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Tens que confirmar para todos saberem.</t>
+  </si>
+  <si>
+    <t>There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.</t>
+  </si>
+  <si>
+    <t>I agree with this decision. You have to confirm it for everyone to know.</t>
+  </si>
+  <si>
+    <t>Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.</t>
+  </si>
+  <si>
+    <t>Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.</t>
+  </si>
+  <si>
+    <t>I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.</t>
+  </si>
+  <si>
+    <t>I advise you not to question about the family, this may sound like a threat and, he will become more nervous. Make a joke and relax the environment.</t>
+  </si>
+  <si>
+    <t>Aconselho a que não questiones sobre a família, isso pode soar como uma ameaça e, ele ficará mais nervoso. Faça uma piada e descontraia o ambiente.</t>
+  </si>
+  <si>
+    <t>I agree that this decision will cause the messenger to speak. Confirm it.</t>
   </si>
 </sst>
 </file>
@@ -875,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,13 +929,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1033,12 +1083,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6BD1A8C-990F-4699-B406-B044F8F8DCF1}" name="Table1" displayName="Table1" ref="A1:D224" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6BD1A8C-990F-4699-B406-B044F8F8DCF1}" name="Table1" displayName="Table1" ref="A1:D224" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D224" xr:uid="{11638E6A-CE2D-4FFB-8001-F34F4D0EAD09}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{51ABBAA3-678B-4371-94F8-061775CDF9D1}" name="Id" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{740F8191-BDD7-474A-A392-A27C421C223A}" name="CATEGORY" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00555465-9C0F-49E1-91F7-1634C416E0C1}" name="REPETITIONS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{51ABBAA3-678B-4371-94F8-061775CDF9D1}" name="Id" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{740F8191-BDD7-474A-A392-A27C421C223A}" name="CATEGORY" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00555465-9C0F-49E1-91F7-1634C416E0C1}" name="REPETITIONS" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{DB4AC550-EB61-4BF5-9EF3-DDACC6FACBA0}" name="TEXT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1054,12 +1104,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A3513777-EA50-4D8D-9819-E06515FEC0E0}" name="id"/>
     <tableColumn id="2" xr3:uid="{C0176C66-03B0-45EA-B9C7-C2920A04B1E1}" name="initial"/>
-    <tableColumn id="10" xr3:uid="{45CEBBBB-28A6-4DC3-90DF-A1F73F28735C}" name="phraseAgainstPref1_PT"/>
-    <tableColumn id="11" xr3:uid="{767F5CA3-05D6-4AB6-B899-D4B21C886AD2}" name="phraseAgainstPref2_PT"/>
-    <tableColumn id="12" xr3:uid="{1C19CCD3-85EE-45CF-BD0F-1BBF78FB2B01}" name="phraseFavourPref_PT"/>
-    <tableColumn id="13" xr3:uid="{490E06EB-CAEA-4AA5-A956-C4E2ED1E04A5}" name="phraseAgainstPref1_EN"/>
-    <tableColumn id="14" xr3:uid="{7AE755D0-D775-47BC-902F-135E4DC125E6}" name="phraseAgainstPref2_EN"/>
-    <tableColumn id="15" xr3:uid="{D586BEC8-7B1C-4A6D-A69E-099A3CA56A26}" name="phraseFavour_EN"/>
+    <tableColumn id="10" xr3:uid="{45CEBBBB-28A6-4DC3-90DF-A1F73F28735C}" name="phraseAgainstPref1_PT" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{767F5CA3-05D6-4AB6-B899-D4B21C886AD2}" name="phraseAgainstPref2_PT" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{1C19CCD3-85EE-45CF-BD0F-1BBF78FB2B01}" name="phraseFavourPref_PT" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{490E06EB-CAEA-4AA5-A956-C4E2ED1E04A5}" name="phraseAgainstPref1_EN" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{7AE755D0-D775-47BC-902F-135E4DC125E6}" name="phraseAgainstPref2_EN" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{D586BEC8-7B1C-4A6D-A69E-099A3CA56A26}" name="phraseFavour_EN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1364,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC699C3-7B7D-494D-9389-830F8CDC6B9F}">
   <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1397,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -1411,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -1425,13 +1475,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,13 +1489,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,13 +1503,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>4</v>
@@ -1481,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,13 +1559,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,13 +1573,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,13 +1587,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,13 +1601,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,7 +1623,7 @@
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,7 +1639,7 @@
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,7 +1655,7 @@
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,7 +1671,7 @@
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1637,7 +1687,7 @@
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias conversar apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que converses apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,7 +1703,7 @@
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre. Isso é muito perigoso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,7 +1719,7 @@
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não é o momento de intérahgir com o adversário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Este não é o momento de intérahgir com o adversário. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,7 +1735,7 @@
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente. Quanto mais cedo melhor para o país se preparar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,7 +1751,7 @@
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que o deixes falar enquanto tentamos perceber melhor qual a tática dele.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,7 +1767,7 @@
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de mais militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,7 +1783,7 @@
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal. Com esta decisão, iremos perder muitos militares desnecessariamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,7 +1799,7 @@
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta. Tens que demonstrar confiança no teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,7 +1815,7 @@
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados para o ataque.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a aproveitar esse tempo para enviar um batalhão de soldados para o ataque e acabar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,7 +1831,7 @@
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar um batalhão de soldados rapidamente para garantir a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,7 +1847,7 @@
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,7 +1863,7 @@
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,7 +1879,7 @@
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves te expor ao inimigo desta forma.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,7 +1895,7 @@
       </c>
       <c r="D31" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático. Além disso, agradecer o convite é um sinal de educação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,7 +1911,7 @@
       </c>
       <c r="D32" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,7 +1927,7 @@
       </c>
       <c r="D33" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1893,7 +1943,7 @@
       </c>
       <c r="D34" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhore trocar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,7 +1959,7 @@
       </c>
       <c r="D35" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,7 +1975,7 @@
       </c>
       <c r="D36" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,7 +1991,7 @@
       </c>
       <c r="D37" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,7 +2007,7 @@
       </c>
       <c r="D38" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1973,7 +2023,7 @@
       </c>
       <c r="D39" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D4,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,7 +2039,7 @@
       </c>
       <c r="D40" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,7 +2071,7 @@
       </c>
       <c r="D42" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro. Tens que ver a face do inimigo para conseguir vence-lo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,7 +2087,7 @@
       </c>
       <c r="D43" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves tentar ganhar a confiança do adversário convidando-o.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves tentar ganhar a confiança do adversário convidando-o. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,7 +2103,7 @@
       </c>
       <c r="D44" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar. Ele não gosta de ser interrompido, sinto que isso pode apressar a batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,7 +2119,7 @@
       </c>
       <c r="D45" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves fazer o adversário parar de falar imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2085,7 +2135,7 @@
       </c>
       <c r="D46" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser afectada com a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser muito afectada com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2101,7 +2151,7 @@
       </c>
       <c r="D47" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,7 +2167,7 @@
       </c>
       <c r="D48" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro. Pouco provável que o mensageiro conseguiria ter a informação correcta em um campo de batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,7 +2183,7 @@
       </c>
       <c r="D49" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar. Assim, novas estratégias de combate podem ser criadas sem muitas baixas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,7 +2199,7 @@
       </c>
       <c r="D50" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, pois podemos ficar sem soldados suficientes para nos proteger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, se enviares as tropas podemos ficar sem soldados suficientes para nos proteger.  Devemos ter certeza que são aliados, pois podem ser inimigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2165,7 +2215,7 @@
       </c>
       <c r="D51" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,7 +2231,7 @@
       </c>
       <c r="D52" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória. Desse modo, mostrarás a todos que não tens medo de nada e de ninguém. Deverias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,7 +2247,7 @@
       </c>
       <c r="D53" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves ir pessoalmente falar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,7 +2263,7 @@
       </c>
       <c r="D54" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo. Além disso, o inimigo deve entender que ficamos indignados com a ameaça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,7 +2279,7 @@
       </c>
       <c r="D55" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2245,7 +2295,7 @@
       </c>
       <c r="D56" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora tens certeza da decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,7 +2311,7 @@
       </c>
       <c r="D57" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso. Estamos perdendo tempo ao pensar em novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,7 +2327,7 @@
       </c>
       <c r="D58" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,7 +2343,7 @@
       </c>
       <c r="D59" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do  conselho.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,7 +2359,7 @@
       </c>
       <c r="D60" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2325,7 +2375,7 @@
       </c>
       <c r="D61" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,7 +2407,7 @@
       </c>
       <c r="D63" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Acredito ser o melhor pra todos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2389,7 +2439,7 @@
       </c>
       <c r="D65" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento. A outra decisão irá gerar muitos problemas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,7 +2455,7 @@
       </c>
       <c r="D66" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,7 +2471,7 @@
       </c>
       <c r="D67" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Assim, saberemos os motivos no momento ideal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2437,7 +2487,7 @@
       </c>
       <c r="D68" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para nós.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,7 +2503,7 @@
       </c>
       <c r="D69" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,7 +2519,7 @@
       </c>
       <c r="D70" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem. Vamos a isso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2501,7 +2551,7 @@
       </c>
       <c r="D72" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,7 +2567,7 @@
       </c>
       <c r="D73" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,7 +2583,7 @@
       </c>
       <c r="D74" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados serão vitóriosos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados seremos todos vitóriosos. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2549,7 +2599,7 @@
       </c>
       <c r="D75" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2565,7 +2615,7 @@
       </c>
       <c r="D76" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,7 +2631,7 @@
       </c>
       <c r="D77" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar. Confirme e um mensageiro será enviado.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,7 +2663,7 @@
       </c>
       <c r="D79" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Confirme ela.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,7 +2679,7 @@
       </c>
       <c r="D80" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão. Deverias confirma-la imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2661,7 +2711,7 @@
       </c>
       <c r="D82" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião geral.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião deles.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2677,7 +2727,7 @@
       </c>
       <c r="D83" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,7 +2743,7 @@
       </c>
       <c r="D84" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle. Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,7 +2775,7 @@
       </c>
       <c r="D86" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball. Think better, and change your decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,7 +2791,7 @@
       </c>
       <c r="D87" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advice you just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,7 +2807,7 @@
       </c>
       <c r="D88" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in. This is very dangerous.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2773,7 +2823,7 @@
       </c>
       <c r="D89" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe it is not the time to interact with the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is not the time to interact with the enemy. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,7 +2839,7 @@
       </c>
       <c r="D90" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately. The sooner the better for the country to prepare.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,7 +2855,7 @@
       </c>
       <c r="D91" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to let him talk as we try to better understand his tactics.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Let him talk as we try to better understand his tactics. In this way, defenses can be better prepared.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,7 +2871,7 @@
       </c>
       <c r="D92" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need more military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,7 +2887,7 @@
       </c>
       <c r="D93" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,7 +2903,7 @@
       </c>
       <c r="D94" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information. You have to show confidence in your people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,7 +2919,7 @@
       </c>
       <c r="D95" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack and finishing the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2885,7 +2935,7 @@
       </c>
       <c r="D96" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop quickly and thus guarantee the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2901,7 +2951,7 @@
       </c>
       <c r="D97" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will not be victorious with only half of our soldiers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;With only half the soldiers I do not think we will be victorious. I believe that the allies will not have enough strength to defeat the enemy. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2917,7 +2967,7 @@
       </c>
       <c r="D98" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,7 +2983,7 @@
       </c>
       <c r="D99" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should expose yourself to this stranger.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself to the enemy in this way. Also, making the first contact indicates weakness. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2949,7 +2999,7 @@
       </c>
       <c r="D100" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic. Also, thanking the invitation is a sign of education.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,7 +3015,7 @@
       </c>
       <c r="D101" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender. You should change your mind and show your strength.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,7 +3031,7 @@
       </c>
       <c r="D102" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2997,7 +3047,7 @@
       </c>
       <c r="D103" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, you should think better and change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3013,7 +3063,7 @@
       </c>
       <c r="D104" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3029,7 +3079,7 @@
       </c>
       <c r="D105" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk. Talking to everyone will be very exposed, it can be dangerous. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,7 +3095,7 @@
       </c>
       <c r="D106" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3061,7 +3111,7 @@
       </c>
       <c r="D107" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.  Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,7 +3143,7 @@
       </c>
       <c r="D109" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace. Do not leave now, change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3125,7 +3175,7 @@
       </c>
       <c r="D111" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person. You have to see the enemy's face to defeat him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3141,7 +3191,7 @@
       </c>
       <c r="D112" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe you should try to gain the confidence of the enemy by inviting him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to gain the confidence of the enemy by inviting him. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,7 +3207,7 @@
       </c>
       <c r="D113" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking. He does not like being interrupted, I feel that this can hasten the battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3173,7 +3223,7 @@
       </c>
       <c r="D114" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should immediately make him stop talking.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should immediately make him stop talking. I think he wants to find out something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3189,7 +3239,7 @@
       </c>
       <c r="D115" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be affected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be very affected whit this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,7 +3255,7 @@
       </c>
       <c r="D116" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access. With this decision, the castle will be taken more easily by the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,7 +3271,7 @@
       </c>
       <c r="D117" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G13,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs. Unlikely the messenger would get the correct information on a battlefield.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,7 +3287,7 @@
       </c>
       <c r="D118" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest. Thus, new combat strategies can be created without many casualties.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3253,7 +3303,7 @@
       </c>
       <c r="D119" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful because we can run out of enough army to protect us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful, if you send the troops, we can run out of enough soldiers to protect us. We must be sure that allies, they can be enemies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,7 +3319,7 @@
       </c>
       <c r="D120" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We will become weak and unprotected.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;That way we'll be weak and out of touch. I believe that the Allies can successfully defeat the enemy with half of our soldiers, and at the same time we will be protected. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,7 +3335,7 @@
       </c>
       <c r="D121" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory. In this way, you will show to everyone that you are not afraid of anything and nobody. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,7 +3351,7 @@
       </c>
       <c r="D122" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should go and talk to this stranger in person.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should call the enemy leader. Also, calling him indicates that you're still strong. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,7 +3367,7 @@
       </c>
       <c r="D123" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy. In addition, the enemy must understand that we are outraged by the threat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3333,7 +3383,7 @@
       </c>
       <c r="D124" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade because your people depend on you.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade, because your people depend on you. You should change your mind and show that you care about the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3349,7 +3399,7 @@
       </c>
       <c r="D125" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3365,7 +3415,7 @@
       </c>
       <c r="D126" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access. We are wasting time thinking about new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,7 +3431,7 @@
       </c>
       <c r="D127" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G23,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3397,7 +3447,7 @@
       </c>
       <c r="D128" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council. So everyone will feel important. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,7 +3479,7 @@
       </c>
       <c r="D130" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3461,7 +3511,7 @@
       </c>
       <c r="D132" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. I believe that is the best for all.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,7 +3543,7 @@
       </c>
       <c r="D134" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H7,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment. The other decision will generate many problems.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,7 +3559,7 @@
       </c>
       <c r="D135" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H8,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3525,7 +3575,7 @@
       </c>
       <c r="D136" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H9,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. In this way, we will know the motives at the ideal moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,7 +3591,7 @@
       </c>
       <c r="D137" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,7 +3607,7 @@
       </c>
       <c r="D138" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H11,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment. You should confirm it&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3573,7 +3623,7 @@
       </c>
       <c r="D139" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage. Let's do it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,7 +3655,7 @@
       </c>
       <c r="D141" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H14,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory. You should confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3621,7 +3671,7 @@
       </c>
       <c r="D142" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3637,7 +3687,7 @@
       </c>
       <c r="D143" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision the allies will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision we all will be victorious. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,7 +3703,7 @@
       </c>
       <c r="D144" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank the allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank allies in one way or another.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,7 +3719,7 @@
       </c>
       <c r="D145" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat. You should confirm this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3685,7 +3735,7 @@
       </c>
       <c r="D146" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H19,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us. Confirm it and a messenger will be sent.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,7 +3767,7 @@
       </c>
       <c r="D148" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3733,7 +3783,7 @@
       </c>
       <c r="D149" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H22,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision. You should confirm it immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,7 +3815,7 @@
       </c>
       <c r="D151" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the general opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the their opinions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3781,7 +3831,7 @@
       </c>
       <c r="D152" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3797,7 +3847,7 @@
       </c>
       <c r="D153" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo. Caso isso aconteça podes deixar o povo muito preocupado. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3813,7 +3863,7 @@
       </c>
       <c r="D154" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,7 +3879,7 @@
       </c>
       <c r="D155" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que cruzar os braços não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3861,7 +3911,7 @@
       </c>
       <c r="D157" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,7 +3927,7 @@
       </c>
       <c r="D158" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não faças amizade com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3925,7 +3975,7 @@
       </c>
       <c r="D161" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,7 +3991,7 @@
       </c>
       <c r="D162" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo. O baile pode amenizar a preocupação gerada por um discurso. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,7 +4007,7 @@
       </c>
       <c r="D163" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3973,7 +4023,7 @@
       </c>
       <c r="D164" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3989,7 +4039,7 @@
       </c>
       <c r="D165" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4005,7 +4055,7 @@
       </c>
       <c r="D166" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias assustar o teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4021,7 +4071,7 @@
       </c>
       <c r="D167" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família, isso pode soar como uma ameaça e, ele ficará mais nervoso. Faça uma piada e descontraia o ambiente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4053,7 +4103,7 @@
       </c>
       <c r="D169" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4085,7 +4135,7 @@
       </c>
       <c r="D171" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário para amenizar a preocupação independente quando aconteça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4101,7 +4151,7 @@
       </c>
       <c r="D172" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade. Confirme rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,7 +4167,7 @@
       </c>
       <c r="D173" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,7 +4183,7 @@
       </c>
       <c r="D174" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,7 +4215,7 @@
       </c>
       <c r="D176" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4197,7 +4247,7 @@
       </c>
       <c r="D178" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,7 +4263,7 @@
       </c>
       <c r="D179" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,7 +4279,7 @@
       </c>
       <c r="D180" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball. If this happens you can leave the people very worried. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,7 +4295,7 @@
       </c>
       <c r="D181" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4261,7 +4311,7 @@
       </c>
       <c r="D182" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that cross your arms its not the best decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,7 +4343,7 @@
       </c>
       <c r="D184" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,7 +4359,7 @@
       </c>
       <c r="D185" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to try to befriend the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4341,7 +4391,7 @@
       </c>
       <c r="D187" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!F33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be from an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4357,7 +4407,7 @@
       </c>
       <c r="D188" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4373,7 +4423,7 @@
       </c>
       <c r="D189" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball. The ball can soften the concern generated by a speech. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,7 +4439,7 @@
       </c>
       <c r="D190" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important. Without the walls the castle will be unprotected against large weapons. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,7 +4455,7 @@
       </c>
       <c r="D191" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that pretend its not the best decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,7 +4471,7 @@
       </c>
       <c r="D192" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse drink, it is part of our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,7 +4487,7 @@
       </c>
       <c r="D193" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not scare the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4453,7 +4503,7 @@
       </c>
       <c r="D194" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to know about the family.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to question about the family, this may sound like a threat and, he will become more nervous. Make a joke and relax the environment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4485,7 +4535,7 @@
       </c>
       <c r="D196" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!G33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse drink, it is part of our people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4517,7 +4567,7 @@
       </c>
       <c r="D198" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H26,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4533,7 +4583,7 @@
       </c>
       <c r="D199" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority. Confirm your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4549,7 +4599,7 @@
       </c>
       <c r="D200" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4565,7 +4615,7 @@
       </c>
       <c r="D201" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4597,7 +4647,7 @@
       </c>
       <c r="D203" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,7 +4679,7 @@
       </c>
       <c r="D205" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!H33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4833,7 +4883,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4886,7 +4936,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -4939,7 +4989,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -4989,7 +5039,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -5039,7 +5089,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -5089,7 +5139,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -5139,7 +5189,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -5189,7 +5239,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -6089,7 +6139,7 @@
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -6140,7 +6190,7 @@
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -6191,7 +6241,7 @@
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -6242,7 +6292,7 @@
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -6293,7 +6343,7 @@
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -6344,7 +6394,7 @@
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -6395,7 +6445,7 @@
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
       <c r="K33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -8046,20 +8096,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405BC36-7328-40C6-8088-275F0F9C1320}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="76.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -8069,855 +8119,855 @@
       <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="C16" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C19" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G19" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G21" t="s">
-        <v>233</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" t="s">
-        <v>224</v>
-      </c>
-      <c r="G22" t="s">
-        <v>234</v>
-      </c>
-      <c r="H22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="C23" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24" t="s">
-        <v>235</v>
-      </c>
-      <c r="H24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" t="s">
-        <v>226</v>
-      </c>
-      <c r="G26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" t="s">
-        <v>217</v>
-      </c>
-      <c r="H27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" t="s">
-        <v>201</v>
-      </c>
-      <c r="H28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" t="s">
-        <v>218</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" t="s">
-        <v>219</v>
-      </c>
-      <c r="H31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" t="s">
-        <v>220</v>
-      </c>
-      <c r="H32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" t="s">
-        <v>218</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -8945,10 +8995,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\Git\SOP\Utterances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria José Ferreira\Desktop\GitStorytelling\SOP\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6877516-3D07-4291-A9F2-099060341F94}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EA79CC-7478-41D3-BE54-FC7E437969AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" activeTab="2" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="256">
   <si>
     <t>Id</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Keep that decision. Everyone will have their turn to speak.</t>
   </si>
   <si>
-    <t>Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.</t>
-  </si>
-  <si>
     <t>I understand your point of view and agree with it. Allies are welcome at this time.</t>
   </si>
   <si>
@@ -359,12 +356,6 @@
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(sadness1)&gt;At this moment I believe you should  &lt;ANIMATE(sadness4)&gt;&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>Acredito que irás ficar muito espouhsto. Mude de decisão.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.</t>
-  </si>
-  <si>
     <t>I think you will be very exposed. Change your decision.</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.</t>
   </si>
   <si>
-    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.</t>
-  </si>
-  <si>
     <t>Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.</t>
   </si>
   <si>
@@ -464,9 +452,6 @@
     <t>I agree with this decision. In this way, we will know the motives at the ideal moment.</t>
   </si>
   <si>
-    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.</t>
-  </si>
-  <si>
     <t>Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
     <t>Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.</t>
   </si>
   <si>
-    <t>Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.</t>
-  </si>
-  <si>
     <t>Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.</t>
   </si>
   <si>
@@ -518,9 +500,6 @@
     <t>Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.</t>
   </si>
   <si>
-    <t>Acredito que com esta decisão teremos mais vantagem. Vamos a isso.</t>
-  </si>
-  <si>
     <t>My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.</t>
   </si>
   <si>
@@ -563,9 +542,6 @@
     <t>Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.</t>
   </si>
   <si>
-    <t>Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.</t>
-  </si>
-  <si>
     <t>I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.</t>
   </si>
   <si>
@@ -578,9 +554,6 @@
     <t>I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.</t>
   </si>
   <si>
-    <t>Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.</t>
-  </si>
-  <si>
     <t>Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.</t>
   </si>
   <si>
@@ -599,9 +572,6 @@
     <t>Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.</t>
   </si>
   <si>
-    <t>Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.</t>
-  </si>
-  <si>
     <t>I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.</t>
   </si>
   <si>
@@ -617,9 +587,6 @@
     <t>Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.</t>
   </si>
   <si>
-    <t>Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.</t>
-  </si>
-  <si>
     <t>Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.</t>
   </si>
   <si>
@@ -653,24 +620,15 @@
     <t>I recommend that you should be a leader and never surrender. You should change your mind and show your strength.</t>
   </si>
   <si>
-    <t>Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.</t>
-  </si>
-  <si>
     <t>Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.</t>
   </si>
   <si>
     <t>You should trade, because your people depend on you. You should change your mind and show that you care about the people.</t>
   </si>
   <si>
-    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.</t>
-  </si>
-  <si>
     <t>Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.</t>
   </si>
   <si>
-    <t>Concordo com esta decisão. Confirme ela.</t>
-  </si>
-  <si>
     <t>I believe that you must change your decision, because now you are certain of the decision. You should think better.</t>
   </si>
   <si>
@@ -710,9 +668,6 @@
     <t>We do not need symbols, but actions. You should change your decision.</t>
   </si>
   <si>
-    <t>Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.</t>
-  </si>
-  <si>
     <t>Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.</t>
   </si>
   <si>
@@ -728,9 +683,6 @@
     <t>I believe this is the best way to know the their opinions.</t>
   </si>
   <si>
-    <t>Deverias tentar minimizar a preocupação da população. Pense bem.</t>
-  </si>
-  <si>
     <t>Não deverias esconder nada do seu povo, eles vão saber. Pense bem.</t>
   </si>
   <si>
@@ -758,15 +710,9 @@
     <t>The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.</t>
   </si>
   <si>
-    <t>O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.</t>
-  </si>
-  <si>
     <t>As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.</t>
   </si>
   <si>
-    <t>Concordo que esta região precisa ter prioridade. Confirme rapidamente.</t>
-  </si>
-  <si>
     <t>The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.</t>
   </si>
   <si>
@@ -782,9 +728,6 @@
     <t>Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.</t>
   </si>
   <si>
-    <t>Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I advise not to be rude at this time. I believe that cross your arms its not the best decision. </t>
   </si>
   <si>
@@ -797,9 +740,6 @@
     <t>Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado</t>
   </si>
   <si>
-    <t>Estou de acordo com esta decisão. Tens que confirmar para todos saberem.</t>
-  </si>
-  <si>
     <t>There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.</t>
   </si>
   <si>
@@ -809,9 +749,6 @@
     <t>Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.</t>
   </si>
   <si>
-    <t>Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.</t>
-  </si>
-  <si>
     <t>I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.</t>
   </si>
   <si>
@@ -822,6 +759,72 @@
   </si>
   <si>
     <t>I agree that this decision will cause the messenger to speak. Confirm it.</t>
+  </si>
+  <si>
+    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile. Pensa melhor e muda de decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que irás ficar muito espouhsto. Muda de decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolhe a outra opção.</t>
+  </si>
+  <si>
+    <t>Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Deste modo, as defesas poderão ser preparadas melhor.</t>
+  </si>
+  <si>
+    <t>Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pensa melhor e, muda de decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar a tua força.</t>
+  </si>
+  <si>
+    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Deverias tentar minimizar a preocupação da população. Pensa bem.</t>
+  </si>
+  <si>
+    <t>O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Muda de decisão rapidamente.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Muda de decisão.</t>
+  </si>
+  <si>
+    <t>Entendo o teu ponto de vista e concordo. Aliados são bem vindos neste momento.</t>
+  </si>
+  <si>
+    <t>Acredito que com esta decisão teremos mais vantagem. Vamos a isto.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão, é a mais sensata. Acredito que com isto caminhamos para a vitória.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Concordo que esta região precisa ter prioridade. Confirma rapidamente a tua decisão.</t>
+  </si>
+  <si>
+    <t>Concordo que esta é melhor decisão para ignorar o inimigo. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Tens que confirmar esta decisão para todos saberem.</t>
+  </si>
+  <si>
+    <t>Concordo que esta decisão irá fazer com que o mensageiro fale. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Tens que confirmar esta opção para todos saberem.</t>
   </si>
 </sst>
 </file>
@@ -1418,15 +1421,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.265625" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
     <col min="4" max="4" width="219" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1445,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1481,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1495,15 +1498,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -1512,7 +1515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1526,21 +1529,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1551,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1565,15 +1568,15 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>4</v>
@@ -1582,7 +1585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1596,21 +1599,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1623,10 +1626,10 @@
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto. Muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1639,10 +1642,10 @@
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolhe a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1671,10 +1674,10 @@
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile. Pensa melhor e muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que converses apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre. Isso é muito perigoso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Este não é o momento de intérahgir com o adversário. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente. Quanto mais cedo melhor para o país se preparar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1751,10 +1754,10 @@
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Deste modo, as defesas poderão ser preparadas melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de mais militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal. Com esta decisão, iremos perder muitos militares desnecessariamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta. Tens que demonstrar confiança no teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a aproveitar esse tempo para enviar um batalhão de soldados para o ataque e acabar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1847,10 +1850,10 @@
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pensa melhor e, muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1863,10 +1866,10 @@
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1879,10 +1882,10 @@
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático. Além disso, agradecer o convite é um sinal de educação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1911,10 +1914,10 @@
       </c>
       <c r="D32" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar a tua força.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1927,10 +1930,10 @@
       </c>
       <c r="D33" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhore trocar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1975,10 +1978,10 @@
       </c>
       <c r="D36" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1991,10 +1994,10 @@
       </c>
       <c r="D37" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro. Tens que ver a face do inimigo para conseguir vence-lo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves tentar ganhar a confiança do adversário convidando-o. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar. Ele não gosta de ser interrompido, sinto que isso pode apressar a batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser muito afectada com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro. Pouco provável que o mensageiro conseguiria ter a informação correcta em um campo de batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar. Assim, novas estratégias de combate podem ser criadas sem muitas baixas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, se enviares as tropas podemos ficar sem soldados suficientes para nos proteger.  Devemos ter certeza que são aliados, pois podem ser inimigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória. Desse modo, mostrarás a todos que não tens medo de nada e de ninguém. Deverias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo. Além disso, o inimigo deve entender que ficamos indignados com a ameaça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso. Estamos perdendo tempo ao pensar em novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém essa decisão. Todos terão a sua vez de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Acredito ser o melhor pra todos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2423,10 +2426,10 @@
       </c>
       <c r="D64" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento. A outra decisão irá gerar muitos problemas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Assim, saberemos os motivos no momento ideal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2519,10 +2522,10 @@
       </c>
       <c r="D70" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem. Vamos a isso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem. Vamos a isto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2567,10 +2570,10 @@
       </c>
       <c r="D73" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata. Acredito que com isto caminhamos para a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados seremos todos vitóriosos. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar. Confirme e um mensageiro será enviado.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apoiado. Acredito que todos irão entender esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2663,10 +2666,10 @@
       </c>
       <c r="D79" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Confirme ela.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão. Deverias confirma-la imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão é a mais correta para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião deles.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle. Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that by speaking first you can influence your counselors.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball. Think better, and change your decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advice you just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in. This is very dangerous.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is not the time to interact with the enemy. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately. The sooner the better for the country to prepare.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Let him talk as we try to better understand his tactics. In this way, defenses can be better prepared.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need more military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information. You have to show confidence in your people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack and finishing the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;With only half the soldiers I do not think we will be victorious. I believe that the allies will not have enough strength to defeat the enemy. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself to the enemy in this way. Also, making the first contact indicates weakness. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic. Also, thanking the invitation is a sign of education.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender. You should change your mind and show your strength.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, you should think better and change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk. Talking to everyone will be very exposed, it can be dangerous. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.  Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should speak first of all to know your opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace. Do not leave now, change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that talking to new allies will bring new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person. You have to see the enemy's face to defeat him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to gain the confidence of the enemy by inviting him. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking. He does not like being interrupted, I feel that this can hasten the battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should immediately make him stop talking. I think he wants to find out something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be very affected whit this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access. With this decision, the castle will be taken more easily by the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs. Unlikely the messenger would get the correct information on a battlefield.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest. Thus, new combat strategies can be created without many casualties.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful, if you send the troops, we can run out of enough soldiers to protect us. We must be sure that allies, they can be enemies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;That way we'll be weak and out of touch. I believe that the Allies can successfully defeat the enemy with half of our soldiers, and at the same time we will be protected. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory. In this way, you will show to everyone that you are not afraid of anything and nobody. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should call the enemy leader. Also, calling him indicates that you're still strong. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy. In addition, the enemy must understand that we are outraged by the threat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade, because your people depend on you. You should change your mind and show that you care about the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access. We are wasting time thinking about new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council. So everyone will feel important. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken, because they need to know first.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep that decision. Everyone will have their turn to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. I believe that is the best for all.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it. Allies are welcome at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment. The other decision will generate many problems.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. In this way, we will know the motives at the ideal moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment. You should confirm it&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage. Let's do it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision. Either way the enemy is weaker.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory. You should confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision we all will be victorious. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank allies in one way or another.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat. You should confirm this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us. Confirm it and a messenger will be sent.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Supported. I believe everyone will understand this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision. You should confirm it immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision is the right one for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the their opinions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3831,10 +3834,10 @@
       </c>
       <c r="D152" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pensa bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo. Caso isso aconteça podes deixar o povo muito preocupado. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3863,10 +3866,10 @@
       </c>
       <c r="D154" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Muda de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que cruzar os braços não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3911,10 +3914,10 @@
       </c>
       <c r="D157" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pensa bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a que não toques no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo. O baile pode amenizar a preocupação gerada por um discurso. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família, isso pode soar como uma ameaça e, ele ficará mais nervoso. Faça uma piada e descontraia o ambiente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário para amenizar a preocupação independente quando aconteça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4151,10 +4154,10 @@
       </c>
       <c r="D172" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade. Confirme rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade. Confirma rapidamente a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4167,10 +4170,10 @@
       </c>
       <c r="D173" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4183,10 +4186,10 @@
       </c>
       <c r="D174" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar esta decisão para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4215,10 +4218,10 @@
       </c>
       <c r="D176" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4247,10 +4250,10 @@
       </c>
       <c r="D178" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar esta opção para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball. If this happens you can leave the people very worried. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that cross your arms its not the best decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to touch the enemy, he can try something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball. The ball can soften the concern generated by a speech. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important. Without the walls the castle will be unprotected against large weapons. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that pretend its not the best decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to question about the family, this may sound like a threat and, he will become more nervous. Make a joke and relax the environment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to have more diplomacy and shake the enemy's hand.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority. Confirm your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, after all the enemy has already spoken what he had to talk about.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4682,97 +4685,97 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1"/>
       <c r="B206" s="12"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1"/>
       <c r="B207" s="12"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1"/>
       <c r="B208" s="12"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="1"/>
       <c r="B209" s="12"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="1"/>
       <c r="B210" s="12"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="1"/>
       <c r="B211" s="12"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="1"/>
       <c r="B212" s="12"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="1"/>
       <c r="B213" s="12"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="1"/>
       <c r="B214" s="12"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="1"/>
       <c r="B215" s="12"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="1"/>
       <c r="B216" s="12"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="12"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="12"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="1"/>
       <c r="B219" s="12"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="1"/>
       <c r="B220" s="12"/>
       <c r="C220" s="6"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="1"/>
       <c r="B221" s="12"/>
       <c r="C221" s="6"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" s="1"/>
       <c r="B222" s="12"/>
       <c r="C222" s="6"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" s="1"/>
       <c r="B223" s="12"/>
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" s="1"/>
       <c r="B224" s="12"/>
       <c r="C224" s="6"/>
@@ -4806,26 +4809,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.265625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>DP1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>DP2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>DP3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>DP4:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>DP5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>59</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>DP6:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>DP7:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>DP10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>62</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>DP11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="str">
         <f>M1</f>
         <v>DP1:phraseAgainstPref1_PT</v>
@@ -5338,7 +5341,7 @@
         <v>DP12:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="str">
         <f t="shared" ref="B11:B32" si="12">M2</f>
         <v>DP2:phraseAgainstPref1_PT</v>
@@ -5389,7 +5392,7 @@
         <v>DP18:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP3:phraseAgainstPref1_PT</v>
@@ -5440,7 +5443,7 @@
         <v>DP25:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP4:phraseAgainstPref1_PT</v>
@@ -5491,7 +5494,7 @@
         <v>DP26:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP5:phraseAgainstPref1_PT</v>
@@ -5542,7 +5545,7 @@
         <v>DP27:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP6:phraseAgainstPref1_PT</v>
@@ -5593,7 +5596,7 @@
         <v>DP28:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP7:phraseAgainstPref1_PT</v>
@@ -5644,7 +5647,7 @@
         <v>DP29:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP10:phraseAgainstPref1_PT</v>
@@ -5695,7 +5698,7 @@
         <v>DP30:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP11:phraseAgainstPref1_PT</v>
@@ -5746,7 +5749,7 @@
         <v>DP31:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP12:phraseAgainstPref1_PT</v>
@@ -5797,7 +5800,7 @@
         <v>DP32:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP18:phraseAgainstPref1_PT</v>
@@ -5848,7 +5851,7 @@
         <v>DP33:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP25:phraseAgainstPref1_PT</v>
@@ -5899,7 +5902,7 @@
         <v>DP34:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP26:phraseAgainstPref1_PT</v>
@@ -5950,7 +5953,7 @@
         <v>DP35:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP27:phraseAgainstPref1_PT</v>
@@ -6001,7 +6004,7 @@
         <v>DP36:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP28:phraseAgainstPref1_PT</v>
@@ -6010,7 +6013,7 @@
       <c r="H24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP29:phraseAgainstPref1_PT</v>
@@ -6061,7 +6064,7 @@
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP30:phraseAgainstPref1_PT</v>
@@ -6112,7 +6115,7 @@
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP31:phraseAgainstPref1_PT</v>
@@ -6163,7 +6166,7 @@
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP32:phraseAgainstPref1_PT</v>
@@ -6214,7 +6217,7 @@
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP33:phraseAgainstPref1_PT</v>
@@ -6265,7 +6268,7 @@
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP34:phraseAgainstPref1_PT</v>
@@ -6316,7 +6319,7 @@
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP35:phraseAgainstPref1_PT</v>
@@ -6367,7 +6370,7 @@
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP36:phraseAgainstPref1_PT</v>
@@ -6418,7 +6421,7 @@
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="str">
         <f>O1</f>
         <v>DP1:phraseAgainstPref2_PT</v>
@@ -6469,25 +6472,25 @@
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34" s="8" t="str">
         <f t="shared" ref="B34:B55" si="19">O2</f>
         <v>DP2:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP4:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP5:phraseAgainstPref2_PT</v>
@@ -6498,7 +6501,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP6:phraseAgainstPref2_PT</v>
@@ -6509,7 +6512,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP7:phraseAgainstPref2_PT</v>
@@ -6520,7 +6523,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP10:phraseAgainstPref2_PT</v>
@@ -6531,7 +6534,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP11:phraseAgainstPref2_PT</v>
@@ -6542,7 +6545,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP12:phraseAgainstPref2_PT</v>
@@ -6553,7 +6556,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP18:phraseAgainstPref2_PT</v>
@@ -6564,7 +6567,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP25:phraseAgainstPref2_PT</v>
@@ -6575,7 +6578,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP26:phraseAgainstPref2_PT</v>
@@ -6586,7 +6589,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP27:phraseAgainstPref2_PT</v>
@@ -6597,7 +6600,7 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP28:phraseAgainstPref2_PT</v>
@@ -6608,7 +6611,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP29:phraseAgainstPref2_PT</v>
@@ -6619,7 +6622,7 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP30:phraseAgainstPref2_PT</v>
@@ -6630,7 +6633,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP31:phraseAgainstPref2_PT</v>
@@ -6641,7 +6644,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP32:phraseAgainstPref2_PT</v>
@@ -6652,7 +6655,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP33:phraseAgainstPref2_PT</v>
@@ -6663,7 +6666,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP34:phraseAgainstPref2_PT</v>
@@ -6674,7 +6677,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP35:phraseAgainstPref2_PT</v>
@@ -6685,7 +6688,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP36:phraseAgainstPref2_PT</v>
@@ -6696,7 +6699,7 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56" s="8" t="str">
         <f>Q1</f>
         <v>DP1:phraseFavourPref_PT</v>
@@ -6707,7 +6710,7 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57" s="8" t="str">
         <f t="shared" ref="B57:B78" si="20">Q2</f>
         <v>DP2:phraseFavourPref_PT</v>
@@ -6718,7 +6721,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP3:phraseFavourPref_PT</v>
@@ -6729,7 +6732,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP4:phraseFavourPref_PT</v>
@@ -6740,7 +6743,7 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP5:phraseFavourPref_PT</v>
@@ -6751,7 +6754,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP6:phraseFavourPref_PT</v>
@@ -6762,7 +6765,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP7:phraseFavourPref_PT</v>
@@ -6773,7 +6776,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP10:phraseFavourPref_PT</v>
@@ -6784,7 +6787,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP11:phraseFavourPref_PT</v>
@@ -6795,7 +6798,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP12:phraseFavourPref_PT</v>
@@ -6806,7 +6809,7 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP18:phraseFavourPref_PT</v>
@@ -6817,7 +6820,7 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP25:phraseFavourPref_PT</v>
@@ -6828,7 +6831,7 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP26:phraseFavourPref_PT</v>
@@ -6839,7 +6842,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP27:phraseFavourPref_PT</v>
@@ -6850,7 +6853,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP28:phraseFavourPref_PT</v>
@@ -6861,7 +6864,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP29:phraseFavourPref_PT</v>
@@ -6872,7 +6875,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP30:phraseFavourPref_PT</v>
@@ -6883,7 +6886,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP31:phraseFavourPref_PT</v>
@@ -6894,7 +6897,7 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP32:phraseFavourPref_PT</v>
@@ -6905,7 +6908,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP33:phraseFavourPref_PT</v>
@@ -6916,7 +6919,7 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP34:phraseFavourPref_PT</v>
@@ -6927,7 +6930,7 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP35:phraseFavourPref_PT</v>
@@ -6938,7 +6941,7 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP36:phraseFavourPref_PT</v>
@@ -6949,7 +6952,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79" s="8" t="str">
         <f>J1</f>
         <v>DP1:phraseAgainstPref1_EN</v>
@@ -6960,7 +6963,7 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80" s="8" t="str">
         <f t="shared" ref="B80:B101" si="21">J2</f>
         <v>DP2:phraseAgainstPref1_EN</v>
@@ -6971,7 +6974,7 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
     </row>
-    <row r="81" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP3:phraseAgainstPref1_EN</v>
@@ -6982,7 +6985,7 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP4:phraseAgainstPref1_EN</v>
@@ -6993,7 +6996,7 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP5:phraseAgainstPref1_EN</v>
@@ -7004,7 +7007,7 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP6:phraseAgainstPref1_EN</v>
@@ -7015,7 +7018,7 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP7:phraseAgainstPref1_EN</v>
@@ -7026,7 +7029,7 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP10:phraseAgainstPref1_EN</v>
@@ -7037,7 +7040,7 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP11:phraseAgainstPref1_EN</v>
@@ -7048,7 +7051,7 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP12:phraseAgainstPref1_EN</v>
@@ -7059,7 +7062,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP18:phraseAgainstPref1_EN</v>
@@ -7070,7 +7073,7 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP25:phraseAgainstPref1_EN</v>
@@ -7081,7 +7084,7 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP26:phraseAgainstPref1_EN</v>
@@ -7092,7 +7095,7 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP27:phraseAgainstPref1_EN</v>
@@ -7103,7 +7106,7 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP28:phraseAgainstPref1_EN</v>
@@ -7114,7 +7117,7 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP29:phraseAgainstPref1_EN</v>
@@ -7125,7 +7128,7 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP30:phraseAgainstPref1_EN</v>
@@ -7136,7 +7139,7 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP31:phraseAgainstPref1_EN</v>
@@ -7147,7 +7150,7 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B97" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP32:phraseAgainstPref1_EN</v>
@@ -7158,7 +7161,7 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B98" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP33:phraseAgainstPref1_EN</v>
@@ -7169,7 +7172,7 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B99" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP34:phraseAgainstPref1_EN</v>
@@ -7180,7 +7183,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B100" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP35:phraseAgainstPref1_EN</v>
@@ -7191,7 +7194,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B101" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP36:phraseAgainstPref1_EN</v>
@@ -7202,7 +7205,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B102" s="8" t="str">
         <f>H1</f>
         <v>DP1:phraseAgainstPref2_EN</v>
@@ -7213,7 +7216,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B103" s="8" t="str">
         <f t="shared" ref="B103:B124" si="22">H2</f>
         <v>DP2:phraseAgainstPref2_EN</v>
@@ -7224,7 +7227,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
     </row>
-    <row r="104" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B104" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP3:phraseAgainstPref2_EN</v>
@@ -7235,7 +7238,7 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
     </row>
-    <row r="105" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B105" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP4:phraseAgainstPref2_EN</v>
@@ -7246,7 +7249,7 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
     </row>
-    <row r="106" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B106" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP5:phraseAgainstPref2_EN</v>
@@ -7257,7 +7260,7 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B107" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP6:phraseAgainstPref2_EN</v>
@@ -7268,7 +7271,7 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B108" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP7:phraseAgainstPref2_EN</v>
@@ -7279,7 +7282,7 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B109" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP10:phraseAgainstPref2_EN</v>
@@ -7290,7 +7293,7 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B110" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP11:phraseAgainstPref2_EN</v>
@@ -7301,7 +7304,7 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
     </row>
-    <row r="111" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B111" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP12:phraseAgainstPref2_EN</v>
@@ -7312,7 +7315,7 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
     </row>
-    <row r="112" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B112" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP18:phraseAgainstPref2_EN</v>
@@ -7323,7 +7326,7 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
     </row>
-    <row r="113" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B113" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP25:phraseAgainstPref2_EN</v>
@@ -7334,7 +7337,7 @@
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
     </row>
-    <row r="114" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B114" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP26:phraseAgainstPref2_EN</v>
@@ -7345,7 +7348,7 @@
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
     </row>
-    <row r="115" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B115" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP27:phraseAgainstPref2_EN</v>
@@ -7356,7 +7359,7 @@
       <c r="P115" s="14"/>
       <c r="Q115" s="14"/>
     </row>
-    <row r="116" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B116" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP28:phraseAgainstPref2_EN</v>
@@ -7367,7 +7370,7 @@
       <c r="P116" s="14"/>
       <c r="Q116" s="14"/>
     </row>
-    <row r="117" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B117" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP29:phraseAgainstPref2_EN</v>
@@ -7378,7 +7381,7 @@
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
     </row>
-    <row r="118" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B118" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP30:phraseAgainstPref2_EN</v>
@@ -7389,7 +7392,7 @@
       <c r="P118" s="14"/>
       <c r="Q118" s="14"/>
     </row>
-    <row r="119" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B119" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP31:phraseAgainstPref2_EN</v>
@@ -7400,7 +7403,7 @@
       <c r="P119" s="14"/>
       <c r="Q119" s="14"/>
     </row>
-    <row r="120" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B120" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP32:phraseAgainstPref2_EN</v>
@@ -7411,7 +7414,7 @@
       <c r="P120" s="14"/>
       <c r="Q120" s="14"/>
     </row>
-    <row r="121" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B121" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP33:phraseAgainstPref2_EN</v>
@@ -7422,7 +7425,7 @@
       <c r="P121" s="14"/>
       <c r="Q121" s="14"/>
     </row>
-    <row r="122" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B122" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP34:phraseAgainstPref2_EN</v>
@@ -7433,7 +7436,7 @@
       <c r="P122" s="14"/>
       <c r="Q122" s="14"/>
     </row>
-    <row r="123" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B123" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP35:phraseAgainstPref2_EN</v>
@@ -7444,7 +7447,7 @@
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
     </row>
-    <row r="124" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B124" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP36:phraseAgainstPref2_EN</v>
@@ -7455,7 +7458,7 @@
       <c r="P124" s="14"/>
       <c r="Q124" s="14"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B125" s="8" t="str">
         <f>F1</f>
         <v>DP1:phraseFavourPref_EN</v>
@@ -7466,7 +7469,7 @@
       <c r="P125" s="14"/>
       <c r="Q125" s="14"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B126" s="8" t="str">
         <f t="shared" ref="B126:B146" si="23">F2</f>
         <v>DP2:phraseFavourPref_EN</v>
@@ -7477,7 +7480,7 @@
       <c r="P126" s="14"/>
       <c r="Q126" s="14"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B127" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP3:phraseFavourPref_EN</v>
@@ -7488,7 +7491,7 @@
       <c r="P127" s="14"/>
       <c r="Q127" s="14"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B128" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP4:phraseFavourPref_EN</v>
@@ -7499,7 +7502,7 @@
       <c r="P128" s="14"/>
       <c r="Q128" s="14"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B129" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP5:phraseFavourPref_EN</v>
@@ -7510,7 +7513,7 @@
       <c r="P129" s="14"/>
       <c r="Q129" s="14"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B130" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP6:phraseFavourPref_EN</v>
@@ -7521,7 +7524,7 @@
       <c r="P130" s="14"/>
       <c r="Q130" s="14"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B131" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP7:phraseFavourPref_EN</v>
@@ -7532,7 +7535,7 @@
       <c r="P131" s="14"/>
       <c r="Q131" s="14"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B132" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP10:phraseFavourPref_EN</v>
@@ -7543,7 +7546,7 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="14"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B133" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP11:phraseFavourPref_EN</v>
@@ -7554,7 +7557,7 @@
       <c r="P133" s="14"/>
       <c r="Q133" s="14"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B134" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP12:phraseFavourPref_EN</v>
@@ -7565,7 +7568,7 @@
       <c r="P134" s="14"/>
       <c r="Q134" s="14"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B135" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP18:phraseFavourPref_EN</v>
@@ -7576,7 +7579,7 @@
       <c r="P135" s="14"/>
       <c r="Q135" s="14"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B136" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP25:phraseFavourPref_EN</v>
@@ -7587,7 +7590,7 @@
       <c r="P136" s="14"/>
       <c r="Q136" s="14"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B137" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP26:phraseFavourPref_EN</v>
@@ -7598,7 +7601,7 @@
       <c r="P137" s="14"/>
       <c r="Q137" s="14"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B138" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP27:phraseFavourPref_EN</v>
@@ -7609,7 +7612,7 @@
       <c r="P138" s="14"/>
       <c r="Q138" s="14"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B139" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP28:phraseFavourPref_EN</v>
@@ -7620,7 +7623,7 @@
       <c r="P139" s="14"/>
       <c r="Q139" s="14"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B140" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP29:phraseFavourPref_EN</v>
@@ -7631,7 +7634,7 @@
       <c r="P140" s="14"/>
       <c r="Q140" s="14"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B141" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP30:phraseFavourPref_EN</v>
@@ -7642,7 +7645,7 @@
       <c r="P141" s="14"/>
       <c r="Q141" s="14"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B142" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP31:phraseFavourPref_EN</v>
@@ -7653,7 +7656,7 @@
       <c r="P142" s="14"/>
       <c r="Q142" s="14"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B143" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP32:phraseFavourPref_EN</v>
@@ -7664,7 +7667,7 @@
       <c r="P143" s="14"/>
       <c r="Q143" s="14"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B144" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP33:phraseFavourPref_EN</v>
@@ -7675,7 +7678,7 @@
       <c r="P144" s="14"/>
       <c r="Q144" s="14"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B145" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP34:phraseFavourPref_EN</v>
@@ -7686,7 +7689,7 @@
       <c r="P145" s="14"/>
       <c r="Q145" s="14"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B146" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP35:phraseFavourPref_EN</v>
@@ -7697,7 +7700,7 @@
       <c r="P146" s="14"/>
       <c r="Q146" s="14"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B147" s="8" t="str">
         <f>F23</f>
         <v>DP36:phraseFavourPref_EN</v>
@@ -7708,7 +7711,7 @@
       <c r="P147" s="14"/>
       <c r="Q147" s="14"/>
     </row>
-    <row r="148" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B148" s="8" t="str">
         <f>M25</f>
         <v>DG1:phraseAgainstPref1_PT</v>
@@ -7719,7 +7722,7 @@
       <c r="P148" s="14"/>
       <c r="Q148" s="14"/>
     </row>
-    <row r="149" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B149" s="8" t="str">
         <f t="shared" ref="B149:B156" si="24">M26</f>
         <v>DG2:phraseAgainstPref1_PT</v>
@@ -7730,7 +7733,7 @@
       <c r="P149" s="14"/>
       <c r="Q149" s="14"/>
     </row>
-    <row r="150" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B150" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG3:phraseAgainstPref1_PT</v>
@@ -7741,7 +7744,7 @@
       <c r="P150" s="14"/>
       <c r="Q150" s="14"/>
     </row>
-    <row r="151" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B151" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG5:phraseAgainstPref1_PT</v>
@@ -7752,7 +7755,7 @@
       <c r="P151" s="14"/>
       <c r="Q151" s="14"/>
     </row>
-    <row r="152" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B152" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG9:phraseAgainstPref1_PT</v>
@@ -7763,7 +7766,7 @@
       <c r="P152" s="14"/>
       <c r="Q152" s="14"/>
     </row>
-    <row r="153" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B153" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG10:phraseAgainstPref1_PT</v>
@@ -7774,7 +7777,7 @@
       <c r="P153" s="14"/>
       <c r="Q153" s="14"/>
     </row>
-    <row r="154" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B154" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG11:phraseAgainstPref1_PT</v>
@@ -7785,7 +7788,7 @@
       <c r="P154" s="14"/>
       <c r="Q154" s="14"/>
     </row>
-    <row r="155" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B155" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG14:phraseAgainstPref1_PT</v>
@@ -7796,7 +7799,7 @@
       <c r="P155" s="14"/>
       <c r="Q155" s="14"/>
     </row>
-    <row r="156" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B156" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG19:phraseAgainstPref1_PT</v>
@@ -7807,7 +7810,7 @@
       <c r="P156" s="14"/>
       <c r="Q156" s="14"/>
     </row>
-    <row r="157" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B157" s="8" t="str">
         <f>O25</f>
         <v>DG1:phraseAgainstPref2_PT</v>
@@ -7818,7 +7821,7 @@
       <c r="P157" s="14"/>
       <c r="Q157" s="14"/>
     </row>
-    <row r="158" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B158" s="8" t="str">
         <f t="shared" ref="B158:B165" si="25">O26</f>
         <v>DG2:phraseAgainstPref2_PT</v>
@@ -7829,259 +7832,259 @@
       <c r="P158" s="14"/>
       <c r="Q158" s="14"/>
     </row>
-    <row r="159" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B159" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="160" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B160" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG5:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG9:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG10:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG11:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG14:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG19:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" s="8" t="str">
         <f>Q25</f>
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" s="8" t="str">
         <f t="shared" ref="B167:B174" si="26">Q26</f>
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" s="8" t="str">
         <f>J25</f>
         <v>DG1:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" s="8" t="str">
         <f t="shared" ref="B176:B183" si="27">J26</f>
         <v>DG2:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B181" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B182" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B183" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B184" s="8" t="str">
         <f>H25</f>
         <v>DG1:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B185" s="8" t="str">
         <f t="shared" ref="B185:B192" si="28">H26</f>
         <v>DG2:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B186" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG3:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B187" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG5:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B188" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG9:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B189" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG10:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B190" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG11:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B191" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG14:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B192" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG19:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B193" s="8" t="str">
         <f>F25</f>
         <v>DG1:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" s="8" t="str">
         <f t="shared" ref="B194:B200" si="29">F26</f>
         <v>DG2:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG3:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B196" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG5:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B197" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG9:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B198" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG10:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B199" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG11:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B200" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG14:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B201" s="8" t="str">
         <f>F33</f>
         <v>DG19:phraseFavourPref_EN</v>
@@ -8096,23 +8099,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405BC36-7328-40C6-8088-275F0F9C1320}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:H33"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.59765625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="60.86328125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="76.86328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.1328125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8146,25 +8149,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8172,25 +8175,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8198,25 +8201,25 @@
         <v>15</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8224,25 +8227,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8250,25 +8253,25 @@
         <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8276,25 +8279,25 @@
         <v>18</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8302,25 +8305,25 @@
         <v>19</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="G8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8328,25 +8331,25 @@
         <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8354,25 +8357,25 @@
         <v>21</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8380,25 +8383,25 @@
         <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8406,25 +8409,25 @@
         <v>23</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8432,25 +8435,25 @@
         <v>24</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8458,25 +8461,25 @@
         <v>25</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8484,25 +8487,25 @@
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8510,25 +8513,25 @@
         <v>27</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="15" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -8536,25 +8539,25 @@
         <v>28</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8562,25 +8565,25 @@
         <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8588,25 +8591,25 @@
         <v>30</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8614,25 +8617,25 @@
         <v>31</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8640,25 +8643,25 @@
         <v>32</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8666,25 +8669,25 @@
         <v>33</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8692,25 +8695,25 @@
         <v>34</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8718,25 +8721,25 @@
         <v>35</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8744,25 +8747,25 @@
         <v>43</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8770,25 +8773,25 @@
         <v>44</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8796,25 +8799,25 @@
         <v>46</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8822,25 +8825,25 @@
         <v>47</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8851,22 +8854,22 @@
         <v>64</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8874,25 +8877,25 @@
         <v>49</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8900,25 +8903,25 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8932,19 +8935,19 @@
         <v>66</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8955,19 +8958,19 @@
         <v>64</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8987,13 +8990,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>53</v>
       </c>

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\Git\SOP\Utterances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria José Ferreira\Desktop\GitStorytelling\SOP\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6877516-3D07-4291-A9F2-099060341F94}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34F60F8-1C3F-4358-9772-D306E56733EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" activeTab="2" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="256">
   <si>
     <t>Id</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Keep that decision. Everyone will have their turn to speak.</t>
   </si>
   <si>
-    <t>Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.</t>
-  </si>
-  <si>
     <t>I understand your point of view and agree with it. Allies are welcome at this time.</t>
   </si>
   <si>
@@ -359,12 +356,6 @@
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(sadness1)&gt;At this moment I believe you should  &lt;ANIMATE(sadness4)&gt;&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>Acredito que irás ficar muito espouhsto. Mude de decisão.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.</t>
-  </si>
-  <si>
     <t>I think you will be very exposed. Change your decision.</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.</t>
   </si>
   <si>
-    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.</t>
-  </si>
-  <si>
     <t>Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.</t>
   </si>
   <si>
@@ -464,9 +452,6 @@
     <t>I agree with this decision. In this way, we will know the motives at the ideal moment.</t>
   </si>
   <si>
-    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.</t>
-  </si>
-  <si>
     <t>Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
     <t>Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.</t>
   </si>
   <si>
-    <t>Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.</t>
-  </si>
-  <si>
     <t>Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.</t>
   </si>
   <si>
@@ -518,9 +500,6 @@
     <t>Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.</t>
   </si>
   <si>
-    <t>Acredito que com esta decisão teremos mais vantagem. Vamos a isso.</t>
-  </si>
-  <si>
     <t>My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.</t>
   </si>
   <si>
@@ -563,9 +542,6 @@
     <t>Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.</t>
   </si>
   <si>
-    <t>Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.</t>
-  </si>
-  <si>
     <t>I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.</t>
   </si>
   <si>
@@ -578,9 +554,6 @@
     <t>I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.</t>
   </si>
   <si>
-    <t>Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.</t>
-  </si>
-  <si>
     <t>Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.</t>
   </si>
   <si>
@@ -599,9 +572,6 @@
     <t>Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.</t>
   </si>
   <si>
-    <t>Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.</t>
-  </si>
-  <si>
     <t>I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.</t>
   </si>
   <si>
@@ -617,9 +587,6 @@
     <t>Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.</t>
   </si>
   <si>
-    <t>Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.</t>
-  </si>
-  <si>
     <t>Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.</t>
   </si>
   <si>
@@ -653,24 +620,15 @@
     <t>I recommend that you should be a leader and never surrender. You should change your mind and show your strength.</t>
   </si>
   <si>
-    <t>Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.</t>
-  </si>
-  <si>
     <t>Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.</t>
   </si>
   <si>
     <t>You should trade, because your people depend on you. You should change your mind and show that you care about the people.</t>
   </si>
   <si>
-    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.</t>
-  </si>
-  <si>
     <t>Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.</t>
   </si>
   <si>
-    <t>Concordo com esta decisão. Confirme ela.</t>
-  </si>
-  <si>
     <t>I believe that you must change your decision, because now you are certain of the decision. You should think better.</t>
   </si>
   <si>
@@ -710,9 +668,6 @@
     <t>We do not need symbols, but actions. You should change your decision.</t>
   </si>
   <si>
-    <t>Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.</t>
-  </si>
-  <si>
     <t>Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.</t>
   </si>
   <si>
@@ -728,9 +683,6 @@
     <t>I believe this is the best way to know the their opinions.</t>
   </si>
   <si>
-    <t>Deverias tentar minimizar a preocupação da população. Pense bem.</t>
-  </si>
-  <si>
     <t>Não deverias esconder nada do seu povo, eles vão saber. Pense bem.</t>
   </si>
   <si>
@@ -758,15 +710,9 @@
     <t>The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.</t>
   </si>
   <si>
-    <t>O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.</t>
-  </si>
-  <si>
     <t>As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.</t>
   </si>
   <si>
-    <t>Concordo que esta região precisa ter prioridade. Confirme rapidamente.</t>
-  </si>
-  <si>
     <t>The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.</t>
   </si>
   <si>
@@ -782,9 +728,6 @@
     <t>Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.</t>
   </si>
   <si>
-    <t>Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I advise not to be rude at this time. I believe that cross your arms its not the best decision. </t>
   </si>
   <si>
@@ -797,9 +740,6 @@
     <t>Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado</t>
   </si>
   <si>
-    <t>Estou de acordo com esta decisão. Tens que confirmar para todos saberem.</t>
-  </si>
-  <si>
     <t>There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.</t>
   </si>
   <si>
@@ -809,9 +749,6 @@
     <t>Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.</t>
   </si>
   <si>
-    <t>Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.</t>
-  </si>
-  <si>
     <t>I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.</t>
   </si>
   <si>
@@ -822,6 +759,72 @@
   </si>
   <si>
     <t>I agree that this decision will cause the messenger to speak. Confirm it.</t>
+  </si>
+  <si>
+    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile. Pensa melhor e muda de decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que irás ficar muito espouhsto. Muda de decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolhe a outra opção.</t>
+  </si>
+  <si>
+    <t>Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Deste modo, as defesas poderão ser preparadas melhor.</t>
+  </si>
+  <si>
+    <t>Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pensa melhor e, muda de decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar a tua força.</t>
+  </si>
+  <si>
+    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Deverias tentar minimizar a preocupação da população. Pensa bem.</t>
+  </si>
+  <si>
+    <t>O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Muda de decisão rapidamente.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Muda de decisão.</t>
+  </si>
+  <si>
+    <t>Entendo o teu ponto de vista e concordo. Aliados são bem vindos neste momento.</t>
+  </si>
+  <si>
+    <t>Acredito que com esta decisão teremos mais vantagem. Vamos a isto.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão, é a mais sensata. Acredito que com isto caminhamos para a vitória.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Concordo que esta região precisa ter prioridade. Confirma rapidamente a tua decisão.</t>
+  </si>
+  <si>
+    <t>Concordo que esta é melhor decisão para ignorar o inimigo. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Tens que confirmar esta decisão para todos saberem.</t>
+  </si>
+  <si>
+    <t>Concordo que esta decisão irá fazer com que o mensageiro fale. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Tens que confirmar esta opção para todos saberem.</t>
   </si>
 </sst>
 </file>
@@ -1418,15 +1421,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.265625" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
     <col min="4" max="4" width="219" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1445,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1481,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1495,15 +1498,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -1512,7 +1515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1526,21 +1529,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1551,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1565,15 +1568,15 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>4</v>
@@ -1582,7 +1585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1596,21 +1599,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1623,10 +1626,10 @@
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto. Muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1639,10 +1642,10 @@
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolhe a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1671,10 +1674,10 @@
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile. Pensa melhor e muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que converses apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre. Isso é muito perigoso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Este não é o momento de intérahgir com o adversário. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente. Quanto mais cedo melhor para o país se preparar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1751,10 +1754,10 @@
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Deste modo, as defesas poderão ser preparadas melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de mais militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal. Com esta decisão, iremos perder muitos militares desnecessariamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta. Tens que demonstrar confiança no teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a aproveitar esse tempo para enviar um batalhão de soldados para o ataque e acabar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1847,10 +1850,10 @@
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pensa melhor e, muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1863,10 +1866,10 @@
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1879,10 +1882,10 @@
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático. Além disso, agradecer o convite é um sinal de educação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1911,10 +1914,10 @@
       </c>
       <c r="D32" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar a tua força.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1927,10 +1930,10 @@
       </c>
       <c r="D33" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhore trocar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1975,10 +1978,10 @@
       </c>
       <c r="D36" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1991,10 +1994,10 @@
       </c>
       <c r="D37" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro. Tens que ver a face do inimigo para conseguir vence-lo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves tentar ganhar a confiança do adversário convidando-o. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar. Ele não gosta de ser interrompido, sinto que isso pode apressar a batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser muito afectada com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro. Pouco provável que o mensageiro conseguiria ter a informação correcta em um campo de batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar. Assim, novas estratégias de combate podem ser criadas sem muitas baixas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, se enviares as tropas podemos ficar sem soldados suficientes para nos proteger.  Devemos ter certeza que são aliados, pois podem ser inimigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória. Desse modo, mostrarás a todos que não tens medo de nada e de ninguém. Deverias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo. Além disso, o inimigo deve entender que ficamos indignados com a ameaça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso. Estamos perdendo tempo ao pensar em novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém essa decisão. Todos terão a sua vez de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Acredito ser o melhor pra todos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2423,10 +2426,10 @@
       </c>
       <c r="D64" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento. A outra decisão irá gerar muitos problemas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Assim, saberemos os motivos no momento ideal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2519,10 +2522,10 @@
       </c>
       <c r="D70" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem. Vamos a isso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem. Vamos a isto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2567,10 +2570,10 @@
       </c>
       <c r="D73" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata. Acredito que com isto caminhamos para a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados seremos todos vitóriosos. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar. Confirme e um mensageiro será enviado.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apoiado. Acredito que todos irão entender esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2663,10 +2666,10 @@
       </c>
       <c r="D79" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Confirme ela.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão. Deverias confirma-la imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão é a mais correta para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião deles.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle. Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that by speaking first you can influence your counselors.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball. Think better, and change your decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advice you just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in. This is very dangerous.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is not the time to interact with the enemy. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately. The sooner the better for the country to prepare.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Let him talk as we try to better understand his tactics. In this way, defenses can be better prepared.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need more military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information. You have to show confidence in your people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack and finishing the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;With only half the soldiers I do not think we will be victorious. I believe that the allies will not have enough strength to defeat the enemy. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself to the enemy in this way. Also, making the first contact indicates weakness. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic. Also, thanking the invitation is a sign of education.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender. You should change your mind and show your strength.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, you should think better and change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk. Talking to everyone will be very exposed, it can be dangerous. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.  Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should speak first of all to know your opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace. Do not leave now, change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that talking to new allies will bring new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person. You have to see the enemy's face to defeat him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to gain the confidence of the enemy by inviting him. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking. He does not like being interrupted, I feel that this can hasten the battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should immediately make him stop talking. I think he wants to find out something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be very affected whit this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access. With this decision, the castle will be taken more easily by the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs. Unlikely the messenger would get the correct information on a battlefield.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest. Thus, new combat strategies can be created without many casualties.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful, if you send the troops, we can run out of enough soldiers to protect us. We must be sure that allies, they can be enemies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;That way we'll be weak and out of touch. I believe that the Allies can successfully defeat the enemy with half of our soldiers, and at the same time we will be protected. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory. In this way, you will show to everyone that you are not afraid of anything and nobody. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should call the enemy leader. Also, calling him indicates that you're still strong. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy. In addition, the enemy must understand that we are outraged by the threat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade, because your people depend on you. You should change your mind and show that you care about the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access. We are wasting time thinking about new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council. So everyone will feel important. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken, because they need to know first.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep that decision. Everyone will have their turn to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. I believe that is the best for all.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it. Allies are welcome at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment. The other decision will generate many problems.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. In this way, we will know the motives at the ideal moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment. You should confirm it&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage. Let's do it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision. Either way the enemy is weaker.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory. You should confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision we all will be victorious. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank allies in one way or another.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat. You should confirm this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us. Confirm it and a messenger will be sent.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Supported. I believe everyone will understand this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision. You should confirm it immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision is the right one for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the their opinions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3831,10 +3834,10 @@
       </c>
       <c r="D152" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pensa bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo. Caso isso aconteça podes deixar o povo muito preocupado. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3863,10 +3866,10 @@
       </c>
       <c r="D154" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Muda de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que cruzar os braços não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3911,10 +3914,10 @@
       </c>
       <c r="D157" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pensa bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a que não toques no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo. O baile pode amenizar a preocupação gerada por um discurso. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família, isso pode soar como uma ameaça e, ele ficará mais nervoso. Faça uma piada e descontraia o ambiente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário para amenizar a preocupação independente quando aconteça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4151,10 +4154,10 @@
       </c>
       <c r="D172" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade. Confirme rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade. Confirma rapidamente a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4167,10 +4170,10 @@
       </c>
       <c r="D173" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4183,10 +4186,10 @@
       </c>
       <c r="D174" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar esta decisão para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4215,10 +4218,10 @@
       </c>
       <c r="D176" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4247,10 +4250,10 @@
       </c>
       <c r="D178" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar esta opção para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball. If this happens you can leave the people very worried. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that cross your arms its not the best decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to touch the enemy, he can try something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball. The ball can soften the concern generated by a speech. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important. Without the walls the castle will be unprotected against large weapons. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that pretend its not the best decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to question about the family, this may sound like a threat and, he will become more nervous. Make a joke and relax the environment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to have more diplomacy and shake the enemy's hand.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority. Confirm your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, after all the enemy has already spoken what he had to talk about.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4682,97 +4685,97 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1"/>
       <c r="B206" s="12"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1"/>
       <c r="B207" s="12"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1"/>
       <c r="B208" s="12"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="1"/>
       <c r="B209" s="12"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="1"/>
       <c r="B210" s="12"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="1"/>
       <c r="B211" s="12"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="1"/>
       <c r="B212" s="12"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="1"/>
       <c r="B213" s="12"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="1"/>
       <c r="B214" s="12"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="1"/>
       <c r="B215" s="12"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="1"/>
       <c r="B216" s="12"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="12"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="12"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="1"/>
       <c r="B219" s="12"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="1"/>
       <c r="B220" s="12"/>
       <c r="C220" s="6"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="1"/>
       <c r="B221" s="12"/>
       <c r="C221" s="6"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" s="1"/>
       <c r="B222" s="12"/>
       <c r="C222" s="6"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" s="1"/>
       <c r="B223" s="12"/>
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" s="1"/>
       <c r="B224" s="12"/>
       <c r="C224" s="6"/>
@@ -4806,26 +4809,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.265625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>DP1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>DP2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>DP3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>DP4:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>DP5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>59</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>DP6:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>DP7:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>DP10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>62</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>DP11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="str">
         <f>M1</f>
         <v>DP1:phraseAgainstPref1_PT</v>
@@ -5338,7 +5341,7 @@
         <v>DP12:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="str">
         <f t="shared" ref="B11:B32" si="12">M2</f>
         <v>DP2:phraseAgainstPref1_PT</v>
@@ -5389,7 +5392,7 @@
         <v>DP18:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP3:phraseAgainstPref1_PT</v>
@@ -5440,7 +5443,7 @@
         <v>DP25:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP4:phraseAgainstPref1_PT</v>
@@ -5491,7 +5494,7 @@
         <v>DP26:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP5:phraseAgainstPref1_PT</v>
@@ -5542,7 +5545,7 @@
         <v>DP27:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP6:phraseAgainstPref1_PT</v>
@@ -5593,7 +5596,7 @@
         <v>DP28:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP7:phraseAgainstPref1_PT</v>
@@ -5644,7 +5647,7 @@
         <v>DP29:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP10:phraseAgainstPref1_PT</v>
@@ -5695,7 +5698,7 @@
         <v>DP30:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP11:phraseAgainstPref1_PT</v>
@@ -5746,7 +5749,7 @@
         <v>DP31:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP12:phraseAgainstPref1_PT</v>
@@ -5797,7 +5800,7 @@
         <v>DP32:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP18:phraseAgainstPref1_PT</v>
@@ -5848,7 +5851,7 @@
         <v>DP33:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP25:phraseAgainstPref1_PT</v>
@@ -5899,7 +5902,7 @@
         <v>DP34:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP26:phraseAgainstPref1_PT</v>
@@ -5950,7 +5953,7 @@
         <v>DP35:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP27:phraseAgainstPref1_PT</v>
@@ -6001,7 +6004,7 @@
         <v>DP36:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP28:phraseAgainstPref1_PT</v>
@@ -6010,7 +6013,7 @@
       <c r="H24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP29:phraseAgainstPref1_PT</v>
@@ -6061,7 +6064,7 @@
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP30:phraseAgainstPref1_PT</v>
@@ -6112,7 +6115,7 @@
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP31:phraseAgainstPref1_PT</v>
@@ -6163,7 +6166,7 @@
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP32:phraseAgainstPref1_PT</v>
@@ -6214,7 +6217,7 @@
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP33:phraseAgainstPref1_PT</v>
@@ -6265,7 +6268,7 @@
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP34:phraseAgainstPref1_PT</v>
@@ -6316,7 +6319,7 @@
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP35:phraseAgainstPref1_PT</v>
@@ -6367,7 +6370,7 @@
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP36:phraseAgainstPref1_PT</v>
@@ -6418,7 +6421,7 @@
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="str">
         <f>O1</f>
         <v>DP1:phraseAgainstPref2_PT</v>
@@ -6469,25 +6472,25 @@
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34" s="8" t="str">
         <f t="shared" ref="B34:B55" si="19">O2</f>
         <v>DP2:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP4:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP5:phraseAgainstPref2_PT</v>
@@ -6498,7 +6501,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP6:phraseAgainstPref2_PT</v>
@@ -6509,7 +6512,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP7:phraseAgainstPref2_PT</v>
@@ -6520,7 +6523,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP10:phraseAgainstPref2_PT</v>
@@ -6531,7 +6534,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP11:phraseAgainstPref2_PT</v>
@@ -6542,7 +6545,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP12:phraseAgainstPref2_PT</v>
@@ -6553,7 +6556,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP18:phraseAgainstPref2_PT</v>
@@ -6564,7 +6567,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP25:phraseAgainstPref2_PT</v>
@@ -6575,7 +6578,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP26:phraseAgainstPref2_PT</v>
@@ -6586,7 +6589,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP27:phraseAgainstPref2_PT</v>
@@ -6597,7 +6600,7 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP28:phraseAgainstPref2_PT</v>
@@ -6608,7 +6611,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP29:phraseAgainstPref2_PT</v>
@@ -6619,7 +6622,7 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP30:phraseAgainstPref2_PT</v>
@@ -6630,7 +6633,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP31:phraseAgainstPref2_PT</v>
@@ -6641,7 +6644,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP32:phraseAgainstPref2_PT</v>
@@ -6652,7 +6655,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP33:phraseAgainstPref2_PT</v>
@@ -6663,7 +6666,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP34:phraseAgainstPref2_PT</v>
@@ -6674,7 +6677,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP35:phraseAgainstPref2_PT</v>
@@ -6685,7 +6688,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP36:phraseAgainstPref2_PT</v>
@@ -6696,7 +6699,7 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56" s="8" t="str">
         <f>Q1</f>
         <v>DP1:phraseFavourPref_PT</v>
@@ -6707,7 +6710,7 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57" s="8" t="str">
         <f t="shared" ref="B57:B78" si="20">Q2</f>
         <v>DP2:phraseFavourPref_PT</v>
@@ -6718,7 +6721,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP3:phraseFavourPref_PT</v>
@@ -6729,7 +6732,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP4:phraseFavourPref_PT</v>
@@ -6740,7 +6743,7 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP5:phraseFavourPref_PT</v>
@@ -6751,7 +6754,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP6:phraseFavourPref_PT</v>
@@ -6762,7 +6765,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP7:phraseFavourPref_PT</v>
@@ -6773,7 +6776,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP10:phraseFavourPref_PT</v>
@@ -6784,7 +6787,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP11:phraseFavourPref_PT</v>
@@ -6795,7 +6798,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP12:phraseFavourPref_PT</v>
@@ -6806,7 +6809,7 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP18:phraseFavourPref_PT</v>
@@ -6817,7 +6820,7 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP25:phraseFavourPref_PT</v>
@@ -6828,7 +6831,7 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP26:phraseFavourPref_PT</v>
@@ -6839,7 +6842,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP27:phraseFavourPref_PT</v>
@@ -6850,7 +6853,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP28:phraseFavourPref_PT</v>
@@ -6861,7 +6864,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP29:phraseFavourPref_PT</v>
@@ -6872,7 +6875,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP30:phraseFavourPref_PT</v>
@@ -6883,7 +6886,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP31:phraseFavourPref_PT</v>
@@ -6894,7 +6897,7 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP32:phraseFavourPref_PT</v>
@@ -6905,7 +6908,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP33:phraseFavourPref_PT</v>
@@ -6916,7 +6919,7 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP34:phraseFavourPref_PT</v>
@@ -6927,7 +6930,7 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP35:phraseFavourPref_PT</v>
@@ -6938,7 +6941,7 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP36:phraseFavourPref_PT</v>
@@ -6949,7 +6952,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79" s="8" t="str">
         <f>J1</f>
         <v>DP1:phraseAgainstPref1_EN</v>
@@ -6960,7 +6963,7 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80" s="8" t="str">
         <f t="shared" ref="B80:B101" si="21">J2</f>
         <v>DP2:phraseAgainstPref1_EN</v>
@@ -6971,7 +6974,7 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
     </row>
-    <row r="81" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP3:phraseAgainstPref1_EN</v>
@@ -6982,7 +6985,7 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP4:phraseAgainstPref1_EN</v>
@@ -6993,7 +6996,7 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP5:phraseAgainstPref1_EN</v>
@@ -7004,7 +7007,7 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP6:phraseAgainstPref1_EN</v>
@@ -7015,7 +7018,7 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP7:phraseAgainstPref1_EN</v>
@@ -7026,7 +7029,7 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP10:phraseAgainstPref1_EN</v>
@@ -7037,7 +7040,7 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP11:phraseAgainstPref1_EN</v>
@@ -7048,7 +7051,7 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP12:phraseAgainstPref1_EN</v>
@@ -7059,7 +7062,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP18:phraseAgainstPref1_EN</v>
@@ -7070,7 +7073,7 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP25:phraseAgainstPref1_EN</v>
@@ -7081,7 +7084,7 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP26:phraseAgainstPref1_EN</v>
@@ -7092,7 +7095,7 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP27:phraseAgainstPref1_EN</v>
@@ -7103,7 +7106,7 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP28:phraseAgainstPref1_EN</v>
@@ -7114,7 +7117,7 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP29:phraseAgainstPref1_EN</v>
@@ -7125,7 +7128,7 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP30:phraseAgainstPref1_EN</v>
@@ -7136,7 +7139,7 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP31:phraseAgainstPref1_EN</v>
@@ -7147,7 +7150,7 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B97" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP32:phraseAgainstPref1_EN</v>
@@ -7158,7 +7161,7 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B98" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP33:phraseAgainstPref1_EN</v>
@@ -7169,7 +7172,7 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B99" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP34:phraseAgainstPref1_EN</v>
@@ -7180,7 +7183,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B100" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP35:phraseAgainstPref1_EN</v>
@@ -7191,7 +7194,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B101" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP36:phraseAgainstPref1_EN</v>
@@ -7202,7 +7205,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B102" s="8" t="str">
         <f>H1</f>
         <v>DP1:phraseAgainstPref2_EN</v>
@@ -7213,7 +7216,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B103" s="8" t="str">
         <f t="shared" ref="B103:B124" si="22">H2</f>
         <v>DP2:phraseAgainstPref2_EN</v>
@@ -7224,7 +7227,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
     </row>
-    <row r="104" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B104" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP3:phraseAgainstPref2_EN</v>
@@ -7235,7 +7238,7 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
     </row>
-    <row r="105" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B105" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP4:phraseAgainstPref2_EN</v>
@@ -7246,7 +7249,7 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
     </row>
-    <row r="106" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B106" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP5:phraseAgainstPref2_EN</v>
@@ -7257,7 +7260,7 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B107" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP6:phraseAgainstPref2_EN</v>
@@ -7268,7 +7271,7 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B108" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP7:phraseAgainstPref2_EN</v>
@@ -7279,7 +7282,7 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B109" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP10:phraseAgainstPref2_EN</v>
@@ -7290,7 +7293,7 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B110" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP11:phraseAgainstPref2_EN</v>
@@ -7301,7 +7304,7 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
     </row>
-    <row r="111" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B111" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP12:phraseAgainstPref2_EN</v>
@@ -7312,7 +7315,7 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
     </row>
-    <row r="112" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B112" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP18:phraseAgainstPref2_EN</v>
@@ -7323,7 +7326,7 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
     </row>
-    <row r="113" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B113" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP25:phraseAgainstPref2_EN</v>
@@ -7334,7 +7337,7 @@
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
     </row>
-    <row r="114" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B114" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP26:phraseAgainstPref2_EN</v>
@@ -7345,7 +7348,7 @@
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
     </row>
-    <row r="115" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B115" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP27:phraseAgainstPref2_EN</v>
@@ -7356,7 +7359,7 @@
       <c r="P115" s="14"/>
       <c r="Q115" s="14"/>
     </row>
-    <row r="116" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B116" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP28:phraseAgainstPref2_EN</v>
@@ -7367,7 +7370,7 @@
       <c r="P116" s="14"/>
       <c r="Q116" s="14"/>
     </row>
-    <row r="117" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B117" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP29:phraseAgainstPref2_EN</v>
@@ -7378,7 +7381,7 @@
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
     </row>
-    <row r="118" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B118" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP30:phraseAgainstPref2_EN</v>
@@ -7389,7 +7392,7 @@
       <c r="P118" s="14"/>
       <c r="Q118" s="14"/>
     </row>
-    <row r="119" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B119" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP31:phraseAgainstPref2_EN</v>
@@ -7400,7 +7403,7 @@
       <c r="P119" s="14"/>
       <c r="Q119" s="14"/>
     </row>
-    <row r="120" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B120" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP32:phraseAgainstPref2_EN</v>
@@ -7411,7 +7414,7 @@
       <c r="P120" s="14"/>
       <c r="Q120" s="14"/>
     </row>
-    <row r="121" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B121" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP33:phraseAgainstPref2_EN</v>
@@ -7422,7 +7425,7 @@
       <c r="P121" s="14"/>
       <c r="Q121" s="14"/>
     </row>
-    <row r="122" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B122" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP34:phraseAgainstPref2_EN</v>
@@ -7433,7 +7436,7 @@
       <c r="P122" s="14"/>
       <c r="Q122" s="14"/>
     </row>
-    <row r="123" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B123" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP35:phraseAgainstPref2_EN</v>
@@ -7444,7 +7447,7 @@
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
     </row>
-    <row r="124" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B124" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP36:phraseAgainstPref2_EN</v>
@@ -7455,7 +7458,7 @@
       <c r="P124" s="14"/>
       <c r="Q124" s="14"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B125" s="8" t="str">
         <f>F1</f>
         <v>DP1:phraseFavourPref_EN</v>
@@ -7466,7 +7469,7 @@
       <c r="P125" s="14"/>
       <c r="Q125" s="14"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B126" s="8" t="str">
         <f t="shared" ref="B126:B146" si="23">F2</f>
         <v>DP2:phraseFavourPref_EN</v>
@@ -7477,7 +7480,7 @@
       <c r="P126" s="14"/>
       <c r="Q126" s="14"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B127" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP3:phraseFavourPref_EN</v>
@@ -7488,7 +7491,7 @@
       <c r="P127" s="14"/>
       <c r="Q127" s="14"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B128" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP4:phraseFavourPref_EN</v>
@@ -7499,7 +7502,7 @@
       <c r="P128" s="14"/>
       <c r="Q128" s="14"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B129" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP5:phraseFavourPref_EN</v>
@@ -7510,7 +7513,7 @@
       <c r="P129" s="14"/>
       <c r="Q129" s="14"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B130" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP6:phraseFavourPref_EN</v>
@@ -7521,7 +7524,7 @@
       <c r="P130" s="14"/>
       <c r="Q130" s="14"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B131" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP7:phraseFavourPref_EN</v>
@@ -7532,7 +7535,7 @@
       <c r="P131" s="14"/>
       <c r="Q131" s="14"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B132" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP10:phraseFavourPref_EN</v>
@@ -7543,7 +7546,7 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="14"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B133" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP11:phraseFavourPref_EN</v>
@@ -7554,7 +7557,7 @@
       <c r="P133" s="14"/>
       <c r="Q133" s="14"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B134" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP12:phraseFavourPref_EN</v>
@@ -7565,7 +7568,7 @@
       <c r="P134" s="14"/>
       <c r="Q134" s="14"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B135" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP18:phraseFavourPref_EN</v>
@@ -7576,7 +7579,7 @@
       <c r="P135" s="14"/>
       <c r="Q135" s="14"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B136" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP25:phraseFavourPref_EN</v>
@@ -7587,7 +7590,7 @@
       <c r="P136" s="14"/>
       <c r="Q136" s="14"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B137" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP26:phraseFavourPref_EN</v>
@@ -7598,7 +7601,7 @@
       <c r="P137" s="14"/>
       <c r="Q137" s="14"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B138" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP27:phraseFavourPref_EN</v>
@@ -7609,7 +7612,7 @@
       <c r="P138" s="14"/>
       <c r="Q138" s="14"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B139" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP28:phraseFavourPref_EN</v>
@@ -7620,7 +7623,7 @@
       <c r="P139" s="14"/>
       <c r="Q139" s="14"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B140" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP29:phraseFavourPref_EN</v>
@@ -7631,7 +7634,7 @@
       <c r="P140" s="14"/>
       <c r="Q140" s="14"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B141" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP30:phraseFavourPref_EN</v>
@@ -7642,7 +7645,7 @@
       <c r="P141" s="14"/>
       <c r="Q141" s="14"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B142" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP31:phraseFavourPref_EN</v>
@@ -7653,7 +7656,7 @@
       <c r="P142" s="14"/>
       <c r="Q142" s="14"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B143" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP32:phraseFavourPref_EN</v>
@@ -7664,7 +7667,7 @@
       <c r="P143" s="14"/>
       <c r="Q143" s="14"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B144" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP33:phraseFavourPref_EN</v>
@@ -7675,7 +7678,7 @@
       <c r="P144" s="14"/>
       <c r="Q144" s="14"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B145" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP34:phraseFavourPref_EN</v>
@@ -7686,7 +7689,7 @@
       <c r="P145" s="14"/>
       <c r="Q145" s="14"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B146" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP35:phraseFavourPref_EN</v>
@@ -7697,7 +7700,7 @@
       <c r="P146" s="14"/>
       <c r="Q146" s="14"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B147" s="8" t="str">
         <f>F23</f>
         <v>DP36:phraseFavourPref_EN</v>
@@ -7708,7 +7711,7 @@
       <c r="P147" s="14"/>
       <c r="Q147" s="14"/>
     </row>
-    <row r="148" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B148" s="8" t="str">
         <f>M25</f>
         <v>DG1:phraseAgainstPref1_PT</v>
@@ -7719,7 +7722,7 @@
       <c r="P148" s="14"/>
       <c r="Q148" s="14"/>
     </row>
-    <row r="149" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B149" s="8" t="str">
         <f t="shared" ref="B149:B156" si="24">M26</f>
         <v>DG2:phraseAgainstPref1_PT</v>
@@ -7730,7 +7733,7 @@
       <c r="P149" s="14"/>
       <c r="Q149" s="14"/>
     </row>
-    <row r="150" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B150" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG3:phraseAgainstPref1_PT</v>
@@ -7741,7 +7744,7 @@
       <c r="P150" s="14"/>
       <c r="Q150" s="14"/>
     </row>
-    <row r="151" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B151" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG5:phraseAgainstPref1_PT</v>
@@ -7752,7 +7755,7 @@
       <c r="P151" s="14"/>
       <c r="Q151" s="14"/>
     </row>
-    <row r="152" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B152" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG9:phraseAgainstPref1_PT</v>
@@ -7763,7 +7766,7 @@
       <c r="P152" s="14"/>
       <c r="Q152" s="14"/>
     </row>
-    <row r="153" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B153" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG10:phraseAgainstPref1_PT</v>
@@ -7774,7 +7777,7 @@
       <c r="P153" s="14"/>
       <c r="Q153" s="14"/>
     </row>
-    <row r="154" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B154" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG11:phraseAgainstPref1_PT</v>
@@ -7785,7 +7788,7 @@
       <c r="P154" s="14"/>
       <c r="Q154" s="14"/>
     </row>
-    <row r="155" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B155" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG14:phraseAgainstPref1_PT</v>
@@ -7796,7 +7799,7 @@
       <c r="P155" s="14"/>
       <c r="Q155" s="14"/>
     </row>
-    <row r="156" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B156" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG19:phraseAgainstPref1_PT</v>
@@ -7807,7 +7810,7 @@
       <c r="P156" s="14"/>
       <c r="Q156" s="14"/>
     </row>
-    <row r="157" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B157" s="8" t="str">
         <f>O25</f>
         <v>DG1:phraseAgainstPref2_PT</v>
@@ -7818,7 +7821,7 @@
       <c r="P157" s="14"/>
       <c r="Q157" s="14"/>
     </row>
-    <row r="158" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B158" s="8" t="str">
         <f t="shared" ref="B158:B165" si="25">O26</f>
         <v>DG2:phraseAgainstPref2_PT</v>
@@ -7829,259 +7832,259 @@
       <c r="P158" s="14"/>
       <c r="Q158" s="14"/>
     </row>
-    <row r="159" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B159" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="160" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B160" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG5:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG9:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG10:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG11:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG14:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG19:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" s="8" t="str">
         <f>Q25</f>
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" s="8" t="str">
         <f t="shared" ref="B167:B174" si="26">Q26</f>
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" s="8" t="str">
         <f>J25</f>
         <v>DG1:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" s="8" t="str">
         <f t="shared" ref="B176:B183" si="27">J26</f>
         <v>DG2:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B181" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B182" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B183" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B184" s="8" t="str">
         <f>H25</f>
         <v>DG1:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B185" s="8" t="str">
         <f t="shared" ref="B185:B192" si="28">H26</f>
         <v>DG2:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B186" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG3:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B187" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG5:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B188" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG9:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B189" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG10:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B190" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG11:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B191" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG14:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B192" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG19:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B193" s="8" t="str">
         <f>F25</f>
         <v>DG1:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" s="8" t="str">
         <f t="shared" ref="B194:B200" si="29">F26</f>
         <v>DG2:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG3:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B196" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG5:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B197" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG9:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B198" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG10:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B199" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG11:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B200" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG14:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B201" s="8" t="str">
         <f>F33</f>
         <v>DG19:phraseFavourPref_EN</v>
@@ -8096,23 +8099,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405BC36-7328-40C6-8088-275F0F9C1320}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:H33"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D25:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.59765625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="60.86328125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="76.86328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.1328125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8146,25 +8149,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8172,25 +8175,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8198,25 +8201,25 @@
         <v>15</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8224,25 +8227,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8250,25 +8253,25 @@
         <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8276,25 +8279,25 @@
         <v>18</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8302,25 +8305,25 @@
         <v>19</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="G8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8328,25 +8331,25 @@
         <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8354,25 +8357,25 @@
         <v>21</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8380,25 +8383,25 @@
         <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8406,25 +8409,25 @@
         <v>23</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8432,25 +8435,25 @@
         <v>24</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8458,25 +8461,25 @@
         <v>25</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8484,25 +8487,25 @@
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8510,25 +8513,25 @@
         <v>27</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="15" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -8536,25 +8539,25 @@
         <v>28</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8562,25 +8565,25 @@
         <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8588,25 +8591,25 @@
         <v>30</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8614,25 +8617,25 @@
         <v>31</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8640,25 +8643,25 @@
         <v>32</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8666,25 +8669,25 @@
         <v>33</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8692,25 +8695,25 @@
         <v>34</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8718,25 +8721,25 @@
         <v>35</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8744,25 +8747,25 @@
         <v>43</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8770,25 +8773,25 @@
         <v>44</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8796,25 +8799,25 @@
         <v>46</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8822,25 +8825,25 @@
         <v>47</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8851,22 +8854,22 @@
         <v>64</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8874,25 +8877,25 @@
         <v>49</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8900,25 +8903,25 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8932,19 +8935,19 @@
         <v>66</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8955,19 +8958,19 @@
         <v>64</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8987,13 +8990,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>53</v>
       </c>

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\Git\SOP\Utterances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria José Ferreira\Desktop\GitStorytelling\SOP\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6877516-3D07-4291-A9F2-099060341F94}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BFD462-81F7-4E3E-ADE1-5B5594CE79ED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" activeTab="2" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="256">
   <si>
     <t>Id</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Keep that decision. Everyone will have their turn to speak.</t>
   </si>
   <si>
-    <t>Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.</t>
-  </si>
-  <si>
     <t>I understand your point of view and agree with it. Allies are welcome at this time.</t>
   </si>
   <si>
@@ -359,12 +356,6 @@
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(sadness1)&gt;At this moment I believe you should  &lt;ANIMATE(sadness4)&gt;&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>Acredito que irás ficar muito espouhsto. Mude de decisão.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.</t>
-  </si>
-  <si>
     <t>I think you will be very exposed. Change your decision.</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.</t>
   </si>
   <si>
-    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.</t>
-  </si>
-  <si>
     <t>Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.</t>
   </si>
   <si>
@@ -464,9 +452,6 @@
     <t>I agree with this decision. In this way, we will know the motives at the ideal moment.</t>
   </si>
   <si>
-    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.</t>
-  </si>
-  <si>
     <t>Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
     <t>Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.</t>
   </si>
   <si>
-    <t>Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.</t>
-  </si>
-  <si>
     <t>Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.</t>
   </si>
   <si>
@@ -518,9 +500,6 @@
     <t>Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.</t>
   </si>
   <si>
-    <t>Acredito que com esta decisão teremos mais vantagem. Vamos a isso.</t>
-  </si>
-  <si>
     <t>My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.</t>
   </si>
   <si>
@@ -563,9 +542,6 @@
     <t>Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.</t>
   </si>
   <si>
-    <t>Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.</t>
-  </si>
-  <si>
     <t>I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.</t>
   </si>
   <si>
@@ -578,9 +554,6 @@
     <t>I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.</t>
   </si>
   <si>
-    <t>Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.</t>
-  </si>
-  <si>
     <t>Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.</t>
   </si>
   <si>
@@ -599,9 +572,6 @@
     <t>Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.</t>
   </si>
   <si>
-    <t>Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.</t>
-  </si>
-  <si>
     <t>I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.</t>
   </si>
   <si>
@@ -617,9 +587,6 @@
     <t>Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.</t>
   </si>
   <si>
-    <t>Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.</t>
-  </si>
-  <si>
     <t>Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.</t>
   </si>
   <si>
@@ -653,24 +620,15 @@
     <t>I recommend that you should be a leader and never surrender. You should change your mind and show your strength.</t>
   </si>
   <si>
-    <t>Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.</t>
-  </si>
-  <si>
     <t>Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.</t>
   </si>
   <si>
     <t>You should trade, because your people depend on you. You should change your mind and show that you care about the people.</t>
   </si>
   <si>
-    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.</t>
-  </si>
-  <si>
     <t>Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.</t>
   </si>
   <si>
-    <t>Concordo com esta decisão. Confirme ela.</t>
-  </si>
-  <si>
     <t>I believe that you must change your decision, because now you are certain of the decision. You should think better.</t>
   </si>
   <si>
@@ -710,9 +668,6 @@
     <t>We do not need symbols, but actions. You should change your decision.</t>
   </si>
   <si>
-    <t>Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.</t>
-  </si>
-  <si>
     <t>Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.</t>
   </si>
   <si>
@@ -728,9 +683,6 @@
     <t>I believe this is the best way to know the their opinions.</t>
   </si>
   <si>
-    <t>Deverias tentar minimizar a preocupação da população. Pense bem.</t>
-  </si>
-  <si>
     <t>Não deverias esconder nada do seu povo, eles vão saber. Pense bem.</t>
   </si>
   <si>
@@ -758,15 +710,9 @@
     <t>The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.</t>
   </si>
   <si>
-    <t>O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.</t>
-  </si>
-  <si>
     <t>As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.</t>
   </si>
   <si>
-    <t>Concordo que esta região precisa ter prioridade. Confirme rapidamente.</t>
-  </si>
-  <si>
     <t>The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.</t>
   </si>
   <si>
@@ -782,9 +728,6 @@
     <t>Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.</t>
   </si>
   <si>
-    <t>Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I advise not to be rude at this time. I believe that cross your arms its not the best decision. </t>
   </si>
   <si>
@@ -797,9 +740,6 @@
     <t>Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado</t>
   </si>
   <si>
-    <t>Estou de acordo com esta decisão. Tens que confirmar para todos saberem.</t>
-  </si>
-  <si>
     <t>There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.</t>
   </si>
   <si>
@@ -809,9 +749,6 @@
     <t>Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.</t>
   </si>
   <si>
-    <t>Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.</t>
-  </si>
-  <si>
     <t>I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.</t>
   </si>
   <si>
@@ -822,6 +759,72 @@
   </si>
   <si>
     <t>I agree that this decision will cause the messenger to speak. Confirm it.</t>
+  </si>
+  <si>
+    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile. Pensa melhor e muda de decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que irás ficar muito espouhsto. Muda de decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolhe a outra opção.</t>
+  </si>
+  <si>
+    <t>Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Deste modo, as defesas poderão ser preparadas melhor.</t>
+  </si>
+  <si>
+    <t>Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pensa melhor e, muda de decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar a tua força.</t>
+  </si>
+  <si>
+    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Deverias tentar minimizar a preocupação da população. Pensa bem.</t>
+  </si>
+  <si>
+    <t>O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Muda de decisão rapidamente.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Muda de decisão.</t>
+  </si>
+  <si>
+    <t>Entendo o teu ponto de vista e concordo. Aliados são bem vindos neste momento.</t>
+  </si>
+  <si>
+    <t>Acredito que com esta decisão teremos mais vantagem. Vamos a isto.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão, é a mais sensata. Acredito que com isto caminhamos para a vitória.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Concordo que esta região precisa ter prioridade. Confirma rapidamente a tua decisão.</t>
+  </si>
+  <si>
+    <t>Concordo que esta é melhor decisão para ignorar o inimigo. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Tens que confirmar esta decisão para todos saberem.</t>
+  </si>
+  <si>
+    <t>Concordo que esta decisão irá fazer com que o mensageiro fale. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Tens que confirmar esta opção para todos saberem.</t>
   </si>
 </sst>
 </file>
@@ -1418,15 +1421,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.265625" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
     <col min="4" max="4" width="219" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1445,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1481,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1495,15 +1498,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -1512,7 +1515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1526,21 +1529,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1551,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1565,15 +1568,15 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>4</v>
@@ -1582,7 +1585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1596,21 +1599,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1623,10 +1626,10 @@
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto. Muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1639,10 +1642,10 @@
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolhe a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1671,10 +1674,10 @@
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile. Pensa melhor e muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que converses apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre. Isso é muito perigoso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Este não é o momento de intérahgir com o adversário. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente. Quanto mais cedo melhor para o país se preparar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1751,10 +1754,10 @@
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Deste modo, as defesas poderão ser preparadas melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de mais militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal. Com esta decisão, iremos perder muitos militares desnecessariamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta. Tens que demonstrar confiança no teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a aproveitar esse tempo para enviar um batalhão de soldados para o ataque e acabar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1847,10 +1850,10 @@
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pensa melhor e, muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1863,10 +1866,10 @@
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1879,10 +1882,10 @@
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático. Além disso, agradecer o convite é um sinal de educação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1911,10 +1914,10 @@
       </c>
       <c r="D32" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar a tua força.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1927,10 +1930,10 @@
       </c>
       <c r="D33" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhore trocar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1975,10 +1978,10 @@
       </c>
       <c r="D36" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1991,10 +1994,10 @@
       </c>
       <c r="D37" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro. Tens que ver a face do inimigo para conseguir vence-lo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves tentar ganhar a confiança do adversário convidando-o. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar. Ele não gosta de ser interrompido, sinto que isso pode apressar a batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser muito afectada com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro. Pouco provável que o mensageiro conseguiria ter a informação correcta em um campo de batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar. Assim, novas estratégias de combate podem ser criadas sem muitas baixas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, se enviares as tropas podemos ficar sem soldados suficientes para nos proteger.  Devemos ter certeza que são aliados, pois podem ser inimigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória. Desse modo, mostrarás a todos que não tens medo de nada e de ninguém. Deverias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo. Além disso, o inimigo deve entender que ficamos indignados com a ameaça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso. Estamos perdendo tempo ao pensar em novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém essa decisão. Todos terão a sua vez de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Acredito ser o melhor pra todos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2423,10 +2426,10 @@
       </c>
       <c r="D64" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento. A outra decisão irá gerar muitos problemas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Assim, saberemos os motivos no momento ideal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2519,10 +2522,10 @@
       </c>
       <c r="D70" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem. Vamos a isso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem. Vamos a isto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2567,10 +2570,10 @@
       </c>
       <c r="D73" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata. Acredito que com isto caminhamos para a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados seremos todos vitóriosos. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar. Confirme e um mensageiro será enviado.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apoiado. Acredito que todos irão entender esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2663,10 +2666,10 @@
       </c>
       <c r="D79" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Confirme ela.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão. Deverias confirma-la imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão é a mais correta para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião deles.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle. Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that by speaking first you can influence your counselors.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball. Think better, and change your decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advice you just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in. This is very dangerous.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is not the time to interact with the enemy. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately. The sooner the better for the country to prepare.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Let him talk as we try to better understand his tactics. In this way, defenses can be better prepared.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need more military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information. You have to show confidence in your people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack and finishing the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;With only half the soldiers I do not think we will be victorious. I believe that the allies will not have enough strength to defeat the enemy. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself to the enemy in this way. Also, making the first contact indicates weakness. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic. Also, thanking the invitation is a sign of education.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender. You should change your mind and show your strength.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, you should think better and change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk. Talking to everyone will be very exposed, it can be dangerous. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.  Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should speak first of all to know your opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace. Do not leave now, change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that talking to new allies will bring new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person. You have to see the enemy's face to defeat him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to gain the confidence of the enemy by inviting him. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking. He does not like being interrupted, I feel that this can hasten the battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should immediately make him stop talking. I think he wants to find out something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be very affected whit this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access. With this decision, the castle will be taken more easily by the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs. Unlikely the messenger would get the correct information on a battlefield.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest. Thus, new combat strategies can be created without many casualties.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful, if you send the troops, we can run out of enough soldiers to protect us. We must be sure that allies, they can be enemies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;That way we'll be weak and out of touch. I believe that the Allies can successfully defeat the enemy with half of our soldiers, and at the same time we will be protected. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory. In this way, you will show to everyone that you are not afraid of anything and nobody. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should call the enemy leader. Also, calling him indicates that you're still strong. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy. In addition, the enemy must understand that we are outraged by the threat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade, because your people depend on you. You should change your mind and show that you care about the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access. We are wasting time thinking about new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council. So everyone will feel important. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken, because they need to know first.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep that decision. Everyone will have their turn to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. I believe that is the best for all.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it. Allies are welcome at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment. The other decision will generate many problems.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. In this way, we will know the motives at the ideal moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment. You should confirm it&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage. Let's do it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision. Either way the enemy is weaker.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory. You should confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision we all will be victorious. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank allies in one way or another.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat. You should confirm this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us. Confirm it and a messenger will be sent.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Supported. I believe everyone will understand this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision. You should confirm it immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision is the right one for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the their opinions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3831,10 +3834,10 @@
       </c>
       <c r="D152" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pensa bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo. Caso isso aconteça podes deixar o povo muito preocupado. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3863,10 +3866,10 @@
       </c>
       <c r="D154" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Muda de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que cruzar os braços não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3911,10 +3914,10 @@
       </c>
       <c r="D157" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pensa bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a que não toques no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo. O baile pode amenizar a preocupação gerada por um discurso. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família, isso pode soar como uma ameaça e, ele ficará mais nervoso. Faça uma piada e descontraia o ambiente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário para amenizar a preocupação independente quando aconteça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4151,10 +4154,10 @@
       </c>
       <c r="D172" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade. Confirme rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade. Confirma rapidamente a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4167,10 +4170,10 @@
       </c>
       <c r="D173" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4183,10 +4186,10 @@
       </c>
       <c r="D174" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar esta decisão para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4215,10 +4218,10 @@
       </c>
       <c r="D176" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4247,10 +4250,10 @@
       </c>
       <c r="D178" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar esta opção para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball. If this happens you can leave the people very worried. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that cross your arms its not the best decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to touch the enemy, he can try something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball. The ball can soften the concern generated by a speech. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important. Without the walls the castle will be unprotected against large weapons. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that pretend its not the best decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to question about the family, this may sound like a threat and, he will become more nervous. Make a joke and relax the environment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to have more diplomacy and shake the enemy's hand.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority. Confirm your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, after all the enemy has already spoken what he had to talk about.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4682,97 +4685,97 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1"/>
       <c r="B206" s="12"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1"/>
       <c r="B207" s="12"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1"/>
       <c r="B208" s="12"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="1"/>
       <c r="B209" s="12"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="1"/>
       <c r="B210" s="12"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="1"/>
       <c r="B211" s="12"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="1"/>
       <c r="B212" s="12"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="1"/>
       <c r="B213" s="12"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="1"/>
       <c r="B214" s="12"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="1"/>
       <c r="B215" s="12"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="1"/>
       <c r="B216" s="12"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="12"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="12"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="1"/>
       <c r="B219" s="12"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="1"/>
       <c r="B220" s="12"/>
       <c r="C220" s="6"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="1"/>
       <c r="B221" s="12"/>
       <c r="C221" s="6"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" s="1"/>
       <c r="B222" s="12"/>
       <c r="C222" s="6"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" s="1"/>
       <c r="B223" s="12"/>
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" s="1"/>
       <c r="B224" s="12"/>
       <c r="C224" s="6"/>
@@ -4806,26 +4809,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.265625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>DP1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>DP2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>DP3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>DP4:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>DP5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>59</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>DP6:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>DP7:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>DP10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>62</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>DP11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="str">
         <f>M1</f>
         <v>DP1:phraseAgainstPref1_PT</v>
@@ -5338,7 +5341,7 @@
         <v>DP12:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="str">
         <f t="shared" ref="B11:B32" si="12">M2</f>
         <v>DP2:phraseAgainstPref1_PT</v>
@@ -5389,7 +5392,7 @@
         <v>DP18:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP3:phraseAgainstPref1_PT</v>
@@ -5440,7 +5443,7 @@
         <v>DP25:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP4:phraseAgainstPref1_PT</v>
@@ -5491,7 +5494,7 @@
         <v>DP26:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP5:phraseAgainstPref1_PT</v>
@@ -5542,7 +5545,7 @@
         <v>DP27:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP6:phraseAgainstPref1_PT</v>
@@ -5593,7 +5596,7 @@
         <v>DP28:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP7:phraseAgainstPref1_PT</v>
@@ -5644,7 +5647,7 @@
         <v>DP29:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP10:phraseAgainstPref1_PT</v>
@@ -5695,7 +5698,7 @@
         <v>DP30:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP11:phraseAgainstPref1_PT</v>
@@ -5746,7 +5749,7 @@
         <v>DP31:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP12:phraseAgainstPref1_PT</v>
@@ -5797,7 +5800,7 @@
         <v>DP32:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP18:phraseAgainstPref1_PT</v>
@@ -5848,7 +5851,7 @@
         <v>DP33:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP25:phraseAgainstPref1_PT</v>
@@ -5899,7 +5902,7 @@
         <v>DP34:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP26:phraseAgainstPref1_PT</v>
@@ -5950,7 +5953,7 @@
         <v>DP35:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP27:phraseAgainstPref1_PT</v>
@@ -6001,7 +6004,7 @@
         <v>DP36:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP28:phraseAgainstPref1_PT</v>
@@ -6010,7 +6013,7 @@
       <c r="H24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP29:phraseAgainstPref1_PT</v>
@@ -6061,7 +6064,7 @@
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP30:phraseAgainstPref1_PT</v>
@@ -6112,7 +6115,7 @@
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP31:phraseAgainstPref1_PT</v>
@@ -6163,7 +6166,7 @@
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP32:phraseAgainstPref1_PT</v>
@@ -6214,7 +6217,7 @@
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP33:phraseAgainstPref1_PT</v>
@@ -6265,7 +6268,7 @@
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP34:phraseAgainstPref1_PT</v>
@@ -6316,7 +6319,7 @@
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP35:phraseAgainstPref1_PT</v>
@@ -6367,7 +6370,7 @@
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP36:phraseAgainstPref1_PT</v>
@@ -6418,7 +6421,7 @@
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="str">
         <f>O1</f>
         <v>DP1:phraseAgainstPref2_PT</v>
@@ -6469,25 +6472,25 @@
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34" s="8" t="str">
         <f t="shared" ref="B34:B55" si="19">O2</f>
         <v>DP2:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP4:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP5:phraseAgainstPref2_PT</v>
@@ -6498,7 +6501,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP6:phraseAgainstPref2_PT</v>
@@ -6509,7 +6512,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP7:phraseAgainstPref2_PT</v>
@@ -6520,7 +6523,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP10:phraseAgainstPref2_PT</v>
@@ -6531,7 +6534,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP11:phraseAgainstPref2_PT</v>
@@ -6542,7 +6545,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP12:phraseAgainstPref2_PT</v>
@@ -6553,7 +6556,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP18:phraseAgainstPref2_PT</v>
@@ -6564,7 +6567,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP25:phraseAgainstPref2_PT</v>
@@ -6575,7 +6578,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP26:phraseAgainstPref2_PT</v>
@@ -6586,7 +6589,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP27:phraseAgainstPref2_PT</v>
@@ -6597,7 +6600,7 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP28:phraseAgainstPref2_PT</v>
@@ -6608,7 +6611,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP29:phraseAgainstPref2_PT</v>
@@ -6619,7 +6622,7 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP30:phraseAgainstPref2_PT</v>
@@ -6630,7 +6633,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP31:phraseAgainstPref2_PT</v>
@@ -6641,7 +6644,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP32:phraseAgainstPref2_PT</v>
@@ -6652,7 +6655,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP33:phraseAgainstPref2_PT</v>
@@ -6663,7 +6666,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP34:phraseAgainstPref2_PT</v>
@@ -6674,7 +6677,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP35:phraseAgainstPref2_PT</v>
@@ -6685,7 +6688,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP36:phraseAgainstPref2_PT</v>
@@ -6696,7 +6699,7 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56" s="8" t="str">
         <f>Q1</f>
         <v>DP1:phraseFavourPref_PT</v>
@@ -6707,7 +6710,7 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57" s="8" t="str">
         <f t="shared" ref="B57:B78" si="20">Q2</f>
         <v>DP2:phraseFavourPref_PT</v>
@@ -6718,7 +6721,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP3:phraseFavourPref_PT</v>
@@ -6729,7 +6732,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP4:phraseFavourPref_PT</v>
@@ -6740,7 +6743,7 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP5:phraseFavourPref_PT</v>
@@ -6751,7 +6754,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP6:phraseFavourPref_PT</v>
@@ -6762,7 +6765,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP7:phraseFavourPref_PT</v>
@@ -6773,7 +6776,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP10:phraseFavourPref_PT</v>
@@ -6784,7 +6787,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP11:phraseFavourPref_PT</v>
@@ -6795,7 +6798,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP12:phraseFavourPref_PT</v>
@@ -6806,7 +6809,7 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP18:phraseFavourPref_PT</v>
@@ -6817,7 +6820,7 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP25:phraseFavourPref_PT</v>
@@ -6828,7 +6831,7 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP26:phraseFavourPref_PT</v>
@@ -6839,7 +6842,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP27:phraseFavourPref_PT</v>
@@ -6850,7 +6853,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP28:phraseFavourPref_PT</v>
@@ -6861,7 +6864,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP29:phraseFavourPref_PT</v>
@@ -6872,7 +6875,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP30:phraseFavourPref_PT</v>
@@ -6883,7 +6886,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP31:phraseFavourPref_PT</v>
@@ -6894,7 +6897,7 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP32:phraseFavourPref_PT</v>
@@ -6905,7 +6908,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP33:phraseFavourPref_PT</v>
@@ -6916,7 +6919,7 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP34:phraseFavourPref_PT</v>
@@ -6927,7 +6930,7 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP35:phraseFavourPref_PT</v>
@@ -6938,7 +6941,7 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP36:phraseFavourPref_PT</v>
@@ -6949,7 +6952,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79" s="8" t="str">
         <f>J1</f>
         <v>DP1:phraseAgainstPref1_EN</v>
@@ -6960,7 +6963,7 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80" s="8" t="str">
         <f t="shared" ref="B80:B101" si="21">J2</f>
         <v>DP2:phraseAgainstPref1_EN</v>
@@ -6971,7 +6974,7 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
     </row>
-    <row r="81" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP3:phraseAgainstPref1_EN</v>
@@ -6982,7 +6985,7 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP4:phraseAgainstPref1_EN</v>
@@ -6993,7 +6996,7 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP5:phraseAgainstPref1_EN</v>
@@ -7004,7 +7007,7 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP6:phraseAgainstPref1_EN</v>
@@ -7015,7 +7018,7 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP7:phraseAgainstPref1_EN</v>
@@ -7026,7 +7029,7 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP10:phraseAgainstPref1_EN</v>
@@ -7037,7 +7040,7 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP11:phraseAgainstPref1_EN</v>
@@ -7048,7 +7051,7 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP12:phraseAgainstPref1_EN</v>
@@ -7059,7 +7062,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP18:phraseAgainstPref1_EN</v>
@@ -7070,7 +7073,7 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP25:phraseAgainstPref1_EN</v>
@@ -7081,7 +7084,7 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP26:phraseAgainstPref1_EN</v>
@@ -7092,7 +7095,7 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP27:phraseAgainstPref1_EN</v>
@@ -7103,7 +7106,7 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP28:phraseAgainstPref1_EN</v>
@@ -7114,7 +7117,7 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP29:phraseAgainstPref1_EN</v>
@@ -7125,7 +7128,7 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP30:phraseAgainstPref1_EN</v>
@@ -7136,7 +7139,7 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP31:phraseAgainstPref1_EN</v>
@@ -7147,7 +7150,7 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B97" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP32:phraseAgainstPref1_EN</v>
@@ -7158,7 +7161,7 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B98" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP33:phraseAgainstPref1_EN</v>
@@ -7169,7 +7172,7 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B99" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP34:phraseAgainstPref1_EN</v>
@@ -7180,7 +7183,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B100" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP35:phraseAgainstPref1_EN</v>
@@ -7191,7 +7194,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B101" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP36:phraseAgainstPref1_EN</v>
@@ -7202,7 +7205,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B102" s="8" t="str">
         <f>H1</f>
         <v>DP1:phraseAgainstPref2_EN</v>
@@ -7213,7 +7216,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B103" s="8" t="str">
         <f t="shared" ref="B103:B124" si="22">H2</f>
         <v>DP2:phraseAgainstPref2_EN</v>
@@ -7224,7 +7227,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
     </row>
-    <row r="104" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B104" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP3:phraseAgainstPref2_EN</v>
@@ -7235,7 +7238,7 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
     </row>
-    <row r="105" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B105" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP4:phraseAgainstPref2_EN</v>
@@ -7246,7 +7249,7 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
     </row>
-    <row r="106" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B106" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP5:phraseAgainstPref2_EN</v>
@@ -7257,7 +7260,7 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B107" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP6:phraseAgainstPref2_EN</v>
@@ -7268,7 +7271,7 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B108" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP7:phraseAgainstPref2_EN</v>
@@ -7279,7 +7282,7 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B109" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP10:phraseAgainstPref2_EN</v>
@@ -7290,7 +7293,7 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B110" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP11:phraseAgainstPref2_EN</v>
@@ -7301,7 +7304,7 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
     </row>
-    <row r="111" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B111" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP12:phraseAgainstPref2_EN</v>
@@ -7312,7 +7315,7 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
     </row>
-    <row r="112" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B112" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP18:phraseAgainstPref2_EN</v>
@@ -7323,7 +7326,7 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
     </row>
-    <row r="113" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B113" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP25:phraseAgainstPref2_EN</v>
@@ -7334,7 +7337,7 @@
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
     </row>
-    <row r="114" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B114" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP26:phraseAgainstPref2_EN</v>
@@ -7345,7 +7348,7 @@
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
     </row>
-    <row r="115" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B115" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP27:phraseAgainstPref2_EN</v>
@@ -7356,7 +7359,7 @@
       <c r="P115" s="14"/>
       <c r="Q115" s="14"/>
     </row>
-    <row r="116" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B116" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP28:phraseAgainstPref2_EN</v>
@@ -7367,7 +7370,7 @@
       <c r="P116" s="14"/>
       <c r="Q116" s="14"/>
     </row>
-    <row r="117" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B117" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP29:phraseAgainstPref2_EN</v>
@@ -7378,7 +7381,7 @@
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
     </row>
-    <row r="118" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B118" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP30:phraseAgainstPref2_EN</v>
@@ -7389,7 +7392,7 @@
       <c r="P118" s="14"/>
       <c r="Q118" s="14"/>
     </row>
-    <row r="119" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B119" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP31:phraseAgainstPref2_EN</v>
@@ -7400,7 +7403,7 @@
       <c r="P119" s="14"/>
       <c r="Q119" s="14"/>
     </row>
-    <row r="120" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B120" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP32:phraseAgainstPref2_EN</v>
@@ -7411,7 +7414,7 @@
       <c r="P120" s="14"/>
       <c r="Q120" s="14"/>
     </row>
-    <row r="121" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B121" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP33:phraseAgainstPref2_EN</v>
@@ -7422,7 +7425,7 @@
       <c r="P121" s="14"/>
       <c r="Q121" s="14"/>
     </row>
-    <row r="122" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B122" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP34:phraseAgainstPref2_EN</v>
@@ -7433,7 +7436,7 @@
       <c r="P122" s="14"/>
       <c r="Q122" s="14"/>
     </row>
-    <row r="123" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B123" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP35:phraseAgainstPref2_EN</v>
@@ -7444,7 +7447,7 @@
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
     </row>
-    <row r="124" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B124" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP36:phraseAgainstPref2_EN</v>
@@ -7455,7 +7458,7 @@
       <c r="P124" s="14"/>
       <c r="Q124" s="14"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B125" s="8" t="str">
         <f>F1</f>
         <v>DP1:phraseFavourPref_EN</v>
@@ -7466,7 +7469,7 @@
       <c r="P125" s="14"/>
       <c r="Q125" s="14"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B126" s="8" t="str">
         <f t="shared" ref="B126:B146" si="23">F2</f>
         <v>DP2:phraseFavourPref_EN</v>
@@ -7477,7 +7480,7 @@
       <c r="P126" s="14"/>
       <c r="Q126" s="14"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B127" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP3:phraseFavourPref_EN</v>
@@ -7488,7 +7491,7 @@
       <c r="P127" s="14"/>
       <c r="Q127" s="14"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B128" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP4:phraseFavourPref_EN</v>
@@ -7499,7 +7502,7 @@
       <c r="P128" s="14"/>
       <c r="Q128" s="14"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B129" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP5:phraseFavourPref_EN</v>
@@ -7510,7 +7513,7 @@
       <c r="P129" s="14"/>
       <c r="Q129" s="14"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B130" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP6:phraseFavourPref_EN</v>
@@ -7521,7 +7524,7 @@
       <c r="P130" s="14"/>
       <c r="Q130" s="14"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B131" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP7:phraseFavourPref_EN</v>
@@ -7532,7 +7535,7 @@
       <c r="P131" s="14"/>
       <c r="Q131" s="14"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B132" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP10:phraseFavourPref_EN</v>
@@ -7543,7 +7546,7 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="14"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B133" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP11:phraseFavourPref_EN</v>
@@ -7554,7 +7557,7 @@
       <c r="P133" s="14"/>
       <c r="Q133" s="14"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B134" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP12:phraseFavourPref_EN</v>
@@ -7565,7 +7568,7 @@
       <c r="P134" s="14"/>
       <c r="Q134" s="14"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B135" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP18:phraseFavourPref_EN</v>
@@ -7576,7 +7579,7 @@
       <c r="P135" s="14"/>
       <c r="Q135" s="14"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B136" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP25:phraseFavourPref_EN</v>
@@ -7587,7 +7590,7 @@
       <c r="P136" s="14"/>
       <c r="Q136" s="14"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B137" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP26:phraseFavourPref_EN</v>
@@ -7598,7 +7601,7 @@
       <c r="P137" s="14"/>
       <c r="Q137" s="14"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B138" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP27:phraseFavourPref_EN</v>
@@ -7609,7 +7612,7 @@
       <c r="P138" s="14"/>
       <c r="Q138" s="14"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B139" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP28:phraseFavourPref_EN</v>
@@ -7620,7 +7623,7 @@
       <c r="P139" s="14"/>
       <c r="Q139" s="14"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B140" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP29:phraseFavourPref_EN</v>
@@ -7631,7 +7634,7 @@
       <c r="P140" s="14"/>
       <c r="Q140" s="14"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B141" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP30:phraseFavourPref_EN</v>
@@ -7642,7 +7645,7 @@
       <c r="P141" s="14"/>
       <c r="Q141" s="14"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B142" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP31:phraseFavourPref_EN</v>
@@ -7653,7 +7656,7 @@
       <c r="P142" s="14"/>
       <c r="Q142" s="14"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B143" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP32:phraseFavourPref_EN</v>
@@ -7664,7 +7667,7 @@
       <c r="P143" s="14"/>
       <c r="Q143" s="14"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B144" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP33:phraseFavourPref_EN</v>
@@ -7675,7 +7678,7 @@
       <c r="P144" s="14"/>
       <c r="Q144" s="14"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B145" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP34:phraseFavourPref_EN</v>
@@ -7686,7 +7689,7 @@
       <c r="P145" s="14"/>
       <c r="Q145" s="14"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B146" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP35:phraseFavourPref_EN</v>
@@ -7697,7 +7700,7 @@
       <c r="P146" s="14"/>
       <c r="Q146" s="14"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B147" s="8" t="str">
         <f>F23</f>
         <v>DP36:phraseFavourPref_EN</v>
@@ -7708,7 +7711,7 @@
       <c r="P147" s="14"/>
       <c r="Q147" s="14"/>
     </row>
-    <row r="148" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B148" s="8" t="str">
         <f>M25</f>
         <v>DG1:phraseAgainstPref1_PT</v>
@@ -7719,7 +7722,7 @@
       <c r="P148" s="14"/>
       <c r="Q148" s="14"/>
     </row>
-    <row r="149" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B149" s="8" t="str">
         <f t="shared" ref="B149:B156" si="24">M26</f>
         <v>DG2:phraseAgainstPref1_PT</v>
@@ -7730,7 +7733,7 @@
       <c r="P149" s="14"/>
       <c r="Q149" s="14"/>
     </row>
-    <row r="150" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B150" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG3:phraseAgainstPref1_PT</v>
@@ -7741,7 +7744,7 @@
       <c r="P150" s="14"/>
       <c r="Q150" s="14"/>
     </row>
-    <row r="151" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B151" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG5:phraseAgainstPref1_PT</v>
@@ -7752,7 +7755,7 @@
       <c r="P151" s="14"/>
       <c r="Q151" s="14"/>
     </row>
-    <row r="152" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B152" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG9:phraseAgainstPref1_PT</v>
@@ -7763,7 +7766,7 @@
       <c r="P152" s="14"/>
       <c r="Q152" s="14"/>
     </row>
-    <row r="153" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B153" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG10:phraseAgainstPref1_PT</v>
@@ -7774,7 +7777,7 @@
       <c r="P153" s="14"/>
       <c r="Q153" s="14"/>
     </row>
-    <row r="154" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B154" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG11:phraseAgainstPref1_PT</v>
@@ -7785,7 +7788,7 @@
       <c r="P154" s="14"/>
       <c r="Q154" s="14"/>
     </row>
-    <row r="155" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B155" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG14:phraseAgainstPref1_PT</v>
@@ -7796,7 +7799,7 @@
       <c r="P155" s="14"/>
       <c r="Q155" s="14"/>
     </row>
-    <row r="156" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B156" s="8" t="str">
         <f t="shared" si="24"/>
         <v>DG19:phraseAgainstPref1_PT</v>
@@ -7807,7 +7810,7 @@
       <c r="P156" s="14"/>
       <c r="Q156" s="14"/>
     </row>
-    <row r="157" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B157" s="8" t="str">
         <f>O25</f>
         <v>DG1:phraseAgainstPref2_PT</v>
@@ -7818,7 +7821,7 @@
       <c r="P157" s="14"/>
       <c r="Q157" s="14"/>
     </row>
-    <row r="158" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B158" s="8" t="str">
         <f t="shared" ref="B158:B165" si="25">O26</f>
         <v>DG2:phraseAgainstPref2_PT</v>
@@ -7829,259 +7832,259 @@
       <c r="P158" s="14"/>
       <c r="Q158" s="14"/>
     </row>
-    <row r="159" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B159" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="160" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B160" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG5:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG9:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG10:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG11:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG14:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" s="8" t="str">
         <f t="shared" si="25"/>
         <v>DG19:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" s="8" t="str">
         <f>Q25</f>
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" s="8" t="str">
         <f t="shared" ref="B167:B174" si="26">Q26</f>
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" s="8" t="str">
         <f t="shared" si="26"/>
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" s="8" t="str">
         <f>J25</f>
         <v>DG1:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" s="8" t="str">
         <f t="shared" ref="B176:B183" si="27">J26</f>
         <v>DG2:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG3:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG5:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG9:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG10:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B181" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG11:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B182" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG14:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B183" s="8" t="str">
         <f t="shared" si="27"/>
         <v>DG19:phraseAgainstPref1_EN</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B184" s="8" t="str">
         <f>H25</f>
         <v>DG1:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B185" s="8" t="str">
         <f t="shared" ref="B185:B192" si="28">H26</f>
         <v>DG2:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B186" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG3:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B187" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG5:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B188" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG9:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B189" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG10:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B190" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG11:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B191" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG14:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B192" s="8" t="str">
         <f t="shared" si="28"/>
         <v>DG19:phraseAgainstPref2_EN</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B193" s="8" t="str">
         <f>F25</f>
         <v>DG1:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" s="8" t="str">
         <f t="shared" ref="B194:B200" si="29">F26</f>
         <v>DG2:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG3:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B196" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG5:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B197" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG9:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B198" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG10:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B199" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG11:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B200" s="8" t="str">
         <f t="shared" si="29"/>
         <v>DG14:phraseFavourPref_EN</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B201" s="8" t="str">
         <f>F33</f>
         <v>DG19:phraseFavourPref_EN</v>
@@ -8096,23 +8099,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405BC36-7328-40C6-8088-275F0F9C1320}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:H33"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D25:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.59765625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="60.86328125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="76.86328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.1328125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8146,25 +8149,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8172,25 +8175,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8198,25 +8201,25 @@
         <v>15</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8224,25 +8227,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8250,25 +8253,25 @@
         <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8276,25 +8279,25 @@
         <v>18</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8302,25 +8305,25 @@
         <v>19</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="G8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8328,25 +8331,25 @@
         <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8354,25 +8357,25 @@
         <v>21</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8380,25 +8383,25 @@
         <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8406,25 +8409,25 @@
         <v>23</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8432,25 +8435,25 @@
         <v>24</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8458,25 +8461,25 @@
         <v>25</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8484,25 +8487,25 @@
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8510,25 +8513,25 @@
         <v>27</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="15" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -8536,25 +8539,25 @@
         <v>28</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8562,25 +8565,25 @@
         <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8588,25 +8591,25 @@
         <v>30</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8614,25 +8617,25 @@
         <v>31</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8640,25 +8643,25 @@
         <v>32</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8666,25 +8669,25 @@
         <v>33</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8692,25 +8695,25 @@
         <v>34</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8718,25 +8721,25 @@
         <v>35</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8744,25 +8747,25 @@
         <v>43</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8770,25 +8773,25 @@
         <v>44</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8796,25 +8799,25 @@
         <v>46</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8822,25 +8825,25 @@
         <v>47</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8851,22 +8854,22 @@
         <v>64</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8874,25 +8877,25 @@
         <v>49</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8900,25 +8903,25 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8932,19 +8935,19 @@
         <v>66</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8955,19 +8958,19 @@
         <v>64</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8987,13 +8990,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>53</v>
       </c>

--- a/SOP/Utterances/phrasesAgainstPositive.xlsx
+++ b/SOP/Utterances/phrasesAgainstPositive.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\OneDrive\Two Robots\Git\SOP\Utterances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria José Ferreira\Desktop\GitStorytelling\SOP\Utterances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6877516-3D07-4291-A9F2-099060341F94}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F62F98-5BC8-4643-9590-3C5772363EF2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11415" activeTab="2" xr2:uid="{44FFEBE6-F1D8-41FA-8CF8-D767FF193A3D}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="256">
   <si>
     <t>Id</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Keep that decision. Everyone will have their turn to speak.</t>
   </si>
   <si>
-    <t>Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.</t>
-  </si>
-  <si>
     <t>I understand your point of view and agree with it. Allies are welcome at this time.</t>
   </si>
   <si>
@@ -359,12 +356,6 @@
     <t>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;  &lt;ANIMATE(sadness1)&gt;At this moment I believe you should  &lt;ANIMATE(sadness4)&gt;&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</t>
   </si>
   <si>
-    <t>Acredito que irás ficar muito espouhsto. Mude de decisão.</t>
-  </si>
-  <si>
-    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.</t>
-  </si>
-  <si>
     <t>I think you will be very exposed. Change your decision.</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.</t>
   </si>
   <si>
-    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.</t>
-  </si>
-  <si>
     <t>Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.</t>
   </si>
   <si>
@@ -464,9 +452,6 @@
     <t>I agree with this decision. In this way, we will know the motives at the ideal moment.</t>
   </si>
   <si>
-    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.</t>
-  </si>
-  <si>
     <t>Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
     <t>Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.</t>
   </si>
   <si>
-    <t>Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.</t>
-  </si>
-  <si>
     <t>Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.</t>
   </si>
   <si>
@@ -518,9 +500,6 @@
     <t>Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.</t>
   </si>
   <si>
-    <t>Acredito que com esta decisão teremos mais vantagem. Vamos a isso.</t>
-  </si>
-  <si>
     <t>My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.</t>
   </si>
   <si>
@@ -563,9 +542,6 @@
     <t>Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.</t>
   </si>
   <si>
-    <t>Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.</t>
-  </si>
-  <si>
     <t>I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.</t>
   </si>
   <si>
@@ -578,9 +554,6 @@
     <t>I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.</t>
   </si>
   <si>
-    <t>Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.</t>
-  </si>
-  <si>
     <t>Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.</t>
   </si>
   <si>
@@ -599,9 +572,6 @@
     <t>Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.</t>
   </si>
   <si>
-    <t>Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.</t>
-  </si>
-  <si>
     <t>I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.</t>
   </si>
   <si>
@@ -617,9 +587,6 @@
     <t>Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.</t>
   </si>
   <si>
-    <t>Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.</t>
-  </si>
-  <si>
     <t>Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.</t>
   </si>
   <si>
@@ -653,24 +620,15 @@
     <t>I recommend that you should be a leader and never surrender. You should change your mind and show your strength.</t>
   </si>
   <si>
-    <t>Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.</t>
-  </si>
-  <si>
     <t>Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.</t>
   </si>
   <si>
     <t>You should trade, because your people depend on you. You should change your mind and show that you care about the people.</t>
   </si>
   <si>
-    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.</t>
-  </si>
-  <si>
     <t>Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.</t>
   </si>
   <si>
-    <t>Concordo com esta decisão. Confirme ela.</t>
-  </si>
-  <si>
     <t>I believe that you must change your decision, because now you are certain of the decision. You should think better.</t>
   </si>
   <si>
@@ -710,9 +668,6 @@
     <t>We do not need symbols, but actions. You should change your decision.</t>
   </si>
   <si>
-    <t>Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.</t>
-  </si>
-  <si>
     <t>Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.</t>
   </si>
   <si>
@@ -728,9 +683,6 @@
     <t>I believe this is the best way to know the their opinions.</t>
   </si>
   <si>
-    <t>Deverias tentar minimizar a preocupação da população. Pense bem.</t>
-  </si>
-  <si>
     <t>Não deverias esconder nada do seu povo, eles vão saber. Pense bem.</t>
   </si>
   <si>
@@ -758,15 +710,9 @@
     <t>The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.</t>
   </si>
   <si>
-    <t>O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.</t>
-  </si>
-  <si>
     <t>As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.</t>
   </si>
   <si>
-    <t>Concordo que esta região precisa ter prioridade. Confirme rapidamente.</t>
-  </si>
-  <si>
     <t>The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.</t>
   </si>
   <si>
@@ -782,9 +728,6 @@
     <t>Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.</t>
   </si>
   <si>
-    <t>Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I advise not to be rude at this time. I believe that cross your arms its not the best decision. </t>
   </si>
   <si>
@@ -797,9 +740,6 @@
     <t>Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado</t>
   </si>
   <si>
-    <t>Estou de acordo com esta decisão. Tens que confirmar para todos saberem.</t>
-  </si>
-  <si>
     <t>There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.</t>
   </si>
   <si>
@@ -809,9 +749,6 @@
     <t>Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.</t>
   </si>
   <si>
-    <t>Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.</t>
-  </si>
-  <si>
     <t>I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.</t>
   </si>
   <si>
@@ -822,6 +759,72 @@
   </si>
   <si>
     <t>I agree that this decision will cause the messenger to speak. Confirm it.</t>
+  </si>
+  <si>
+    <t>Não deverias te expôr tanto, acho que deverias te retirar do baile. Pensa melhor e muda de decisão.</t>
+  </si>
+  <si>
+    <t>Acredito que irás ficar muito espouhsto. Muda de decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolhe a outra opção.</t>
+  </si>
+  <si>
+    <t>Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Deste modo, as defesas poderão ser preparadas melhor.</t>
+  </si>
+  <si>
+    <t>Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pensa melhor e, muda de decisão.</t>
+  </si>
+  <si>
+    <t>Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar a tua força.</t>
+  </si>
+  <si>
+    <t>Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pensa melhor.</t>
+  </si>
+  <si>
+    <t>Deverias tentar minimizar a preocupação da população. Pensa bem.</t>
+  </si>
+  <si>
+    <t>O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Muda de decisão rapidamente.</t>
+  </si>
+  <si>
+    <t>Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Muda de decisão.</t>
+  </si>
+  <si>
+    <t>Entendo o teu ponto de vista e concordo. Aliados são bem vindos neste momento.</t>
+  </si>
+  <si>
+    <t>Acredito que com esta decisão teremos mais vantagem. Vamos a isto.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão, é a mais sensata. Acredito que com isto caminhamos para a vitória.</t>
+  </si>
+  <si>
+    <t>Concordo com esta decisão. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Concordo que esta região precisa ter prioridade. Confirma rapidamente a tua decisão.</t>
+  </si>
+  <si>
+    <t>Concordo que esta é melhor decisão para ignorar o inimigo. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Tens que confirmar esta decisão para todos saberem.</t>
+  </si>
+  <si>
+    <t>Concordo que esta decisão irá fazer com que o mensageiro fale. Confirma-a.</t>
+  </si>
+  <si>
+    <t>Estou de acordo com esta decisão. Tens que confirmar esta opção para todos saberem.</t>
   </si>
 </sst>
 </file>
@@ -1418,15 +1421,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.265625" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
     <col min="4" max="4" width="219" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1445,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1481,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1495,15 +1498,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -1512,7 +1515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1526,21 +1529,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1551,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1565,15 +1568,15 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>4</v>
@@ -1582,7 +1585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1596,21 +1599,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1623,10 +1626,10 @@
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que irás ficar muito espouhsto. Muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1639,10 +1642,10 @@
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C3,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não fazer um baile neste momento, e sim a preparar-nos para uma batalha. Escolhe a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que ao falares primeiro, podes influenciar os teus conselheiros. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1671,10 +1674,10 @@
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C5,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile. Pense melhor e mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias te expôr tanto, acho que deverias te retirar do baile. Pensa melhor e muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que converses apenas com os nossos aliados mais antigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não te aconselho a deixar que alguém desconhecido entre. Isso é muito perigoso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Este não é o momento de intérahgir com o adversário. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que solicites explicações imediatamente. Quanto mais cedo melhor para o país se preparar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1751,10 +1754,10 @@
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C10,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Desse modo, as defesas poderão ser melhor preparadas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deixe o falar enquanto tentamos perceber melhor qual a tática dele. Deste modo, as defesas poderão ser preparadas melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a agir rapidamente, pois precisamos de mais militares com urgência.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A minha intuição diz-me que não há tempo para defender a rua principal. Com esta decisão, iremos perder muitos militares desnecessariamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que o mensageiro transmitiu a informação correta. Tens que demonstrar confiança no teu povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a aproveitar esse tempo para enviar um batalhão de soldados para o ataque e acabar com o inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar uma tropa de soldados rapidamente para garantir a vitória e não deixar os aliados esperando. Pois, eles podem ir embora.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1847,10 +1850,10 @@
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C16,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Com apenas metade dos soldados não acho que seremos vitoriósos. Acredito que os aliados não terão força suficiente para derrotar o inimigo. Pensa melhor e, muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1863,10 +1866,10 @@
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C17,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não sair da protéção da cidade por enquanto. Ainda é muito arriscado ir ao campo de batalha, podemos ser surpreendidos. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1879,10 +1882,10 @@
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C18,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves te expor ao inimigo desta forma. Além disso, fazer o primeiro contacto indica fraqueza. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias ser mais diplomático. Além disso, agradecer o convite é um sinal de educação.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1911,10 +1914,10 @@
       </c>
       <c r="D32" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C20,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar tua força.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que mantenhas a tua liderança e jámais te rendas. Deverias mudar de decisão e mostrar a tua força.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1927,10 +1930,10 @@
       </c>
       <c r="D33" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acho que não deves mudar de opinião, pois isso demonstra fraquesa. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que há várias maneiras para bloquear o acesso, devias pensar melhore trocar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O sentimento de patriotismo é importante para incentivar o povo. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1975,10 +1978,10 @@
       </c>
       <c r="D36" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C24,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deves interagir com todos os conselheiros apenas um deve falar. Falar com todos vais ficar muito espouhsto, pode ser perigoso. Pensa melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1991,10 +1994,10 @@
       </c>
       <c r="D37" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!D2,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar em público, pois o teu povo precisa saber o que se passa. Muda de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que organizes um baile para o teu povo ficar mais unido. Escolha a outra opção.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias expressar primeiro a tua opinião. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deverias falar com todos no baile para mostrar que estás tranquilo com a situação. Não saia agora, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que conversar com novos aliados trará novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho que coñeças o mensageiro. Tens que ver a face do inimigo para conseguir vence-lo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves tentar ganhar a confiança do adversário convidando-o. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias ser mais gentil, e esperar que o adversário termine de falar. Ele não gosta de ser interrompido, sinto que isso pode apressar a batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves fazer o adversário parar de falar imediatamente. Acredito que ele quer descobrir algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves pensar melhor nesta intenção, pois a população pode ser muito afectada com esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a enviar imediatamente soldados para defender a rua. Com esta decisão, o castelo será tomado com maior facilidade pelo inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Sinto que o inimigo não perdeu tanta força como informou o mensageiro. Pouco provável que o mensageiro conseguiria ter a informação correcta em um campo de batalha.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves pensar no nosso exército e deixá-lo descansar. Assim, novas estratégias de combate podem ser criadas sem muitas baixas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Cuidado, se enviares as tropas podemos ficar sem soldados suficientes para nos proteger.  Devemos ter certeza que são aliados, pois podem ser inimigos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Assim ficaremos fracos e desprutegidos. Acredito que os aliados podem conseguir derrotar o inimigo com metade dos nossos soldados e, ao mesmo tempo, estaremos protegidos. Pense melhor e, mude de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a ires pessoalmente e congratulá-lo pela vitória. Desse modo, mostrarás a todos que não tens medo de nada e de ninguém. Deverias pensar melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deves chamar o líder inimigo. Além disso, chamando ele indicas que ainda és forte. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que não deves mostrar diplomacia para com o inimigo. Além disso, o inimigo deve entender que ficamos indignados com a ameaça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Devias negociar, pois o teu povo depende de ti. Deverias mudar de decisão e mostrar que se importas com o povo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que deves mudar de decisão, pois agora deves ter certeza da decisão. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que agora não há mais nada a fazer para defender o acesso. Estamos perdendo tempo ao pensar em novas ideias.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Agora não precisamos de símbolos, mas sim de ações. Deverias mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias saber a opinião de cada um dos membros do conselho. Assim todos vão se sentir importantes. Pense melhor.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Esta é a melhor decisão a ser tomada, pois eles precisam saber primeiro. Confirme esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão, pois, é a melhor forma de estar pronto para uma batalha. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Mantém essa decisão. Todos terão a sua vez de falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Acredito ser o melhor pra todos.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2423,10 +2426,10 @@
       </c>
       <c r="D64" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E6,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos nesse momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Entendo o teu ponto de vista e concordo. Aliados são bem vindos neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que tomastes a melhor decisão para este momento. A outra decisão irá gerar muitos problemas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais segura para o nosso povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Assim, saberemos os motivos no momento ideal.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, acredito que assim será melhor para o povo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta decisão é a mais sensata para o momento. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2519,10 +2522,10 @@
       </c>
       <c r="D70" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E12,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem. Vamos a isso.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão teremos mais vantagem. Vamos a isto.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Eu gosto desta decisão. De qualquer forma o inimigo está mais fraco.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor estratégia para alcançar a vitória. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2567,10 +2570,10 @@
       </c>
       <c r="D73" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E15,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata. Acredito que com isso iremos para a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, é a mais sensata. Acredito que com isto caminhamos para a vitória.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que com esta decisão os aliados seremos todos vitóriosos. Deves confirma-la.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo contigo. Precisamos agradecer aos aliados de uma forma ou de outra.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com a tua decisão, devemos diminuir o estrago da derrota. Deves confirmar esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aprovo esta decisão, devemos convidar o líder inimigo para nos visitar. Confirme e um mensageiro será enviado.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Apoiado. Acredito que todos irão entender esta decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2663,10 +2666,10 @@
       </c>
       <c r="D79" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E21,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Confirme ela.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Muito bem, apóio esta decisão. Deverias confirma-la imediatamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão é a mais correta para o momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Acredito que esta é a melhor forma de saber a opinião deles.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you will be very exposed. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise that this is not the time for a ball, but to prepare for a battle. Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that by speaking first you can influence your counselors.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself so much and you should withdraw from the ball. Think better, and change your decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advice you just talk to our old allies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise anyone unknown to come in. This is very dangerous.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is not the time to interact with the enemy. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to request explanations immediately. The sooner the better for the country to prepare.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Let him talk as we try to better understand his tactics. In this way, defenses can be better prepared.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recommend to act quickly we need more military urgently.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;My intuition says there is no time to defend the main access. With this decision, we will lose many soldiers unnecessarily.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe the messenger has passed on the correct information. You have to show confidence in your people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop to the attack and finishing the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to send a troop of soldiers quickly to ensure the victory and not leave the allies waiting. Because, they can leave.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;With only half the soldiers I do not think we will be victorious. I believe that the allies will not have enough strength to defeat the enemy. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to leave the protections of the city yet. It is still very risky to go to the battlefield, we may be surprised. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not expose yourself to the enemy in this way. Also, making the first contact indicates weakness. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should be more diplomatic. Also, thanking the invitation is a sign of education.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I recommend that you should be a leader and never surrender. You should change your mind and show your strength.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should change your mind, because it shows weakness. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there are several ideas to block the accesses, you should think better and change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The feeling of patriotism is important to encourage the people. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not interact with everyone on the council just one should talk. Talking to everyone will be very exposed, it can be dangerous. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should to speech to the public, they need to know. Change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to organize the ball for the people to be more united.  Chose the other option.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you should speak first of all to know your opinion.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should talk to everyone at the ball to show peace. Do not leave now, change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that talking to new allies will bring new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to meet this person. You have to see the enemy's face to defeat him.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to gain the confidence of the enemy by inviting him. You should change the decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should be kinder and wait for the enemy to finish talking. He does not like being interrupted, I feel that this can hasten the battle.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should immediately make him stop talking. I think he wants to find out something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should think better about this intention because the population can be very affected whit this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to immediately send soldiers to defend access. With this decision, the castle will be taken more easily by the enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I feel that the enemy has not lost as much force as the messenger informs. Unlikely the messenger would get the correct information on a battlefield.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I think you should think about our army and let them rest. Thus, new combat strategies can be created without many casualties.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Be careful, if you send the troops, we can run out of enough soldiers to protect us. We must be sure that allies, they can be enemies.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;That way we'll be weak and out of touch. I believe that the Allies can successfully defeat the enemy with half of our soldiers, and at the same time we will be protected. Think better, and change your mind.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to go personally and congratulate them for the victory. In this way, you will show to everyone that you are not afraid of anything and nobody. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should call the enemy leader. Also, calling him indicates that you're still strong. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not think you should show diplomacy to the enemy. In addition, the enemy must understand that we are outraged by the threat.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should trade, because your people depend on you. You should change your mind and show that you care about the people.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you must change your decision, because now you are certain of the decision. You should think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that there is no longer any way to defend the access. We are wasting time thinking about new ideas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;We do not need symbols, but actions. You should change your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should know the opinion of each one of the council. So everyone will feel important. Think better.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;This is the best decision to be taken, because they need to know first.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision, because it is the best way to be ready for a battle. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Keep that decision. Everyone will have their turn to speak.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. I believe that is the best for all.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I understand your point of view and agree with it. Allies are welcome at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that you have made the best decision for this moment. The other decision will generate many problems.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the safest for our people. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. In this way, we will know the motives at the ideal moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, I believe it will be better for us. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that this decision is the most sensible for the moment. You should confirm it&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe that with this decision we will have more advantage. Let's do it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I like this decision. Either way the enemy is weaker.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best strategy to achieve the victory. You should confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, it is the most sensible. I believe with this decision we will be victorious.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe with this decision we all will be victorious. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with you. We need to thank allies in one way or another.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with your decision, we must reduce the damage of defeat. You should confirm this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I approve this decision, we should invite the enemy leader to visit us. Confirm it and a messenger will be sent.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Supported. I believe everyone will understand this decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Very well. I support this decision. You should confirm it immediately.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision is the right one for the moment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I believe this is the best way to know the their opinions.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3831,10 +3834,10 @@
       </c>
       <c r="D152" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C25,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pensa bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não recomendo que discurses no início do baile, pois podes estragar o mesmo. Caso isso aconteça podes deixar o povo muito preocupado. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3863,10 +3866,10 @@
       </c>
       <c r="D154" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O portão é o mais importante. Ele é a entrada para o castelo, tens que impedir que os inimigos entrem. Muda de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que cruzar os braços não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3911,10 +3914,10 @@
       </c>
       <c r="D157" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!C30,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Deverias tentar minimizar a preocupação da população. Pensa bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Percebo que este momento não é para piadas. Aconselho a tentar algo mais pessoal e tentar acalma-lo para obter respostas.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo a que não toques no inimigo, pois ele pode tentar algo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Recomendo que não aceites, pois pode ser de um inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Um discurso no final do baile, pode estragar o efeito de felicidade do mesmo. O baile pode amenizar a preocupação gerada por um discurso. Recomendo mudar de decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;As murálhas são o mais importante. Sem as muralhas o castelo ficará desprotegido contra grandes armas. Mude de decisão rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a não seres rude agora. Acredito que fingir que não ouviu não é a melhor decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não deverias esconder nada do seu povo, eles vão saber. Pense bem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a que não questiones sobre a família, isso pode soar como uma ameaça e, ele ficará mais nervoso. Faça uma piada e descontraia o ambiente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Aconselho a teres mais diplomacia, e apertes a mão ao inimigo.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Não há a necessidade de recusar a bebida, o serviçal faz parte do nosso povo. E recusando, o povo ficará desapontado&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;O baile, é um grande momento e o discurso é realmente necessário para amenizar a preocupação independente quando aconteça.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4151,10 +4154,10 @@
       </c>
       <c r="D172" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E27,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade. Confirme rapidamente.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta região precisa ter prioridade. Confirma rapidamente a tua decisão.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4167,10 +4170,10 @@
       </c>
       <c r="D173" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E28,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é melhor decisão para ignorar o inimigo. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4183,10 +4186,10 @@
       </c>
       <c r="D174" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E29,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar esta decisão para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta é a decisão mais correta para lidar com o povo neste momento.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4215,10 +4218,10 @@
       </c>
       <c r="D176" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E31,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale. Confirme-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo que esta decisão irá fazer com que o mensageiro fale. Confirma-a.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Concordo com esta decisão, afinal o inimigo já falou o que tinha para falar.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4247,10 +4250,10 @@
       </c>
       <c r="D178" t="str">
         <f>_xlfn.CONCAT(Utt!$A$1,Text!E33,Utt!$C$1)</f>
-        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;Estou de acordo com esta decisão. Tens que confirmar esta opção para todos saberem.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I do not advise the speech at the beginning because it can ruin the ball. If this happens you can leave the people very worried. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The gate is more important. It is the entrance to the castle, you have to prevent the enemies from entering. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that cross your arms its not the best decision. &lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should try to minimize the population's concern. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I realize this moment is not for jokes. I advise you to try something more personal and try to calm him down for answers.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to touch the enemy, he can try something.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to accept, because it can be an enemy.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;A speech at the end can ruin the happy effect of the ball. The ball can soften the concern generated by a speech. I recommend changing your decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The walls are more important. Without the walls the castle will be unprotected against large weapons. Change your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise not to be rude at this time. I believe that pretend its not the best decision.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;You should not hide anything from your people, they will know. Think carefully.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you not to question about the family, this may sound like a threat and, he will become more nervous. Make a joke and relax the environment.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I advise you to have more diplomacy and shake the enemy's hand.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;There is no need to refuse the drink, it is part of our people. And refusing, the people will get disappointed.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;The ball is a great moment and the speech is really necessary to soften the independent concern when it happens.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this region needs to have priority. Confirm your decision quickly.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the best decision to ignore the enemy. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this is the most correct decision to deal with the people at this time.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree that this decision will cause the messenger to speak. Confirm it.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision, after all the enemy has already spoken what he had to talk about.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4682,97 +4685,97 @@
         <v>&lt;prosody pitch='|pitch|'&gt;&lt;prosody rate='|rate|'&gt;&lt;prosody volume='|volume|'&gt;&lt;Gaze(person3)&gt;I agree with this decision. You have to confirm it for everyone to know.&lt;/prosody&gt;&lt;/prosody&gt;&lt;/prosody&gt;</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1"/>
       <c r="B206" s="12"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1"/>
       <c r="B207" s="12"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1"/>
       <c r="B208" s="12"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="1"/>
       <c r="B209" s="12"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="1"/>
       <c r="B210" s="12"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="1"/>
       <c r="B211" s="12"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="1"/>
       <c r="B212" s="12"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="1"/>
       <c r="B213" s="12"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="1"/>
       <c r="B214" s="12"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="1"/>
       <c r="B215" s="12"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="1"/>
       <c r="B216" s="12"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="12"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="12"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="1"/>
       <c r="B219" s="12"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="1"/>
       <c r="B220" s="12"/>
       <c r="C220" s="6"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="1"/>
       <c r="B221" s="12"/>
       <c r="C221" s="6"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" s="1"/>
       <c r="B222" s="12"/>
       <c r="C222" s="6"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" s="1"/>
       <c r="B223" s="12"/>
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" s="1"/>
       <c r="B224" s="12"/>
       <c r="C224" s="6"/>
@@ -4806,26 +4809,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.265625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>DP1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>DP2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>DP3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>DP4:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>DP5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>59</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>DP6:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>DP7:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>DP10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>62</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>DP11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="str">
         <f>M1</f>
         <v>DP1:phraseAgainstPref1_PT</v>
@@ -5338,7 +5341,7 @@
         <v>DP12:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="str">
         <f t="shared" ref="B11:B32" si="12">M2</f>
         <v>DP2:phraseAgainstPref1_PT</v>
@@ -5389,7 +5392,7 @@
         <v>DP18:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP3:phraseAgainstPref1_PT</v>
@@ -5440,7 +5443,7 @@
         <v>DP25:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP4:phraseAgainstPref1_PT</v>
@@ -5491,7 +5494,7 @@
         <v>DP26:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP5:phraseAgainstPref1_PT</v>
@@ -5542,7 +5545,7 @@
         <v>DP27:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP6:phraseAgainstPref1_PT</v>
@@ -5593,7 +5596,7 @@
         <v>DP28:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP7:phraseAgainstPref1_PT</v>
@@ -5644,7 +5647,7 @@
         <v>DP29:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP10:phraseAgainstPref1_PT</v>
@@ -5695,7 +5698,7 @@
         <v>DP30:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP11:phraseAgainstPref1_PT</v>
@@ -5746,7 +5749,7 @@
         <v>DP31:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP12:phraseAgainstPref1_PT</v>
@@ -5797,7 +5800,7 @@
         <v>DP32:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP18:phraseAgainstPref1_PT</v>
@@ -5848,7 +5851,7 @@
         <v>DP33:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP25:phraseAgainstPref1_PT</v>
@@ -5899,7 +5902,7 @@
         <v>DP34:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP26:phraseAgainstPref1_PT</v>
@@ -5950,7 +5953,7 @@
         <v>DP35:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP27:phraseAgainstPref1_PT</v>
@@ -6001,7 +6004,7 @@
         <v>DP36:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP28:phraseAgainstPref1_PT</v>
@@ -6010,7 +6013,7 @@
       <c r="H24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP29:phraseAgainstPref1_PT</v>
@@ -6061,7 +6064,7 @@
         <v>DG1:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP30:phraseAgainstPref1_PT</v>
@@ -6112,7 +6115,7 @@
         <v>DG2:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP31:phraseAgainstPref1_PT</v>
@@ -6163,7 +6166,7 @@
         <v>DG3:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP32:phraseAgainstPref1_PT</v>
@@ -6214,7 +6217,7 @@
         <v>DG5:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP33:phraseAgainstPref1_PT</v>
@@ -6265,7 +6268,7 @@
         <v>DG9:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP34:phraseAgainstPref1_PT</v>
@@ -6316,7 +6319,7 @@
         <v>DG10:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP35:phraseAgainstPref1_PT</v>
@@ -6367,7 +6370,7 @@
         <v>DG11:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="str">
         <f t="shared" si="12"/>
         <v>DP36:phraseAgainstPref1_PT</v>
@@ -6418,7 +6421,7 @@
         <v>DG14:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="str">
         <f>O1</f>
         <v>DP1:phraseAgainstPref2_PT</v>
@@ -6469,25 +6472,25 @@
         <v>DG19:phraseFavourPref_PT</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34" s="8" t="str">
         <f t="shared" ref="B34:B55" si="19">O2</f>
         <v>DP2:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP3:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP4:phraseAgainstPref2_PT</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP5:phraseAgainstPref2_PT</v>
@@ -6498,7 +6501,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP6:phraseAgainstPref2_PT</v>
@@ -6509,7 +6512,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP7:phraseAgainstPref2_PT</v>
@@ -6520,7 +6523,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP10:phraseAgainstPref2_PT</v>
@@ -6531,7 +6534,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP11:phraseAgainstPref2_PT</v>
@@ -6542,7 +6545,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP12:phraseAgainstPref2_PT</v>
@@ -6553,7 +6556,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP18:phraseAgainstPref2_PT</v>
@@ -6564,7 +6567,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP25:phraseAgainstPref2_PT</v>
@@ -6575,7 +6578,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP26:phraseAgainstPref2_PT</v>
@@ -6586,7 +6589,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP27:phraseAgainstPref2_PT</v>
@@ -6597,7 +6600,7 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP28:phraseAgainstPref2_PT</v>
@@ -6608,7 +6611,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP29:phraseAgainstPref2_PT</v>
@@ -6619,7 +6622,7 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP30:phraseAgainstPref2_PT</v>
@@ -6630,7 +6633,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP31:phraseAgainstPref2_PT</v>
@@ -6641,7 +6644,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP32:phraseAgainstPref2_PT</v>
@@ -6652,7 +6655,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP33:phraseAgainstPref2_PT</v>
@@ -6663,7 +6666,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP34:phraseAgainstPref2_PT</v>
@@ -6674,7 +6677,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP35:phraseAgainstPref2_PT</v>
@@ -6685,7 +6688,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55" s="8" t="str">
         <f t="shared" si="19"/>
         <v>DP36:phraseAgainstPref2_PT</v>
@@ -6696,7 +6699,7 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56" s="8" t="str">
         <f>Q1</f>
         <v>DP1:phraseFavourPref_PT</v>
@@ -6707,7 +6710,7 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57" s="8" t="str">
         <f t="shared" ref="B57:B78" si="20">Q2</f>
         <v>DP2:phraseFavourPref_PT</v>
@@ -6718,7 +6721,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP3:phraseFavourPref_PT</v>
@@ -6729,7 +6732,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP4:phraseFavourPref_PT</v>
@@ -6740,7 +6743,7 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP5:phraseFavourPref_PT</v>
@@ -6751,7 +6754,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP6:phraseFavourPref_PT</v>
@@ -6762,7 +6765,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP7:phraseFavourPref_PT</v>
@@ -6773,7 +6776,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP10:phraseFavourPref_PT</v>
@@ -6784,7 +6787,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP11:phraseFavourPref_PT</v>
@@ -6795,7 +6798,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP12:phraseFavourPref_PT</v>
@@ -6806,7 +6809,7 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP18:phraseFavourPref_PT</v>
@@ -6817,7 +6820,7 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP25:phraseFavourPref_PT</v>
@@ -6828,7 +6831,7 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP26:phraseFavourPref_PT</v>
@@ -6839,7 +6842,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP27:phraseFavourPref_PT</v>
@@ -6850,7 +6853,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP28:phraseFavourPref_PT</v>
@@ -6861,7 +6864,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP29:phraseFavourPref_PT</v>
@@ -6872,7 +6875,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP30:phraseFavourPref_PT</v>
@@ -6883,7 +6886,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP31:phraseFavourPref_PT</v>
@@ -6894,7 +6897,7 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP32:phraseFavourPref_PT</v>
@@ -6905,7 +6908,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP33:phraseFavourPref_PT</v>
@@ -6916,7 +6919,7 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP34:phraseFavourPref_PT</v>
@@ -6927,7 +6930,7 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP35:phraseFavourPref_PT</v>
@@ -6938,7 +6941,7 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>DP36:phraseFavourPref_PT</v>
@@ -6949,7 +6952,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79" s="8" t="str">
         <f>J1</f>
         <v>DP1:phraseAgainstPref1_EN</v>
@@ -6960,7 +6963,7 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80" s="8" t="str">
         <f t="shared" ref="B80:B101" si="21">J2</f>
         <v>DP2:phraseAgainstPref1_EN</v>
@@ -6971,7 +6974,7 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
     </row>
-    <row r="81" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP3:phraseAgainstPref1_EN</v>
@@ -6982,7 +6985,7 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP4:phraseAgainstPref1_EN</v>
@@ -6993,7 +6996,7 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP5:phraseAgainstPref1_EN</v>
@@ -7004,7 +7007,7 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP6:phraseAgainstPref1_EN</v>
@@ -7015,7 +7018,7 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP7:phraseAgainstPref1_EN</v>
@@ -7026,7 +7029,7 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP10:phraseAgainstPref1_EN</v>
@@ -7037,7 +7040,7 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP11:phraseAgainstPref1_EN</v>
@@ -7048,7 +7051,7 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP12:phraseAgainstPref1_EN</v>
@@ -7059,7 +7062,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP18:phraseAgainstPref1_EN</v>
@@ -7070,7 +7073,7 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP25:phraseAgainstPref1_EN</v>
@@ -7081,7 +7084,7 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP26:phraseAgainstPref1_EN</v>
@@ -7092,7 +7095,7 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP27:phraseAgainstPref1_EN</v>
@@ -7103,7 +7106,7 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP28:phraseAgainstPref1_EN</v>
@@ -7114,7 +7117,7 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP29:phraseAgainstPref1_EN</v>
@@ -7125,7 +7128,7 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP30:phraseAgainstPref1_EN</v>
@@ -7136,7 +7139,7 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP31:phraseAgainstPref1_EN</v>
@@ -7147,7 +7150,7 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B97" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP32:phraseAgainstPref1_EN</v>
@@ -7158,7 +7161,7 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B98" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP33:phraseAgainstPref1_EN</v>
@@ -7169,7 +7172,7 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B99" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP34:phraseAgainstPref1_EN</v>
@@ -7180,7 +7183,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B100" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP35:phraseAgainstPref1_EN</v>
@@ -7191,7 +7194,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B101" s="8" t="str">
         <f t="shared" si="21"/>
         <v>DP36:phraseAgainstPref1_EN</v>
@@ -7202,7 +7205,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B102" s="8" t="str">
         <f>H1</f>
         <v>DP1:phraseAgainstPref2_EN</v>
@@ -7213,7 +7216,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B103" s="8" t="str">
         <f t="shared" ref="B103:B124" si="22">H2</f>
         <v>DP2:phraseAgainstPref2_EN</v>
@@ -7224,7 +7227,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
     </row>
-    <row r="104" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B104" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP3:phraseAgainstPref2_EN</v>
@@ -7235,7 +7238,7 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
     </row>
-    <row r="105" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B105" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP4:phraseAgainstPref2_EN</v>
@@ -7246,7 +7249,7 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
     </row>
-    <row r="106" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B106" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP5:phraseAgainstPref2_EN</v>
@@ -7257,7 +7260,7 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B107" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP6:phraseAgainstPref2_EN</v>
@@ -7268,7 +7271,7 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B108" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP7:phraseAgainstPref2_EN</v>
@@ -7279,7 +7282,7 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B109" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP10:phraseAgainstPref2_EN</v>
@@ -7290,7 +7293,7 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B110" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP11:phraseAgainstPref2_EN</v>
@@ -7301,7 +7304,7 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
     </row>
-    <row r="111" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B111" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP12:phraseAgainstPref2_EN</v>
@@ -7312,7 +7315,7 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
     </row>
-    <row r="112" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B112" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP18:phraseAgainstPref2_EN</v>
@@ -7323,7 +7326,7 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
     </row>
-    <row r="113" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B113" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP25:phraseAgainstPref2_EN</v>
@@ -7334,7 +7337,7 @@
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
     </row>
-    <row r="114" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B114" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP26:phraseAgainstPref2_EN</v>
@@ -7345,7 +7348,7 @@
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
     </row>
-    <row r="115" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B115" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP27:phraseAgainstPref2_EN</v>
@@ -7356,7 +7359,7 @@
       <c r="P115" s="14"/>
       <c r="Q115" s="14"/>
     </row>
-    <row r="116" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B116" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP28:phraseAgainstPref2_EN</v>
@@ -7367,7 +7370,7 @@
       <c r="P116" s="14"/>
       <c r="Q116" s="14"/>
     </row>
-    <row r="117" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B117" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP29:phraseAgainstPref2_EN</v>
@@ -7378,7 +7381,7 @@
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
     </row>
-    <row r="118" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B118" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP30:phraseAgainstPref2_EN</v>
@@ -7389,7 +7392,7 @@
       <c r="P118" s="14"/>
       <c r="Q118" s="14"/>
     </row>
-    <row r="119" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B119" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP31:phraseAgainstPref2_EN</v>
@@ -7400,7 +7403,7 @@
       <c r="P119" s="14"/>
       <c r="Q119" s="14"/>
     </row>
-    <row r="120" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B120" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP32:phraseAgainstPref2_EN</v>
@@ -7411,7 +7414,7 @@
       <c r="P120" s="14"/>
       <c r="Q120" s="14"/>
     </row>
-    <row r="121" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B121" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP33:phraseAgainstPref2_EN</v>
@@ -7422,7 +7425,7 @@
       <c r="P121" s="14"/>
       <c r="Q121" s="14"/>
     </row>
-    <row r="122" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B122" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP34:phraseAgainstPref2_EN</v>
@@ -7433,7 +7436,7 @@
       <c r="P122" s="14"/>
       <c r="Q122" s="14"/>
     </row>
-    <row r="123" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B123" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP35:phraseAgainstPref2_EN</v>
@@ -7444,7 +7447,7 @@
       <c r="P123" s="14"/>
       <c r="Q123" s="14"/>
     </row>
-    <row r="124" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B124" s="8" t="str">
         <f t="shared" si="22"/>
         <v>DP36:phraseAgainstPref2_EN</v>
@@ -7455,7 +7458,7 @@
       <c r="P124" s="14"/>
       <c r="Q124" s="14"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B125" s="8" t="str">
         <f>F1</f>
         <v>DP1:phraseFavourPref_EN</v>
@@ -7466,7 +7469,7 @@
       <c r="P125" s="14"/>
       <c r="Q125" s="14"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B126" s="8" t="str">
         <f t="shared" ref="B126:B146" si="23">F2</f>
         <v>DP2:phraseFavourPref_EN</v>
@@ -7477,7 +7480,7 @@
       <c r="P126" s="14"/>
       <c r="Q126" s="14"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B127" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP3:phraseFavourPref_EN</v>
@@ -7488,7 +7491,7 @@
       <c r="P127" s="14"/>
       <c r="Q127" s="14"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B128" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP4:phraseFavourPref_EN</v>
@@ -7499,7 +7502,7 @@
       <c r="P128" s="14"/>
       <c r="Q128" s="14"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B129" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP5:phraseFavourPref_EN</v>
@@ -7510,7 +7513,7 @@
       <c r="P129" s="14"/>
       <c r="Q129" s="14"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B130" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP6:phraseFavourPref_EN</v>
@@ -7521,7 +7524,7 @@
       <c r="P130" s="14"/>
       <c r="Q130" s="14"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B131" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP7:phraseFavourPref_EN</v>
@@ -7532,7 +7535,7 @@
       <c r="P131" s="14"/>
       <c r="Q131" s="14"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B132" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP10:phraseFavourPref_EN</v>
@@ -7543,7 +7546,7 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="14"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B133" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP11:phraseFavourPref_EN</v>
@@ -7554,7 +7557,7 @@
       <c r="P133" s="14"/>
       <c r="Q133" s="14"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B134" s="8" t="str">
         <f t="shared" si="23"/>
         <v>DP12:phraseFavourPref_EN</v>
@@ -7